--- a/assets/damon_runyon_data_CLEAN.xlsx
+++ b/assets/damon_runyon_data_CLEAN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/dashboard_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6264F3C-1160-2548-ADAB-FEBAB60265F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E9E67-E2EE-0448-BB7D-E062E9F3D51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="26760" firstSheet="3" activeTab="12" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="26760" activeTab="7" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,21 +20,17 @@
     <sheet name="NIH &amp; Grant Funding Impact" sheetId="10" r:id="rId5"/>
     <sheet name="NIH &amp; Funding Impact Summary" sheetId="19" r:id="rId6"/>
     <sheet name="Awards &amp; Recognitions" sheetId="9" r:id="rId7"/>
-    <sheet name="Publications (ICite #)  " sheetId="12" r:id="rId8"/>
+    <sheet name="Publications (ICite #)" sheetId="12" r:id="rId8"/>
     <sheet name="Publication Impact" sheetId="15" r:id="rId9"/>
     <sheet name="Innovation &amp; Commercialization" sheetId="16" r:id="rId10"/>
     <sheet name="Innov. &amp; Commer. Summary" sheetId="20" r:id="rId11"/>
     <sheet name="Companies" sheetId="18" r:id="rId12"/>
     <sheet name="Companies Summary" sheetId="21" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Companies!$C$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2808,7 +2804,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3280,11 +3276,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3299,6 +3296,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3317,12 +3320,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3346,16 +3343,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,16 +3406,16 @@
     <xf numFmtId="0" fontId="36" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3433,16 +3424,34 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3454,25 +3463,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3497,516 +3489,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Omar Abdel-Wahab, MD"/>
-      <sheetName val="Catherine J. Wu, MD"/>
-      <sheetName val="Nathanael S. Gray, PhD"/>
-      <sheetName val="Feng Zhang, PhD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Damon Runyon Award</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>H3 Biomedicine</v>
-          </cell>
-          <cell r="C3">
-            <v>6</v>
-          </cell>
-          <cell r="D3">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Foundation Medicine</v>
-          </cell>
-          <cell r="C4">
-            <v>7</v>
-          </cell>
-          <cell r="D4">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Prelude Therapeutics</v>
-          </cell>
-          <cell r="C5">
-            <v>8</v>
-          </cell>
-          <cell r="D5">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>C4 Therapeutics</v>
-          </cell>
-          <cell r="C6">
-            <v>6</v>
-          </cell>
-          <cell r="D6">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Cygnal Therapeutics</v>
-          </cell>
-          <cell r="C7">
-            <v>7</v>
-          </cell>
-          <cell r="D7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>AIchemy Inc.</v>
-          </cell>
-          <cell r="C8">
-            <v>8</v>
-          </cell>
-          <cell r="D8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>AstraZeneca</v>
-          </cell>
-          <cell r="C9">
-            <v>7</v>
-          </cell>
-          <cell r="D9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Codify Therapeutics</v>
-          </cell>
-          <cell r="C10">
-            <v>8</v>
-          </cell>
-          <cell r="D10">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Envisagenics</v>
-          </cell>
-          <cell r="C11">
-            <v>6</v>
-          </cell>
-          <cell r="D11">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Damon Runyon Award</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>CARGO Therapeutics</v>
-          </cell>
-          <cell r="C3">
-            <v>14</v>
-          </cell>
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Neon Therapeutics</v>
-          </cell>
-          <cell r="C4">
-            <v>9</v>
-          </cell>
-          <cell r="D4">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Dragonfly Therapeutics</v>
-          </cell>
-          <cell r="C5">
-            <v>11</v>
-          </cell>
-          <cell r="D5">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Personalis</v>
-          </cell>
-          <cell r="C6">
-            <v>12</v>
-          </cell>
-          <cell r="D6">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Repertoire Immune Medicines</v>
-          </cell>
-          <cell r="C7">
-            <v>13</v>
-          </cell>
-          <cell r="D7">
-            <v>6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Damon Runyon Award</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>C4 Therapeutics</v>
-          </cell>
-          <cell r="C3">
-            <v>7</v>
-          </cell>
-          <cell r="D3">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Syros Pharmaceuticals</v>
-          </cell>
-          <cell r="C4">
-            <v>4</v>
-          </cell>
-          <cell r="D4">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Allorion Therapeutics</v>
-          </cell>
-          <cell r="C5">
-            <v>12</v>
-          </cell>
-          <cell r="D5">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Gatekeeper</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-          <cell r="D6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Petra Pharma</v>
-          </cell>
-          <cell r="C7">
-            <v>8</v>
-          </cell>
-          <cell r="D7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Soltego</v>
-          </cell>
-          <cell r="C8">
-            <v>10</v>
-          </cell>
-          <cell r="D8">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>B2S</v>
-          </cell>
-          <cell r="C9">
-            <v>13</v>
-          </cell>
-          <cell r="D9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Jengu Therapeutics</v>
-          </cell>
-          <cell r="C10">
-            <v>14</v>
-          </cell>
-          <cell r="D10">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Larkspur Biosciences</v>
-          </cell>
-          <cell r="C11">
-            <v>12</v>
-          </cell>
-          <cell r="D11">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Light Horse Therapeutics</v>
-          </cell>
-          <cell r="C12">
-            <v>13</v>
-          </cell>
-          <cell r="D12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nurix Therapeutics</v>
-          </cell>
-          <cell r="C13">
-            <v>10</v>
-          </cell>
-          <cell r="D13">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>AstraZeneca</v>
-          </cell>
-          <cell r="C14">
-            <v>13</v>
-          </cell>
-          <cell r="D14">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Monopar Therapeutics</v>
-          </cell>
-          <cell r="C15">
-            <v>11</v>
-          </cell>
-          <cell r="D15">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Gate Bioscience</v>
-          </cell>
-          <cell r="C16">
-            <v>14</v>
-          </cell>
-          <cell r="D16">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Damon Runyon Award</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Editas Medicine</v>
-          </cell>
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Beam Therapeutics</v>
-          </cell>
-          <cell r="C4">
-            <v>5</v>
-          </cell>
-          <cell r="D4">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Arbor Biotechnologies</v>
-          </cell>
-          <cell r="C5">
-            <v>4</v>
-          </cell>
-          <cell r="D5">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Sherlock Biosciences</v>
-          </cell>
-          <cell r="C6">
-            <v>7</v>
-          </cell>
-          <cell r="D6">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Aera Therapeutics</v>
-          </cell>
-          <cell r="C7">
-            <v>10</v>
-          </cell>
-          <cell r="D7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Moonwalk Therapeutics</v>
-          </cell>
-          <cell r="C8">
-            <v>11</v>
-          </cell>
-          <cell r="D8">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Proof Diagnostics</v>
-          </cell>
-          <cell r="C9">
-            <v>8</v>
-          </cell>
-          <cell r="D9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Serendipity Biosciences</v>
-          </cell>
-          <cell r="C10">
-            <v>6</v>
-          </cell>
-          <cell r="D10">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Mammoth Biosciences</v>
-          </cell>
-          <cell r="C11">
-            <v>7</v>
-          </cell>
-          <cell r="D11">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Synthego</v>
-          </cell>
-          <cell r="C12">
-            <v>6</v>
-          </cell>
-          <cell r="D12">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Deep Genomics</v>
-          </cell>
-          <cell r="C13">
-            <v>8</v>
-          </cell>
-          <cell r="D13">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Pairwise Plants</v>
-          </cell>
-          <cell r="C14">
-            <v>7</v>
-          </cell>
-          <cell r="D14">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29672,7 +29154,7 @@
       <c r="C2" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="282" t="s">
+      <c r="D2" s="294" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="174" t="s">
@@ -29699,7 +29181,7 @@
       <c r="C3" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="283"/>
+      <c r="D3" s="295"/>
       <c r="E3" s="174" t="s">
         <v>337</v>
       </c>
@@ -29714,10 +29196,10 @@
       </c>
       <c r="I3" s="217"/>
       <c r="J3"/>
-      <c r="K3" s="296" t="s">
+      <c r="K3" s="292" t="s">
         <v>330</v>
       </c>
-      <c r="L3" s="296"/>
+      <c r="L3" s="292"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -29752,7 +29234,7 @@
       <c r="C4" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="299" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="174" t="s">
@@ -29786,7 +29268,7 @@
       <c r="C5" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="292"/>
+      <c r="D5" s="297"/>
       <c r="E5" s="174" t="s">
         <v>337</v>
       </c>
@@ -29798,10 +29280,10 @@
       </c>
       <c r="H5" s="212"/>
       <c r="I5" s="217"/>
-      <c r="J5" s="297">
+      <c r="J5" s="293">
         <v>1</v>
       </c>
-      <c r="K5" s="297" t="s">
+      <c r="K5" s="293" t="s">
         <v>125</v>
       </c>
       <c r="L5" s="102">
@@ -29818,7 +29300,7 @@
       <c r="C6" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="292"/>
+      <c r="D6" s="297"/>
       <c r="E6" s="174" t="s">
         <v>337</v>
       </c>
@@ -29830,8 +29312,8 @@
       </c>
       <c r="H6" s="212"/>
       <c r="I6" s="217"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="297"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
       <c r="L6" s="102">
         <v>10251922</v>
       </c>
@@ -29846,7 +29328,7 @@
       <c r="C7" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="292"/>
+      <c r="D7" s="297"/>
       <c r="E7" s="174" t="s">
         <v>337</v>
       </c>
@@ -29872,7 +29354,7 @@
       <c r="C8" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="292" t="s">
+      <c r="D8" s="297" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="174" t="s">
@@ -29900,7 +29382,7 @@
       <c r="C9" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="292"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="174" t="s">
         <v>337</v>
       </c>
@@ -29926,7 +29408,7 @@
       <c r="C10" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="292"/>
+      <c r="D10" s="297"/>
       <c r="E10" s="174" t="s">
         <v>337</v>
       </c>
@@ -29952,7 +29434,7 @@
       <c r="C11" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="293"/>
+      <c r="D11" s="298"/>
       <c r="E11" s="174" t="s">
         <v>337</v>
       </c>
@@ -30004,7 +29486,7 @@
       <c r="C12" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="288" t="s">
+      <c r="D12" s="296" t="s">
         <v>137</v>
       </c>
       <c r="E12" s="174" t="s">
@@ -30262,7 +29744,7 @@
       <c r="C23" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="290"/>
+      <c r="D23" s="288"/>
       <c r="E23" s="174" t="s">
         <v>337</v>
       </c>
@@ -30314,7 +29796,7 @@
       <c r="C24" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="291" t="s">
+      <c r="D24" s="287" t="s">
         <v>147</v>
       </c>
       <c r="E24" s="174" t="s">
@@ -30917,7 +30399,7 @@
       <c r="C50" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="290"/>
+      <c r="D50" s="288"/>
       <c r="E50" s="174" t="s">
         <v>337</v>
       </c>
@@ -31408,7 +30890,7 @@
       <c r="C70" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="290"/>
+      <c r="D70" s="288"/>
       <c r="E70" s="174" t="s">
         <v>337</v>
       </c>
@@ -31715,7 +31197,7 @@
       <c r="C82" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="290"/>
+      <c r="D82" s="288"/>
       <c r="E82" s="174" t="s">
         <v>337</v>
       </c>
@@ -31767,7 +31249,7 @@
       <c r="C83" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="291" t="s">
+      <c r="D83" s="287" t="s">
         <v>193</v>
       </c>
       <c r="E83" s="174" t="s">
@@ -31792,7 +31274,7 @@
       <c r="C84" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="D84" s="290"/>
+      <c r="D84" s="288"/>
       <c r="E84" s="174" t="s">
         <v>337</v>
       </c>
@@ -31844,7 +31326,7 @@
       <c r="C85" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="D85" s="291" t="s">
+      <c r="D85" s="287" t="s">
         <v>196</v>
       </c>
       <c r="E85" s="174" t="s">
@@ -31869,7 +31351,7 @@
       <c r="C86" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="D86" s="290"/>
+      <c r="D86" s="288"/>
       <c r="E86" s="174" t="s">
         <v>337</v>
       </c>
@@ -32029,7 +31511,7 @@
       <c r="C89" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="291" t="s">
+      <c r="D89" s="287" t="s">
         <v>202</v>
       </c>
       <c r="E89" s="174" t="s">
@@ -32077,7 +31559,7 @@
       <c r="C91" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="290"/>
+      <c r="D91" s="288"/>
       <c r="E91" s="174" t="s">
         <v>337</v>
       </c>
@@ -32129,7 +31611,7 @@
       <c r="C92" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="D92" s="291" t="s">
+      <c r="D92" s="287" t="s">
         <v>206</v>
       </c>
       <c r="E92" s="174" t="s">
@@ -32821,7 +32303,7 @@
       <c r="C122" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="D122" s="290"/>
+      <c r="D122" s="288"/>
       <c r="E122" s="174" t="s">
         <v>337</v>
       </c>
@@ -32873,7 +32355,7 @@
       <c r="C123" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D123" s="291" t="s">
+      <c r="D123" s="287" t="s">
         <v>233</v>
       </c>
       <c r="E123" s="174" t="s">
@@ -33013,7 +32495,7 @@
       <c r="C129" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="290"/>
+      <c r="D129" s="288"/>
       <c r="E129" s="174" t="s">
         <v>337</v>
       </c>
@@ -33065,7 +32547,7 @@
       <c r="C130" s="142" t="s">
         <v>238</v>
       </c>
-      <c r="D130" s="284" t="s">
+      <c r="D130" s="290" t="s">
         <v>237</v>
       </c>
       <c r="E130" s="174" t="s">
@@ -33090,7 +32572,7 @@
       <c r="C131" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="D131" s="284"/>
+      <c r="D131" s="290"/>
       <c r="E131" s="174" t="s">
         <v>337</v>
       </c>
@@ -33113,7 +32595,7 @@
       <c r="C132" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="D132" s="284"/>
+      <c r="D132" s="290"/>
       <c r="E132" s="174" t="s">
         <v>337</v>
       </c>
@@ -33136,7 +32618,7 @@
       <c r="C133" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D133" s="284"/>
+      <c r="D133" s="290"/>
       <c r="E133" s="174" t="s">
         <v>337</v>
       </c>
@@ -33159,7 +32641,7 @@
       <c r="C134" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="D134" s="285"/>
+      <c r="D134" s="291"/>
       <c r="E134" s="174" t="s">
         <v>337</v>
       </c>
@@ -33182,7 +32664,7 @@
       <c r="C135" s="142" t="s">
         <v>244</v>
       </c>
-      <c r="D135" s="286" t="s">
+      <c r="D135" s="285" t="s">
         <v>243</v>
       </c>
       <c r="E135" s="174" t="s">
@@ -33207,7 +32689,7 @@
       <c r="C136" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D136" s="286"/>
+      <c r="D136" s="285"/>
       <c r="E136" s="174" t="s">
         <v>337</v>
       </c>
@@ -33230,7 +32712,7 @@
       <c r="C137" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D137" s="286"/>
+      <c r="D137" s="285"/>
       <c r="E137" s="174" t="s">
         <v>337</v>
       </c>
@@ -33253,7 +32735,7 @@
       <c r="C138" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="D138" s="286"/>
+      <c r="D138" s="285"/>
       <c r="E138" s="174" t="s">
         <v>337</v>
       </c>
@@ -33276,7 +32758,7 @@
       <c r="C139" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="286"/>
+      <c r="D139" s="285"/>
       <c r="E139" s="174" t="s">
         <v>337</v>
       </c>
@@ -33299,7 +32781,7 @@
       <c r="C140" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D140" s="286"/>
+      <c r="D140" s="285"/>
       <c r="E140" s="174" t="s">
         <v>337</v>
       </c>
@@ -33322,7 +32804,7 @@
       <c r="C141" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D141" s="286"/>
+      <c r="D141" s="285"/>
       <c r="E141" s="174" t="s">
         <v>337</v>
       </c>
@@ -33345,7 +32827,7 @@
       <c r="C142" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="D142" s="286"/>
+      <c r="D142" s="285"/>
       <c r="E142" s="174" t="s">
         <v>337</v>
       </c>
@@ -33368,7 +32850,7 @@
       <c r="C143" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D143" s="286"/>
+      <c r="D143" s="285"/>
       <c r="E143" s="174" t="s">
         <v>337</v>
       </c>
@@ -33391,7 +32873,7 @@
       <c r="C144" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="286"/>
+      <c r="D144" s="285"/>
       <c r="E144" s="174" t="s">
         <v>337</v>
       </c>
@@ -33414,7 +32896,7 @@
       <c r="C145" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D145" s="286"/>
+      <c r="D145" s="285"/>
       <c r="E145" s="174" t="s">
         <v>337</v>
       </c>
@@ -33437,7 +32919,7 @@
       <c r="C146" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="D146" s="286"/>
+      <c r="D146" s="285"/>
       <c r="E146" s="174" t="s">
         <v>337</v>
       </c>
@@ -33460,7 +32942,7 @@
       <c r="C147" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="D147" s="286"/>
+      <c r="D147" s="285"/>
       <c r="E147" s="174" t="s">
         <v>337</v>
       </c>
@@ -33483,7 +32965,7 @@
       <c r="C148" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="D148" s="286"/>
+      <c r="D148" s="285"/>
       <c r="E148" s="174" t="s">
         <v>337</v>
       </c>
@@ -33506,7 +32988,7 @@
       <c r="C149" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="D149" s="286"/>
+      <c r="D149" s="285"/>
       <c r="E149" s="174" t="s">
         <v>337</v>
       </c>
@@ -33529,7 +33011,7 @@
       <c r="C150" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="D150" s="286"/>
+      <c r="D150" s="285"/>
       <c r="E150" s="174" t="s">
         <v>337</v>
       </c>
@@ -33552,7 +33034,7 @@
       <c r="C151" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="D151" s="286"/>
+      <c r="D151" s="285"/>
       <c r="E151" s="174" t="s">
         <v>337</v>
       </c>
@@ -33575,7 +33057,7 @@
       <c r="C152" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="D152" s="286"/>
+      <c r="D152" s="285"/>
       <c r="E152" s="174" t="s">
         <v>337</v>
       </c>
@@ -33598,7 +33080,7 @@
       <c r="C153" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="D153" s="286"/>
+      <c r="D153" s="285"/>
       <c r="E153" s="174" t="s">
         <v>337</v>
       </c>
@@ -33621,7 +33103,7 @@
       <c r="C154" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="286"/>
+      <c r="D154" s="285"/>
       <c r="E154" s="174" t="s">
         <v>337</v>
       </c>
@@ -33644,7 +33126,7 @@
       <c r="C155" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="D155" s="286"/>
+      <c r="D155" s="285"/>
       <c r="E155" s="174" t="s">
         <v>337</v>
       </c>
@@ -33667,7 +33149,7 @@
       <c r="C156" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="D156" s="286"/>
+      <c r="D156" s="285"/>
       <c r="E156" s="174" t="s">
         <v>337</v>
       </c>
@@ -33690,7 +33172,7 @@
       <c r="C157" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="D157" s="286"/>
+      <c r="D157" s="285"/>
       <c r="E157" s="174" t="s">
         <v>337</v>
       </c>
@@ -33713,7 +33195,7 @@
       <c r="C158" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="D158" s="286"/>
+      <c r="D158" s="285"/>
       <c r="E158" s="174" t="s">
         <v>337</v>
       </c>
@@ -33736,7 +33218,7 @@
       <c r="C159" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="D159" s="286"/>
+      <c r="D159" s="285"/>
       <c r="E159" s="174" t="s">
         <v>337</v>
       </c>
@@ -33759,7 +33241,7 @@
       <c r="C160" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="D160" s="286"/>
+      <c r="D160" s="285"/>
       <c r="E160" s="174" t="s">
         <v>337</v>
       </c>
@@ -33782,7 +33264,7 @@
       <c r="C161" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="D161" s="286"/>
+      <c r="D161" s="285"/>
       <c r="E161" s="174" t="s">
         <v>337</v>
       </c>
@@ -33805,7 +33287,7 @@
       <c r="C162" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="D162" s="286"/>
+      <c r="D162" s="285"/>
       <c r="E162" s="174" t="s">
         <v>337</v>
       </c>
@@ -33828,7 +33310,7 @@
       <c r="C163" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="D163" s="286"/>
+      <c r="D163" s="285"/>
       <c r="E163" s="174" t="s">
         <v>337</v>
       </c>
@@ -33851,7 +33333,7 @@
       <c r="C164" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="D164" s="286"/>
+      <c r="D164" s="285"/>
       <c r="E164" s="174" t="s">
         <v>337</v>
       </c>
@@ -33874,7 +33356,7 @@
       <c r="C165" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="D165" s="286"/>
+      <c r="D165" s="285"/>
       <c r="E165" s="174" t="s">
         <v>337</v>
       </c>
@@ -33897,7 +33379,7 @@
       <c r="C166" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="D166" s="286"/>
+      <c r="D166" s="285"/>
       <c r="E166" s="174" t="s">
         <v>337</v>
       </c>
@@ -33920,7 +33402,7 @@
       <c r="C167" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="D167" s="286"/>
+      <c r="D167" s="285"/>
       <c r="E167" s="174" t="s">
         <v>337</v>
       </c>
@@ -33943,7 +33425,7 @@
       <c r="C168" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="D168" s="286"/>
+      <c r="D168" s="285"/>
       <c r="E168" s="174" t="s">
         <v>337</v>
       </c>
@@ -33966,7 +33448,7 @@
       <c r="C169" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="D169" s="286"/>
+      <c r="D169" s="285"/>
       <c r="E169" s="174" t="s">
         <v>337</v>
       </c>
@@ -33989,7 +33471,7 @@
       <c r="C170" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="D170" s="286"/>
+      <c r="D170" s="285"/>
       <c r="E170" s="174" t="s">
         <v>337</v>
       </c>
@@ -34012,7 +33494,7 @@
       <c r="C171" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="D171" s="286"/>
+      <c r="D171" s="285"/>
       <c r="E171" s="174" t="s">
         <v>337</v>
       </c>
@@ -34035,7 +33517,7 @@
       <c r="C172" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="D172" s="286"/>
+      <c r="D172" s="285"/>
       <c r="E172" s="174" t="s">
         <v>337</v>
       </c>
@@ -34058,7 +33540,7 @@
       <c r="C173" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="D173" s="286"/>
+      <c r="D173" s="285"/>
       <c r="E173" s="174" t="s">
         <v>337</v>
       </c>
@@ -34081,7 +33563,7 @@
       <c r="C174" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="D174" s="286"/>
+      <c r="D174" s="285"/>
       <c r="E174" s="174" t="s">
         <v>337</v>
       </c>
@@ -34104,7 +33586,7 @@
       <c r="C175" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="D175" s="286"/>
+      <c r="D175" s="285"/>
       <c r="E175" s="174" t="s">
         <v>337</v>
       </c>
@@ -34127,7 +33609,7 @@
       <c r="C176" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="D176" s="286"/>
+      <c r="D176" s="285"/>
       <c r="E176" s="174" t="s">
         <v>337</v>
       </c>
@@ -34150,7 +33632,7 @@
       <c r="C177" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="D177" s="286"/>
+      <c r="D177" s="285"/>
       <c r="E177" s="174" t="s">
         <v>337</v>
       </c>
@@ -34173,7 +33655,7 @@
       <c r="C178" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D178" s="286"/>
+      <c r="D178" s="285"/>
       <c r="E178" s="174" t="s">
         <v>337</v>
       </c>
@@ -34196,7 +33678,7 @@
       <c r="C179" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="D179" s="286"/>
+      <c r="D179" s="285"/>
       <c r="E179" s="174" t="s">
         <v>337</v>
       </c>
@@ -34219,7 +33701,7 @@
       <c r="C180" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D180" s="286"/>
+      <c r="D180" s="285"/>
       <c r="E180" s="174" t="s">
         <v>337</v>
       </c>
@@ -34242,7 +33724,7 @@
       <c r="C181" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D181" s="286"/>
+      <c r="D181" s="285"/>
       <c r="E181" s="174" t="s">
         <v>337</v>
       </c>
@@ -34265,7 +33747,7 @@
       <c r="C182" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="D182" s="286"/>
+      <c r="D182" s="285"/>
       <c r="E182" s="174" t="s">
         <v>337</v>
       </c>
@@ -34288,7 +33770,7 @@
       <c r="C183" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="286"/>
+      <c r="D183" s="285"/>
       <c r="E183" s="174" t="s">
         <v>337</v>
       </c>
@@ -34311,7 +33793,7 @@
       <c r="C184" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D184" s="286"/>
+      <c r="D184" s="285"/>
       <c r="E184" s="174" t="s">
         <v>337</v>
       </c>
@@ -34334,7 +33816,7 @@
       <c r="C185" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D185" s="286"/>
+      <c r="D185" s="285"/>
       <c r="E185" s="174" t="s">
         <v>337</v>
       </c>
@@ -34357,7 +33839,7 @@
       <c r="C186" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D186" s="286"/>
+      <c r="D186" s="285"/>
       <c r="E186" s="174" t="s">
         <v>337</v>
       </c>
@@ -34380,7 +33862,7 @@
       <c r="C187" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D187" s="286"/>
+      <c r="D187" s="285"/>
       <c r="E187" s="174" t="s">
         <v>337</v>
       </c>
@@ -34403,7 +33885,7 @@
       <c r="C188" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D188" s="286"/>
+      <c r="D188" s="285"/>
       <c r="E188" s="174" t="s">
         <v>337</v>
       </c>
@@ -34426,7 +33908,7 @@
       <c r="C189" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D189" s="286"/>
+      <c r="D189" s="285"/>
       <c r="E189" s="174" t="s">
         <v>337</v>
       </c>
@@ -34449,7 +33931,7 @@
       <c r="C190" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D190" s="286"/>
+      <c r="D190" s="285"/>
       <c r="E190" s="174" t="s">
         <v>337</v>
       </c>
@@ -34472,7 +33954,7 @@
       <c r="C191" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D191" s="286"/>
+      <c r="D191" s="285"/>
       <c r="E191" s="174" t="s">
         <v>337</v>
       </c>
@@ -34495,7 +33977,7 @@
       <c r="C192" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D192" s="286"/>
+      <c r="D192" s="285"/>
       <c r="E192" s="174" t="s">
         <v>337</v>
       </c>
@@ -34518,7 +34000,7 @@
       <c r="C193" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D193" s="286"/>
+      <c r="D193" s="285"/>
       <c r="E193" s="174" t="s">
         <v>337</v>
       </c>
@@ -34541,7 +34023,7 @@
       <c r="C194" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D194" s="286"/>
+      <c r="D194" s="285"/>
       <c r="E194" s="174" t="s">
         <v>337</v>
       </c>
@@ -34564,7 +34046,7 @@
       <c r="C195" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D195" s="286"/>
+      <c r="D195" s="285"/>
       <c r="E195" s="174" t="s">
         <v>337</v>
       </c>
@@ -34587,7 +34069,7 @@
       <c r="C196" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="D196" s="286"/>
+      <c r="D196" s="285"/>
       <c r="E196" s="174" t="s">
         <v>337</v>
       </c>
@@ -34610,7 +34092,7 @@
       <c r="C197" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="D197" s="286"/>
+      <c r="D197" s="285"/>
       <c r="E197" s="174" t="s">
         <v>337</v>
       </c>
@@ -34633,7 +34115,7 @@
       <c r="C198" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D198" s="286"/>
+      <c r="D198" s="285"/>
       <c r="E198" s="174" t="s">
         <v>337</v>
       </c>
@@ -34656,7 +34138,7 @@
       <c r="C199" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D199" s="286"/>
+      <c r="D199" s="285"/>
       <c r="E199" s="174" t="s">
         <v>337</v>
       </c>
@@ -34679,7 +34161,7 @@
       <c r="C200" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D200" s="286"/>
+      <c r="D200" s="285"/>
       <c r="E200" s="174" t="s">
         <v>337</v>
       </c>
@@ -34702,7 +34184,7 @@
       <c r="C201" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D201" s="286"/>
+      <c r="D201" s="285"/>
       <c r="E201" s="174" t="s">
         <v>337</v>
       </c>
@@ -34725,7 +34207,7 @@
       <c r="C202" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D202" s="286"/>
+      <c r="D202" s="285"/>
       <c r="E202" s="174" t="s">
         <v>337</v>
       </c>
@@ -34748,7 +34230,7 @@
       <c r="C203" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="D203" s="286"/>
+      <c r="D203" s="285"/>
       <c r="E203" s="174" t="s">
         <v>337</v>
       </c>
@@ -34771,7 +34253,7 @@
       <c r="C204" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="D204" s="286"/>
+      <c r="D204" s="285"/>
       <c r="E204" s="174" t="s">
         <v>337</v>
       </c>
@@ -34794,7 +34276,7 @@
       <c r="C205" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D205" s="286"/>
+      <c r="D205" s="285"/>
       <c r="E205" s="174" t="s">
         <v>337</v>
       </c>
@@ -34817,7 +34299,7 @@
       <c r="C206" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D206" s="286"/>
+      <c r="D206" s="285"/>
       <c r="E206" s="174" t="s">
         <v>337</v>
       </c>
@@ -34840,7 +34322,7 @@
       <c r="C207" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="D207" s="286"/>
+      <c r="D207" s="285"/>
       <c r="E207" s="174" t="s">
         <v>337</v>
       </c>
@@ -34863,7 +34345,7 @@
       <c r="C208" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="D208" s="286"/>
+      <c r="D208" s="285"/>
       <c r="E208" s="174" t="s">
         <v>337</v>
       </c>
@@ -34886,7 +34368,7 @@
       <c r="C209" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="D209" s="286"/>
+      <c r="D209" s="285"/>
       <c r="E209" s="174" t="s">
         <v>337</v>
       </c>
@@ -34909,7 +34391,7 @@
       <c r="C210" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="D210" s="286"/>
+      <c r="D210" s="285"/>
       <c r="E210" s="174" t="s">
         <v>337</v>
       </c>
@@ -34932,7 +34414,7 @@
       <c r="C211" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D211" s="286"/>
+      <c r="D211" s="285"/>
       <c r="E211" s="174" t="s">
         <v>337</v>
       </c>
@@ -34955,7 +34437,7 @@
       <c r="C212" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D212" s="286"/>
+      <c r="D212" s="285"/>
       <c r="E212" s="174" t="s">
         <v>337</v>
       </c>
@@ -34978,7 +34460,7 @@
       <c r="C213" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D213" s="286"/>
+      <c r="D213" s="285"/>
       <c r="E213" s="174" t="s">
         <v>337</v>
       </c>
@@ -35001,7 +34483,7 @@
       <c r="C214" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="D214" s="286"/>
+      <c r="D214" s="285"/>
       <c r="E214" s="174" t="s">
         <v>337</v>
       </c>
@@ -35024,7 +34506,7 @@
       <c r="C215" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D215" s="286"/>
+      <c r="D215" s="285"/>
       <c r="E215" s="174" t="s">
         <v>337</v>
       </c>
@@ -35047,7 +34529,7 @@
       <c r="C216" s="108" t="s">
         <v>294</v>
       </c>
-      <c r="D216" s="286"/>
+      <c r="D216" s="285"/>
       <c r="E216" s="174" t="s">
         <v>337</v>
       </c>
@@ -35070,7 +34552,7 @@
       <c r="C217" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="D217" s="286"/>
+      <c r="D217" s="285"/>
       <c r="E217" s="174" t="s">
         <v>337</v>
       </c>
@@ -35093,7 +34575,7 @@
       <c r="C218" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="D218" s="287"/>
+      <c r="D218" s="286"/>
       <c r="E218" s="174" t="s">
         <v>337</v>
       </c>
@@ -35116,7 +34598,7 @@
       <c r="C219" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="D219" s="295" t="s">
+      <c r="D219" s="284" t="s">
         <v>297</v>
       </c>
       <c r="E219" s="174" t="s">
@@ -35141,7 +34623,7 @@
       <c r="C220" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="D220" s="286"/>
+      <c r="D220" s="285"/>
       <c r="E220" s="174" t="s">
         <v>337</v>
       </c>
@@ -35164,7 +34646,7 @@
       <c r="C221" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D221" s="286"/>
+      <c r="D221" s="285"/>
       <c r="E221" s="174" t="s">
         <v>337</v>
       </c>
@@ -35187,7 +34669,7 @@
       <c r="C222" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D222" s="286"/>
+      <c r="D222" s="285"/>
       <c r="E222" s="174" t="s">
         <v>337</v>
       </c>
@@ -35210,7 +34692,7 @@
       <c r="C223" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D223" s="286"/>
+      <c r="D223" s="285"/>
       <c r="E223" s="174" t="s">
         <v>337</v>
       </c>
@@ -35233,7 +34715,7 @@
       <c r="C224" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D224" s="286"/>
+      <c r="D224" s="285"/>
       <c r="E224" s="174" t="s">
         <v>337</v>
       </c>
@@ -35256,7 +34738,7 @@
       <c r="C225" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D225" s="286"/>
+      <c r="D225" s="285"/>
       <c r="E225" s="174" t="s">
         <v>337</v>
       </c>
@@ -35279,7 +34761,7 @@
       <c r="C226" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D226" s="286"/>
+      <c r="D226" s="285"/>
       <c r="E226" s="174" t="s">
         <v>337</v>
       </c>
@@ -35302,7 +34784,7 @@
       <c r="C227" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="D227" s="286"/>
+      <c r="D227" s="285"/>
       <c r="E227" s="174" t="s">
         <v>337</v>
       </c>
@@ -35325,7 +34807,7 @@
       <c r="C228" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="D228" s="286"/>
+      <c r="D228" s="285"/>
       <c r="E228" s="174" t="s">
         <v>337</v>
       </c>
@@ -35348,7 +34830,7 @@
       <c r="C229" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="D229" s="287"/>
+      <c r="D229" s="286"/>
       <c r="E229" s="174" t="s">
         <v>337</v>
       </c>
@@ -35396,7 +34878,7 @@
       <c r="C231" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D231" s="295" t="s">
+      <c r="D231" s="284" t="s">
         <v>301</v>
       </c>
       <c r="E231" s="174" t="s">
@@ -35421,7 +34903,7 @@
       <c r="C232" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="D232" s="287"/>
+      <c r="D232" s="286"/>
       <c r="E232" s="174" t="s">
         <v>337</v>
       </c>
@@ -35444,7 +34926,7 @@
       <c r="C233" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="D233" s="295" t="s">
+      <c r="D233" s="284" t="s">
         <v>302</v>
       </c>
       <c r="E233" s="174" t="s">
@@ -35469,7 +34951,7 @@
       <c r="C234" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="D234" s="286"/>
+      <c r="D234" s="285"/>
       <c r="E234" s="174" t="s">
         <v>337</v>
       </c>
@@ -35492,7 +34974,7 @@
       <c r="C235" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D235" s="286"/>
+      <c r="D235" s="285"/>
       <c r="E235" s="174" t="s">
         <v>337</v>
       </c>
@@ -35515,7 +34997,7 @@
       <c r="C236" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D236" s="286"/>
+      <c r="D236" s="285"/>
       <c r="E236" s="174" t="s">
         <v>337</v>
       </c>
@@ -35538,7 +35020,7 @@
       <c r="C237" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D237" s="286"/>
+      <c r="D237" s="285"/>
       <c r="E237" s="174" t="s">
         <v>337</v>
       </c>
@@ -35561,7 +35043,7 @@
       <c r="C238" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="D238" s="286"/>
+      <c r="D238" s="285"/>
       <c r="E238" s="174" t="s">
         <v>337</v>
       </c>
@@ -35584,7 +35066,7 @@
       <c r="C239" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D239" s="286"/>
+      <c r="D239" s="285"/>
       <c r="E239" s="174" t="s">
         <v>337</v>
       </c>
@@ -35607,7 +35089,7 @@
       <c r="C240" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D240" s="286"/>
+      <c r="D240" s="285"/>
       <c r="E240" s="174" t="s">
         <v>337</v>
       </c>
@@ -35630,7 +35112,7 @@
       <c r="C241" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D241" s="286"/>
+      <c r="D241" s="285"/>
       <c r="E241" s="174" t="s">
         <v>337</v>
       </c>
@@ -35653,7 +35135,7 @@
       <c r="C242" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="D242" s="286"/>
+      <c r="D242" s="285"/>
       <c r="E242" s="174" t="s">
         <v>337</v>
       </c>
@@ -35676,7 +35158,7 @@
       <c r="C243" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="D243" s="286"/>
+      <c r="D243" s="285"/>
       <c r="E243" s="174" t="s">
         <v>337</v>
       </c>
@@ -35699,7 +35181,7 @@
       <c r="C244" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="D244" s="286"/>
+      <c r="D244" s="285"/>
       <c r="E244" s="174" t="s">
         <v>337</v>
       </c>
@@ -35722,7 +35204,7 @@
       <c r="C245" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="D245" s="286"/>
+      <c r="D245" s="285"/>
       <c r="E245" s="174" t="s">
         <v>337</v>
       </c>
@@ -35745,7 +35227,7 @@
       <c r="C246" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="D246" s="286"/>
+      <c r="D246" s="285"/>
       <c r="E246" s="174" t="s">
         <v>337</v>
       </c>
@@ -35768,7 +35250,7 @@
       <c r="C247" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="D247" s="286"/>
+      <c r="D247" s="285"/>
       <c r="E247" s="174" t="s">
         <v>337</v>
       </c>
@@ -35791,7 +35273,7 @@
       <c r="C248" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D248" s="286"/>
+      <c r="D248" s="285"/>
       <c r="E248" s="174" t="s">
         <v>337</v>
       </c>
@@ -35814,7 +35296,7 @@
       <c r="C249" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="D249" s="286"/>
+      <c r="D249" s="285"/>
       <c r="E249" s="174" t="s">
         <v>337</v>
       </c>
@@ -35837,7 +35319,7 @@
       <c r="C250" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D250" s="286"/>
+      <c r="D250" s="285"/>
       <c r="E250" s="174" t="s">
         <v>337</v>
       </c>
@@ -35860,7 +35342,7 @@
       <c r="C251" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D251" s="286"/>
+      <c r="D251" s="285"/>
       <c r="E251" s="174" t="s">
         <v>337</v>
       </c>
@@ -35883,7 +35365,7 @@
       <c r="C252" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D252" s="286"/>
+      <c r="D252" s="285"/>
       <c r="E252" s="174" t="s">
         <v>337</v>
       </c>
@@ -35906,7 +35388,7 @@
       <c r="C253" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D253" s="286"/>
+      <c r="D253" s="285"/>
       <c r="E253" s="174" t="s">
         <v>337</v>
       </c>
@@ -35929,7 +35411,7 @@
       <c r="C254" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D254" s="286"/>
+      <c r="D254" s="285"/>
       <c r="E254" s="214" t="s">
         <v>337</v>
       </c>
@@ -35952,7 +35434,7 @@
       <c r="C255" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D255" s="286"/>
+      <c r="D255" s="285"/>
       <c r="E255" s="214" t="s">
         <v>337</v>
       </c>
@@ -35975,7 +35457,7 @@
       <c r="C256" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="D256" s="286"/>
+      <c r="D256" s="285"/>
       <c r="E256" s="214" t="s">
         <v>337</v>
       </c>
@@ -35998,7 +35480,7 @@
       <c r="C257" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="D257" s="286"/>
+      <c r="D257" s="285"/>
       <c r="E257" s="214" t="s">
         <v>337</v>
       </c>
@@ -36021,7 +35503,7 @@
       <c r="C258" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D258" s="286"/>
+      <c r="D258" s="285"/>
       <c r="E258" s="214" t="s">
         <v>337</v>
       </c>
@@ -36044,7 +35526,7 @@
       <c r="C259" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D259" s="286"/>
+      <c r="D259" s="285"/>
       <c r="E259" s="214" t="s">
         <v>337</v>
       </c>
@@ -36067,7 +35549,7 @@
       <c r="C260" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D260" s="286"/>
+      <c r="D260" s="285"/>
       <c r="E260" s="214" t="s">
         <v>337</v>
       </c>
@@ -36090,7 +35572,7 @@
       <c r="C261" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D261" s="286"/>
+      <c r="D261" s="285"/>
       <c r="E261" s="214" t="s">
         <v>337</v>
       </c>
@@ -36113,7 +35595,7 @@
       <c r="C262" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D262" s="286"/>
+      <c r="D262" s="285"/>
       <c r="E262" s="214" t="s">
         <v>337</v>
       </c>
@@ -36136,7 +35618,7 @@
       <c r="C263" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D263" s="286"/>
+      <c r="D263" s="285"/>
       <c r="E263" s="214" t="s">
         <v>337</v>
       </c>
@@ -36159,7 +35641,7 @@
       <c r="C264" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="D264" s="286"/>
+      <c r="D264" s="285"/>
       <c r="E264" s="214" t="s">
         <v>337</v>
       </c>
@@ -36182,7 +35664,7 @@
       <c r="C265" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D265" s="286"/>
+      <c r="D265" s="285"/>
       <c r="E265" s="214" t="s">
         <v>337</v>
       </c>
@@ -36205,7 +35687,7 @@
       <c r="C266" s="108" t="s">
         <v>294</v>
       </c>
-      <c r="D266" s="286"/>
+      <c r="D266" s="285"/>
       <c r="E266" s="214" t="s">
         <v>337</v>
       </c>
@@ -36228,7 +35710,7 @@
       <c r="C267" s="110" t="s">
         <v>295</v>
       </c>
-      <c r="D267" s="287"/>
+      <c r="D267" s="286"/>
       <c r="E267" s="214" t="s">
         <v>337</v>
       </c>
@@ -36248,21 +35730,21 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="D219:D229"/>
     <mergeCell ref="D231:D232"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="D24:D50"/>
+    <mergeCell ref="D51:D70"/>
+    <mergeCell ref="D71:D82"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D4:D7"/>
     <mergeCell ref="D233:D267"/>
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="D89:D91"/>
     <mergeCell ref="D92:D122"/>
     <mergeCell ref="D123:D129"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D130:D134"/>
     <mergeCell ref="D135:D218"/>
-    <mergeCell ref="D12:D23"/>
-    <mergeCell ref="D24:D50"/>
-    <mergeCell ref="D51:D70"/>
-    <mergeCell ref="D71:D82"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://ppubs.uspto.gov/pubwebapp/external.html?q=(11492403).pn.&amp;db=USPAT&amp;type=ids" xr:uid="{1857059F-94EB-B943-9482-55315B0CB5CC}"/>
@@ -37051,14 +36533,14 @@
       <c r="I9" s="175" t="s">
         <v>366</v>
       </c>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
+      <c r="P9" s="300"/>
+      <c r="Q9" s="300"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="300"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="300"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="175" t="s">
@@ -37989,13 +37471,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="24">
-      <c r="Q45" s="259"/>
-      <c r="R45" s="259"/>
-      <c r="S45" s="259"/>
-      <c r="T45" s="259"/>
-      <c r="U45" s="259"/>
-      <c r="V45" s="259"/>
-      <c r="W45" s="259"/>
+      <c r="Q45" s="300"/>
+      <c r="R45" s="300"/>
+      <c r="S45" s="300"/>
+      <c r="T45" s="300"/>
+      <c r="U45" s="300"/>
+      <c r="V45" s="300"/>
+      <c r="W45" s="300"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C42" xr:uid="{C44E9B71-D93A-F54A-87FA-CD5C9462E501}"/>
@@ -38014,7 +37496,7 @@
   </sheetPr>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -38200,34 +37682,34 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="300"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="300"/>
+      <c r="X9" s="300"/>
+      <c r="Y9" s="300"/>
     </row>
     <row r="45" spans="3:25" ht="24">
-      <c r="C45" s="259"/>
-      <c r="D45" s="259"/>
-      <c r="E45" s="259"/>
-      <c r="F45" s="259"/>
-      <c r="G45" s="259"/>
-      <c r="H45" s="259"/>
-      <c r="I45" s="259"/>
-      <c r="S45" s="259"/>
-      <c r="T45" s="259"/>
-      <c r="U45" s="259"/>
-      <c r="V45" s="259"/>
-      <c r="W45" s="259"/>
-      <c r="X45" s="259"/>
-      <c r="Y45" s="259"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="300"/>
+      <c r="F45" s="300"/>
+      <c r="G45" s="300"/>
+      <c r="H45" s="300"/>
+      <c r="I45" s="300"/>
+      <c r="S45" s="300"/>
+      <c r="T45" s="300"/>
+      <c r="U45" s="300"/>
+      <c r="V45" s="300"/>
+      <c r="W45" s="300"/>
+      <c r="X45" s="300"/>
+      <c r="Y45" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -38263,14 +37745,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="243" t="s">
+      <c r="H2" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -38320,14 +37802,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="247" t="s">
+      <c r="I4" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="248"/>
-      <c r="K4" s="250" t="s">
+      <c r="J4" s="251"/>
+      <c r="K4" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="251"/>
+      <c r="L4" s="246"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -38359,10 +37841,10 @@
       <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="256" t="s">
+      <c r="I5" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="257"/>
+      <c r="J5" s="258"/>
       <c r="K5" s="41" t="s">
         <v>55</v>
       </c>
@@ -38393,13 +37875,13 @@
       <c r="E6" s="28"/>
       <c r="F6" s="35"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="245">
+      <c r="H6" s="248">
         <v>45809</v>
       </c>
-      <c r="I6" s="252">
+      <c r="I6" s="253">
         <v>1</v>
       </c>
-      <c r="J6" s="254">
+      <c r="J6" s="255">
         <v>30000</v>
       </c>
       <c r="K6" s="51">
@@ -38442,9 +37924,9 @@
       <c r="E7" s="28"/>
       <c r="F7" s="35"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="255"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="256"/>
       <c r="K7" s="51">
         <v>2</v>
       </c>
@@ -38455,7 +37937,7 @@
         <f>M6-L7</f>
         <v>-2552</v>
       </c>
-      <c r="N7" s="239">
+      <c r="N7" s="240">
         <f>SUM(M7:M14)</f>
         <v>-13945.200000000003</v>
       </c>
@@ -38505,7 +37987,7 @@
         <f t="shared" ref="M8:M14" si="0">J8-L8</f>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N8" s="240"/>
+      <c r="N8" s="241"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -38552,7 +38034,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N9" s="240"/>
+      <c r="N9" s="241"/>
       <c r="O9" s="3"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
@@ -38599,7 +38081,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N10" s="240"/>
+      <c r="N10" s="241"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -38646,7 +38128,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N11" s="240"/>
+      <c r="N11" s="241"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -38693,7 +38175,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N12" s="240"/>
+      <c r="N12" s="241"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -38740,7 +38222,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N13" s="240"/>
+      <c r="N13" s="241"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -38787,7 +38269,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N14" s="241"/>
+      <c r="N14" s="242"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -38928,13 +38410,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
-      <c r="N18" s="242"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="243"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -38955,14 +38437,14 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="247" t="s">
+      <c r="I19" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="249"/>
-      <c r="K19" s="251" t="s">
+      <c r="J19" s="252"/>
+      <c r="K19" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="251"/>
+      <c r="L19" s="246"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -38990,10 +38472,10 @@
       <c r="H20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="256" t="s">
+      <c r="I20" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="258"/>
+      <c r="J20" s="259"/>
       <c r="K20" s="34" t="s">
         <v>55</v>
       </c>
@@ -39018,15 +38500,15 @@
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="E21" s="7"/>
-      <c r="F21" s="244"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="245">
+      <c r="H21" s="248">
         <v>45809</v>
       </c>
-      <c r="I21" s="252">
+      <c r="I21" s="253">
         <v>1</v>
       </c>
-      <c r="J21" s="237">
+      <c r="J21" s="260">
         <v>31000</v>
       </c>
       <c r="K21" s="37">
@@ -39057,11 +38539,11 @@
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="E22" s="7"/>
-      <c r="F22" s="244"/>
+      <c r="F22" s="247"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="238"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="261"/>
       <c r="K22" s="37">
         <v>2</v>
       </c>
@@ -39072,7 +38554,7 @@
         <f>M21-L22</f>
         <v>-1552</v>
       </c>
-      <c r="N22" s="239">
+      <c r="N22" s="240">
         <f>SUM(M22:M29)</f>
         <v>-6984</v>
       </c>
@@ -39111,7 +38593,7 @@
         <f t="shared" ref="M23:M29" si="1">J23-L23</f>
         <v>-776</v>
       </c>
-      <c r="N23" s="240"/>
+      <c r="N23" s="241"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -39147,7 +38629,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N24" s="240"/>
+      <c r="N24" s="241"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -39183,7 +38665,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N25" s="240"/>
+      <c r="N25" s="241"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -39219,7 +38701,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N26" s="240"/>
+      <c r="N26" s="241"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -39255,7 +38737,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N27" s="240"/>
+      <c r="N27" s="241"/>
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="3"/>
@@ -39291,7 +38773,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N28" s="240"/>
+      <c r="N28" s="241"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -39327,7 +38809,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N29" s="241"/>
+      <c r="N29" s="242"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -66165,7 +65647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="300" customFormat="1" ht="16">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="72" t="s">
         <v>110</v>
       </c>
@@ -66175,16 +65657,16 @@
       <c r="C5" s="73">
         <v>42004</v>
       </c>
-      <c r="D5" s="298" t="s">
+      <c r="D5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="298" t="s">
+      <c r="E5" s="237" t="s">
         <v>115</v>
       </c>
       <c r="F5" s="95">
         <v>64508381</v>
       </c>
-      <c r="G5" s="299">
+      <c r="G5" s="238">
         <v>107</v>
       </c>
     </row>
@@ -66314,7 +65796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="300" customFormat="1" ht="32">
+    <row r="5" spans="1:5" ht="32">
       <c r="A5" s="72" t="s">
         <v>110</v>
       </c>
@@ -66324,10 +65806,10 @@
       <c r="C5" s="73">
         <v>42004</v>
       </c>
-      <c r="D5" s="301" t="s">
+      <c r="D5" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="302"/>
+      <c r="E5" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66927,8 +66409,8 @@
   </sheetPr>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -67627,11 +67109,11 @@
       <c r="E2" s="197">
         <v>646</v>
       </c>
-      <c r="F2" s="260">
+      <c r="F2" s="281">
         <f>SUM(D2:D6)/5</f>
         <v>53.02</v>
       </c>
-      <c r="G2" s="271">
+      <c r="G2" s="270">
         <f>SUM(E2:E6)/5</f>
         <v>487.2</v>
       </c>
@@ -67652,8 +67134,8 @@
       <c r="E3" s="197">
         <v>526</v>
       </c>
-      <c r="F3" s="261"/>
-      <c r="G3" s="272"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A4" s="117" t="s">
@@ -67671,8 +67153,8 @@
       <c r="E4" s="197">
         <v>451</v>
       </c>
-      <c r="F4" s="261"/>
-      <c r="G4" s="272"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="271"/>
     </row>
     <row r="5" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A5" s="117" t="s">
@@ -67690,8 +67172,8 @@
       <c r="E5" s="197">
         <v>433</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="272"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="271"/>
     </row>
     <row r="6" spans="1:7" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="A6" s="117" t="s">
@@ -67709,8 +67191,8 @@
       <c r="E6" s="198">
         <v>380</v>
       </c>
-      <c r="F6" s="262"/>
-      <c r="G6" s="273"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="272"/>
     </row>
     <row r="7" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A7" s="120" t="s">
@@ -67728,11 +67210,11 @@
       <c r="E7" s="199">
         <v>646</v>
       </c>
-      <c r="F7" s="263">
+      <c r="F7" s="262">
         <f>SUM(D7:D11)/5</f>
         <v>53.02</v>
       </c>
-      <c r="G7" s="274">
+      <c r="G7" s="273">
         <f>SUM(E7:E11)/5</f>
         <v>487.2</v>
       </c>
@@ -67753,8 +67235,8 @@
       <c r="E8" s="200">
         <v>526</v>
       </c>
-      <c r="F8" s="263"/>
-      <c r="G8" s="274"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="273"/>
     </row>
     <row r="9" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A9" s="120" t="s">
@@ -67772,8 +67254,8 @@
       <c r="E9" s="200">
         <v>451</v>
       </c>
-      <c r="F9" s="263"/>
-      <c r="G9" s="274"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="273"/>
     </row>
     <row r="10" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A10" s="120" t="s">
@@ -67791,8 +67273,8 @@
       <c r="E10" s="200">
         <v>433</v>
       </c>
-      <c r="F10" s="263"/>
-      <c r="G10" s="274"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="273"/>
     </row>
     <row r="11" spans="1:7" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="A11" s="129" t="s">
@@ -67810,8 +67292,8 @@
       <c r="E11" s="201">
         <v>380</v>
       </c>
-      <c r="F11" s="264"/>
-      <c r="G11" s="275"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="274"/>
     </row>
     <row r="12" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A12" s="131" t="s">
@@ -67829,11 +67311,11 @@
       <c r="E12" s="202">
         <v>1992</v>
       </c>
-      <c r="F12" s="265">
+      <c r="F12" s="264">
         <f>SUM(D12:D16)/5</f>
         <v>56.1</v>
       </c>
-      <c r="G12" s="276">
+      <c r="G12" s="275">
         <f>SUM(E12:E16)/5</f>
         <v>1419.6</v>
       </c>
@@ -67854,8 +67336,8 @@
       <c r="E13" s="203">
         <v>1779</v>
       </c>
-      <c r="F13" s="266"/>
-      <c r="G13" s="277"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="276"/>
     </row>
     <row r="14" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A14" s="122" t="s">
@@ -67873,8 +67355,8 @@
       <c r="E14" s="203">
         <v>1267</v>
       </c>
-      <c r="F14" s="266"/>
-      <c r="G14" s="277"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="276"/>
     </row>
     <row r="15" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A15" s="122" t="s">
@@ -67892,8 +67374,8 @@
       <c r="E15" s="203">
         <v>1111</v>
       </c>
-      <c r="F15" s="266"/>
-      <c r="G15" s="277"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="276"/>
     </row>
     <row r="16" spans="1:7" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="A16" s="133" t="s">
@@ -67911,8 +67393,8 @@
       <c r="E16" s="204">
         <v>949</v>
       </c>
-      <c r="F16" s="267"/>
-      <c r="G16" s="278"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="277"/>
     </row>
     <row r="17" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A17" s="135" t="s">
@@ -67930,11 +67412,11 @@
       <c r="E17" s="205">
         <v>10608</v>
       </c>
-      <c r="F17" s="268">
+      <c r="F17" s="267">
         <f>SUM(D17:D21)/5</f>
         <v>55.660000000000004</v>
       </c>
-      <c r="G17" s="279" cm="1">
+      <c r="G17" s="278" cm="1">
         <f t="array" ref="G17">SUM(E17:E210/5)</f>
         <v>4664.7999999999993</v>
       </c>
@@ -67955,8 +67437,8 @@
       <c r="E18" s="206">
         <v>3705</v>
       </c>
-      <c r="F18" s="269"/>
-      <c r="G18" s="280"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="279"/>
     </row>
     <row r="19" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A19" s="124" t="s">
@@ -67974,8 +67456,8 @@
       <c r="E19" s="206">
         <v>3689</v>
       </c>
-      <c r="F19" s="269"/>
-      <c r="G19" s="280"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="279"/>
     </row>
     <row r="20" spans="1:7" s="119" customFormat="1" ht="16">
       <c r="A20" s="124" t="s">
@@ -67993,8 +67475,8 @@
       <c r="E20" s="206">
         <v>2912</v>
       </c>
-      <c r="F20" s="269"/>
-      <c r="G20" s="280"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="279"/>
     </row>
     <row r="21" spans="1:7" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="A21" s="137" t="s">
@@ -68012,8 +67494,8 @@
       <c r="E21" s="209">
         <v>2410</v>
       </c>
-      <c r="F21" s="270"/>
-      <c r="G21" s="281"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/assets/damon_runyon_data_CLEAN.xlsx
+++ b/assets/damon_runyon_data_CLEAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/dashboard_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E9E67-E2EE-0448-BB7D-E062E9F3D51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9841FED-F404-2A48-886D-B836971B57F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="26760" activeTab="7" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
   </bookViews>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pubs Per Year </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Pubs </t>
   </si>
   <si>
     <t xml:space="preserve">Mean Cites per Year </t>
@@ -1752,6 +1749,9 @@
   </si>
   <si>
     <t>Organization</t>
+  </si>
+  <si>
+    <t>Total Pubs</t>
   </si>
 </sst>
 </file>
@@ -3283,27 +3283,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3347,6 +3326,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,6 +3415,12 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3422,27 +3428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3454,6 +3439,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3461,6 +3455,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29119,28 +29119,28 @@
   <sheetData>
     <row r="1" spans="1:38" s="147" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="173" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F1" s="173" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" s="173" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="210" t="s">
         <v>335</v>
-      </c>
-      <c r="H1" s="210" t="s">
-        <v>336</v>
       </c>
       <c r="I1" s="215"/>
     </row>
@@ -29152,22 +29152,22 @@
         <v>5843642</v>
       </c>
       <c r="C2" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="294" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D2" s="289" t="s">
+        <v>124</v>
       </c>
       <c r="E2" s="174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="174" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="174" t="s">
-        <v>334</v>
-      </c>
       <c r="G2" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H2" s="211" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I2" s="216"/>
     </row>
@@ -29179,27 +29179,27 @@
         <v>10251922</v>
       </c>
       <c r="C3" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="295"/>
+        <v>123</v>
+      </c>
+      <c r="D3" s="290"/>
       <c r="E3" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H3" s="211" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="217"/>
       <c r="J3"/>
-      <c r="K3" s="292" t="s">
-        <v>330</v>
-      </c>
-      <c r="L3" s="292"/>
+      <c r="K3" s="284" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="284"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -29232,30 +29232,30 @@
         <v>11220545</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="299" t="s">
         <v>126</v>
       </c>
+      <c r="D4" s="297" t="s">
+        <v>125</v>
+      </c>
       <c r="E4" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H4" s="212"/>
       <c r="I4" s="217"/>
       <c r="J4" s="158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K4" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" customHeight="1">
@@ -29266,25 +29266,25 @@
         <v>11357742</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="297"/>
+        <v>127</v>
+      </c>
+      <c r="D5" s="295"/>
       <c r="E5" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H5" s="212"/>
       <c r="I5" s="217"/>
-      <c r="J5" s="293">
+      <c r="J5" s="285">
         <v>1</v>
       </c>
-      <c r="K5" s="293" t="s">
-        <v>125</v>
+      <c r="K5" s="285" t="s">
+        <v>124</v>
       </c>
       <c r="L5" s="102">
         <v>5843642</v>
@@ -29298,22 +29298,22 @@
         <v>11492403</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="297"/>
+        <v>128</v>
+      </c>
+      <c r="D6" s="295"/>
       <c r="E6" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H6" s="212"/>
       <c r="I6" s="217"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
       <c r="L6" s="102">
         <v>10251922</v>
       </c>
@@ -29326,17 +29326,17 @@
         <v>11852631</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="297"/>
+        <v>129</v>
+      </c>
+      <c r="D7" s="295"/>
       <c r="E7" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H7" s="213"/>
       <c r="I7" s="218"/>
@@ -29352,19 +29352,19 @@
         <v>11814687</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="297" t="s">
         <v>131</v>
       </c>
+      <c r="D8" s="295" t="s">
+        <v>130</v>
+      </c>
       <c r="E8" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H8" s="213"/>
       <c r="I8" s="218"/>
@@ -29380,17 +29380,17 @@
         <v>11452768</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="297"/>
+        <v>132</v>
+      </c>
+      <c r="D9" s="295"/>
       <c r="E9" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9" s="213"/>
       <c r="I9" s="218"/>
@@ -29406,17 +29406,17 @@
         <v>11725237</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="297"/>
+        <v>133</v>
+      </c>
+      <c r="D10" s="295"/>
       <c r="E10" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H10" s="213"/>
       <c r="I10" s="218"/>
@@ -29432,17 +29432,17 @@
         <v>10993997</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="298"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="296"/>
       <c r="E11" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" s="212"/>
       <c r="I11" s="217"/>
@@ -29484,19 +29484,19 @@
         <v>11161842</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="296" t="s">
         <v>137</v>
       </c>
+      <c r="D12" s="291" t="s">
+        <v>136</v>
+      </c>
       <c r="E12" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="212"/>
       <c r="I12" s="217"/>
@@ -29509,17 +29509,17 @@
         <v>10836722</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="289"/>
+        <v>138</v>
+      </c>
+      <c r="D13" s="292"/>
       <c r="E13" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="212"/>
       <c r="I13" s="217"/>
@@ -29532,17 +29532,17 @@
         <v>10450310</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="289"/>
+        <v>139</v>
+      </c>
+      <c r="D14" s="292"/>
       <c r="E14" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" s="212"/>
       <c r="I14" s="217"/>
@@ -29555,17 +29555,17 @@
         <v>11186574</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="289"/>
+        <v>140</v>
+      </c>
+      <c r="D15" s="292"/>
       <c r="E15" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F15" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H15" s="212"/>
       <c r="I15" s="217"/>
@@ -29578,17 +29578,17 @@
         <v>11945816</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="289"/>
+        <v>140</v>
+      </c>
+      <c r="D16" s="292"/>
       <c r="E16" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F16" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H16" s="212"/>
       <c r="I16" s="217"/>
@@ -29601,17 +29601,17 @@
         <v>10385019</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="289"/>
+        <v>141</v>
+      </c>
+      <c r="D17" s="292"/>
       <c r="E17" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F17" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H17" s="212"/>
       <c r="I17" s="217"/>
@@ -29624,17 +29624,17 @@
         <v>10266517</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="289"/>
+        <v>142</v>
+      </c>
+      <c r="D18" s="292"/>
       <c r="E18" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F18" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H18" s="212"/>
       <c r="I18" s="217"/>
@@ -29647,17 +29647,17 @@
         <v>10870636</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="289"/>
+        <v>142</v>
+      </c>
+      <c r="D19" s="292"/>
       <c r="E19" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F19" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H19" s="212"/>
       <c r="I19" s="217"/>
@@ -29670,17 +29670,17 @@
         <v>11873486</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="289"/>
+        <v>143</v>
+      </c>
+      <c r="D20" s="292"/>
       <c r="E20" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F20" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H20" s="212"/>
       <c r="I20" s="217"/>
@@ -29693,17 +29693,17 @@
         <v>11673882</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="289"/>
+        <v>144</v>
+      </c>
+      <c r="D21" s="292"/>
       <c r="E21" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F21" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H21" s="213"/>
       <c r="I21" s="218"/>
@@ -29719,17 +29719,17 @@
         <v>10550112</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="289"/>
+        <v>144</v>
+      </c>
+      <c r="D22" s="292"/>
       <c r="E22" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F22" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H22" s="212"/>
       <c r="I22" s="217"/>
@@ -29742,17 +29742,17 @@
         <v>11624093</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="288"/>
+        <v>145</v>
+      </c>
+      <c r="D23" s="293"/>
       <c r="E23" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F23" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H23" s="212"/>
       <c r="I23" s="217"/>
@@ -29794,19 +29794,19 @@
         <v>5502214</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="287" t="s">
         <v>147</v>
       </c>
+      <c r="D24" s="294" t="s">
+        <v>146</v>
+      </c>
       <c r="E24" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F24" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="212"/>
       <c r="I24" s="217"/>
@@ -29819,17 +29819,17 @@
         <v>10190160</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="289"/>
+        <v>148</v>
+      </c>
+      <c r="D25" s="292"/>
       <c r="E25" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F25" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H25" s="212"/>
       <c r="I25" s="217"/>
@@ -29842,17 +29842,17 @@
         <v>11299782</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="289"/>
+        <v>148</v>
+      </c>
+      <c r="D26" s="292"/>
       <c r="E26" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F26" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H26" s="213"/>
       <c r="I26" s="218"/>
@@ -29868,17 +29868,17 @@
         <v>7396678</v>
       </c>
       <c r="C27" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="D27" s="292"/>
       <c r="E27" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F27" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H27" s="212"/>
       <c r="I27" s="217"/>
@@ -29891,17 +29891,17 @@
         <v>4542225</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="D28" s="292"/>
       <c r="E28" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H28" s="212"/>
       <c r="I28" s="217"/>
@@ -29914,17 +29914,17 @@
         <v>4618492</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="D29" s="292"/>
       <c r="E29" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H29" s="212"/>
       <c r="I29" s="217"/>
@@ -29937,17 +29937,17 @@
         <v>5360803</v>
       </c>
       <c r="C30" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="289"/>
+        <v>151</v>
+      </c>
+      <c r="D30" s="292"/>
       <c r="E30" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F30" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H30" s="212"/>
       <c r="I30" s="217"/>
@@ -29960,17 +29960,17 @@
         <v>5618831</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="289"/>
+        <v>152</v>
+      </c>
+      <c r="D31" s="292"/>
       <c r="E31" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H31" s="213"/>
       <c r="I31" s="219"/>
@@ -29983,17 +29983,17 @@
         <v>5670530</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="289"/>
+        <v>152</v>
+      </c>
+      <c r="D32" s="292"/>
       <c r="E32" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F32" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H32" s="213"/>
       <c r="I32" s="219"/>
@@ -30006,17 +30006,17 @@
         <v>5861424</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="289"/>
+        <v>152</v>
+      </c>
+      <c r="D33" s="292"/>
       <c r="E33" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F33" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33" s="213"/>
       <c r="I33" s="219"/>
@@ -30029,17 +30029,17 @@
         <v>7786269</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="289"/>
+        <v>153</v>
+      </c>
+      <c r="D34" s="292"/>
       <c r="E34" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F34" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H34" s="212"/>
       <c r="I34" s="217"/>
@@ -30052,17 +30052,17 @@
         <v>11421032</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="289"/>
+        <v>154</v>
+      </c>
+      <c r="D35" s="292"/>
       <c r="E35" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F35" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H35" s="212"/>
       <c r="I35" s="217"/>
@@ -30075,17 +30075,17 @@
         <v>4625014</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="289"/>
+        <v>155</v>
+      </c>
+      <c r="D36" s="292"/>
       <c r="E36" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F36" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H36" s="212"/>
       <c r="I36" s="217"/>
@@ -30098,17 +30098,17 @@
         <v>6908617</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="289"/>
+        <v>156</v>
+      </c>
+      <c r="D37" s="292"/>
       <c r="E37" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F37" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H37" s="212"/>
       <c r="I37" s="217"/>
@@ -30121,17 +30121,17 @@
         <v>11040957</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="289"/>
+        <v>157</v>
+      </c>
+      <c r="D38" s="292"/>
       <c r="E38" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F38" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H38" s="212"/>
       <c r="I38" s="217"/>
@@ -30144,17 +30144,17 @@
         <v>6479281</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="289"/>
+        <v>158</v>
+      </c>
+      <c r="D39" s="292"/>
       <c r="E39" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F39" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H39" s="212"/>
       <c r="I39" s="217"/>
@@ -30167,17 +30167,17 @@
         <v>10047070</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="289"/>
+        <v>159</v>
+      </c>
+      <c r="D40" s="292"/>
       <c r="E40" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F40" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H40" s="212"/>
       <c r="I40" s="217"/>
@@ -30190,17 +30190,17 @@
         <v>10906889</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="289"/>
+        <v>159</v>
+      </c>
+      <c r="D41" s="292"/>
       <c r="E41" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F41" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H41" s="212"/>
       <c r="I41" s="217"/>
@@ -30213,17 +30213,17 @@
         <v>10577662</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="289"/>
+        <v>160</v>
+      </c>
+      <c r="D42" s="292"/>
       <c r="E42" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F42" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H42" s="212"/>
       <c r="I42" s="217"/>
@@ -30236,17 +30236,17 @@
         <v>7229755</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="289"/>
+        <v>161</v>
+      </c>
+      <c r="D43" s="292"/>
       <c r="E43" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F43" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H43" s="212"/>
       <c r="I43" s="217"/>
@@ -30259,17 +30259,17 @@
         <v>6479284</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="289"/>
+        <v>162</v>
+      </c>
+      <c r="D44" s="292"/>
       <c r="E44" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F44" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H44" s="212"/>
       <c r="I44" s="217"/>
@@ -30282,17 +30282,17 @@
         <v>9512485</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="289"/>
+        <v>163</v>
+      </c>
+      <c r="D45" s="292"/>
       <c r="E45" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F45" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H45" s="212"/>
       <c r="I45" s="217"/>
@@ -30305,17 +30305,17 @@
         <v>4035566</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="289"/>
+        <v>164</v>
+      </c>
+      <c r="D46" s="292"/>
       <c r="E46" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F46" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G46" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H46" s="212"/>
       <c r="I46" s="217"/>
@@ -30328,17 +30328,17 @@
         <v>7048929</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="289"/>
+        <v>165</v>
+      </c>
+      <c r="D47" s="292"/>
       <c r="E47" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F47" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H47" s="212"/>
       <c r="I47" s="217"/>
@@ -30351,17 +30351,17 @@
         <v>10738300</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="289"/>
+        <v>166</v>
+      </c>
+      <c r="D48" s="292"/>
       <c r="E48" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F48" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G48" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H48" s="212"/>
       <c r="I48" s="217"/>
@@ -30374,17 +30374,17 @@
         <v>10801021</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="289"/>
+        <v>166</v>
+      </c>
+      <c r="D49" s="292"/>
       <c r="E49" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F49" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G49" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H49" s="212"/>
       <c r="I49" s="217"/>
@@ -30397,17 +30397,17 @@
         <v>10039844</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="288"/>
+        <v>167</v>
+      </c>
+      <c r="D50" s="293"/>
       <c r="E50" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F50" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G50" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H50" s="212"/>
       <c r="I50" s="217"/>
@@ -30449,19 +30449,19 @@
         <v>10150742</v>
       </c>
       <c r="C51" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="289" t="s">
         <v>169</v>
       </c>
+      <c r="D51" s="292" t="s">
+        <v>168</v>
+      </c>
       <c r="E51" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F51" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H51" s="212"/>
       <c r="I51" s="217"/>
@@ -30474,17 +30474,17 @@
         <v>10633348</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="289"/>
+        <v>170</v>
+      </c>
+      <c r="D52" s="292"/>
       <c r="E52" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F52" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G52" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H52" s="212"/>
       <c r="I52" s="217"/>
@@ -30497,17 +30497,17 @@
         <v>9505784</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="289"/>
+        <v>171</v>
+      </c>
+      <c r="D53" s="292"/>
       <c r="E53" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F53" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G53" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H53" s="212"/>
       <c r="I53" s="217"/>
@@ -30520,17 +30520,17 @@
         <v>8765747</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="289"/>
+        <v>172</v>
+      </c>
+      <c r="D54" s="292"/>
       <c r="E54" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F54" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H54" s="212"/>
       <c r="I54" s="217"/>
@@ -30543,17 +30543,17 @@
         <v>11040957</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="289"/>
+        <v>157</v>
+      </c>
+      <c r="D55" s="292"/>
       <c r="E55" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F55" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H55" s="212"/>
       <c r="I55" s="217"/>
@@ -30566,17 +30566,17 @@
         <v>10047070</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="289"/>
+        <v>159</v>
+      </c>
+      <c r="D56" s="292"/>
       <c r="E56" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F56" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H56" s="212"/>
       <c r="I56" s="217"/>
@@ -30589,17 +30589,17 @@
         <v>10906889</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="289"/>
+        <v>159</v>
+      </c>
+      <c r="D57" s="292"/>
       <c r="E57" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F57" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G57" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H57" s="212"/>
       <c r="I57" s="217"/>
@@ -30612,17 +30612,17 @@
         <v>10316002</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="289"/>
+        <v>173</v>
+      </c>
+      <c r="D58" s="292"/>
       <c r="E58" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F58" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G58" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H58" s="212"/>
       <c r="I58" s="217"/>
@@ -30635,17 +30635,17 @@
         <v>10906878</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="289"/>
+        <v>174</v>
+      </c>
+      <c r="D59" s="292"/>
       <c r="E59" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F59" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G59" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H59" s="212"/>
       <c r="I59" s="217"/>
@@ -30658,17 +30658,17 @@
         <v>9783504</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="289"/>
+        <v>175</v>
+      </c>
+      <c r="D60" s="292"/>
       <c r="E60" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F60" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G60" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H60" s="212"/>
       <c r="I60" s="217"/>
@@ -30681,17 +30681,17 @@
         <v>9856223</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="289"/>
+        <v>176</v>
+      </c>
+      <c r="D61" s="292"/>
       <c r="E61" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F61" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G61" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H61" s="212"/>
       <c r="I61" s="217"/>
@@ -30704,17 +30704,17 @@
         <v>9180127</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="289"/>
+        <v>177</v>
+      </c>
+      <c r="D62" s="292"/>
       <c r="E62" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F62" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G62" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H62" s="212"/>
       <c r="I62" s="217"/>
@@ -30727,17 +30727,17 @@
         <v>11826365</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="289"/>
+        <v>177</v>
+      </c>
+      <c r="D63" s="292"/>
       <c r="E63" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F63" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G63" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H63" s="212"/>
       <c r="I63" s="217"/>
@@ -30750,17 +30750,17 @@
         <v>9358231</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="289"/>
+        <v>178</v>
+      </c>
+      <c r="D64" s="292"/>
       <c r="E64" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F64" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H64" s="212"/>
       <c r="I64" s="217"/>
@@ -30773,17 +30773,17 @@
         <v>10633348</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="289"/>
+        <v>170</v>
+      </c>
+      <c r="D65" s="292"/>
       <c r="E65" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F65" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G65" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H65" s="212"/>
       <c r="I65" s="217"/>
@@ -30796,17 +30796,17 @@
         <v>10508082</v>
       </c>
       <c r="C66" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="289"/>
+        <v>179</v>
+      </c>
+      <c r="D66" s="292"/>
       <c r="E66" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F66" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G66" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H66" s="212"/>
       <c r="I66" s="217"/>
@@ -30819,17 +30819,17 @@
         <v>10913744</v>
       </c>
       <c r="C67" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="289"/>
+        <v>180</v>
+      </c>
+      <c r="D67" s="292"/>
       <c r="E67" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F67" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G67" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H67" s="212"/>
       <c r="I67" s="217"/>
@@ -30842,17 +30842,17 @@
         <v>9856223</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="289"/>
+        <v>176</v>
+      </c>
+      <c r="D68" s="292"/>
       <c r="E68" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F68" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G68" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H68" s="212"/>
       <c r="I68" s="217"/>
@@ -30865,17 +30865,17 @@
         <v>11066363</v>
       </c>
       <c r="C69" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="289"/>
+        <v>181</v>
+      </c>
+      <c r="D69" s="292"/>
       <c r="E69" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F69" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G69" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H69" s="212"/>
       <c r="I69" s="217"/>
@@ -30888,17 +30888,17 @@
         <v>11858897</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="288"/>
+        <v>181</v>
+      </c>
+      <c r="D70" s="293"/>
       <c r="E70" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F70" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H70" s="212"/>
       <c r="I70" s="217"/>
@@ -30940,19 +30940,19 @@
         <v>10702527</v>
       </c>
       <c r="C71" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="289" t="s">
         <v>183</v>
       </c>
+      <c r="D71" s="292" t="s">
+        <v>182</v>
+      </c>
       <c r="E71" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F71" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G71" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H71" s="212"/>
       <c r="I71" s="217"/>
@@ -30965,17 +30965,17 @@
         <v>10865204</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="289"/>
+        <v>184</v>
+      </c>
+      <c r="D72" s="292"/>
       <c r="E72" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F72" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G72" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H72" s="212"/>
       <c r="I72" s="217"/>
@@ -30988,17 +30988,17 @@
         <v>10865205</v>
       </c>
       <c r="C73" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="289"/>
+        <v>185</v>
+      </c>
+      <c r="D73" s="292"/>
       <c r="E73" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F73" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G73" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H73" s="212"/>
       <c r="I73" s="217"/>
@@ -31011,17 +31011,17 @@
         <v>11247991</v>
       </c>
       <c r="C74" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="289"/>
+        <v>185</v>
+      </c>
+      <c r="D74" s="292"/>
       <c r="E74" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F74" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G74" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H74" s="212"/>
       <c r="I74" s="217"/>
@@ -31034,17 +31034,17 @@
         <v>11827636</v>
       </c>
       <c r="C75" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="289"/>
+        <v>185</v>
+      </c>
+      <c r="D75" s="292"/>
       <c r="E75" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F75" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H75" s="212"/>
       <c r="I75" s="217"/>
@@ -31057,17 +31057,17 @@
         <v>10532103</v>
       </c>
       <c r="C76" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="289"/>
+        <v>186</v>
+      </c>
+      <c r="D76" s="292"/>
       <c r="E76" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F76" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G76" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H76" s="212"/>
       <c r="I76" s="217"/>
@@ -31080,17 +31080,17 @@
         <v>11932625</v>
       </c>
       <c r="C77" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="289"/>
+        <v>187</v>
+      </c>
+      <c r="D77" s="292"/>
       <c r="E77" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F77" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G77" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H77" s="212"/>
       <c r="I77" s="217"/>
@@ -31103,17 +31103,17 @@
         <v>11142507</v>
       </c>
       <c r="C78" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="289"/>
+        <v>188</v>
+      </c>
+      <c r="D78" s="292"/>
       <c r="E78" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F78" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G78" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H78" s="212"/>
       <c r="I78" s="217"/>
@@ -31126,17 +31126,17 @@
         <v>11306070</v>
       </c>
       <c r="C79" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D79" s="289"/>
+        <v>189</v>
+      </c>
+      <c r="D79" s="292"/>
       <c r="E79" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F79" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G79" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H79" s="212"/>
       <c r="I79" s="217"/>
@@ -31149,17 +31149,17 @@
         <v>10870651</v>
       </c>
       <c r="C80" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="289"/>
+        <v>190</v>
+      </c>
+      <c r="D80" s="292"/>
       <c r="E80" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F80" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G80" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H80" s="212"/>
       <c r="I80" s="217"/>
@@ -31172,17 +31172,17 @@
         <v>10550121</v>
       </c>
       <c r="C81" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="289"/>
+        <v>191</v>
+      </c>
+      <c r="D81" s="292"/>
       <c r="E81" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F81" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G81" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H81" s="212"/>
       <c r="I81" s="217"/>
@@ -31195,17 +31195,17 @@
         <v>11325910</v>
       </c>
       <c r="C82" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="288"/>
+        <v>191</v>
+      </c>
+      <c r="D82" s="293"/>
       <c r="E82" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F82" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G82" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H82" s="212"/>
       <c r="I82" s="217"/>
@@ -31247,19 +31247,19 @@
         <v>10689366</v>
       </c>
       <c r="C83" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" s="287" t="s">
         <v>193</v>
       </c>
+      <c r="D83" s="294" t="s">
+        <v>192</v>
+      </c>
       <c r="E83" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F83" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G83" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H83" s="212"/>
       <c r="I83" s="217"/>
@@ -31272,17 +31272,17 @@
         <v>10711036</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="D84" s="288"/>
+        <v>194</v>
+      </c>
+      <c r="D84" s="293"/>
       <c r="E84" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F84" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G84" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H84" s="212"/>
       <c r="I84" s="217"/>
@@ -31324,19 +31324,19 @@
         <v>10695346</v>
       </c>
       <c r="C85" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="287" t="s">
         <v>196</v>
       </c>
+      <c r="D85" s="294" t="s">
+        <v>195</v>
+      </c>
       <c r="E85" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F85" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G85" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H85" s="212"/>
       <c r="I85" s="217"/>
@@ -31349,17 +31349,17 @@
         <v>10342798</v>
       </c>
       <c r="C86" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="D86" s="288"/>
+        <v>197</v>
+      </c>
+      <c r="D86" s="293"/>
       <c r="E86" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F86" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G86" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H86" s="212"/>
       <c r="I86" s="217"/>
@@ -31401,19 +31401,19 @@
         <v>11584746</v>
       </c>
       <c r="C87" s="139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" s="155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E87" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F87" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G87" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H87" s="212"/>
       <c r="I87" s="217"/>
@@ -31455,19 +31455,19 @@
         <v>10150742</v>
       </c>
       <c r="C88" s="140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" s="156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E88" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F88" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G88" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H88" s="212"/>
       <c r="I88" s="217"/>
@@ -31509,19 +31509,19 @@
         <v>10738310</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89" s="287" t="s">
         <v>202</v>
       </c>
+      <c r="D89" s="294" t="s">
+        <v>201</v>
+      </c>
       <c r="E89" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F89" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G89" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H89" s="212"/>
       <c r="I89" s="217"/>
@@ -31534,17 +31534,17 @@
         <v>10960008</v>
       </c>
       <c r="C90" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="289"/>
+        <v>203</v>
+      </c>
+      <c r="D90" s="292"/>
       <c r="E90" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F90" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G90" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H90" s="212"/>
       <c r="I90" s="217"/>
@@ -31557,17 +31557,17 @@
         <v>7153700</v>
       </c>
       <c r="C91" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="288"/>
+        <v>204</v>
+      </c>
+      <c r="D91" s="293"/>
       <c r="E91" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F91" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H91" s="212"/>
       <c r="I91" s="217"/>
@@ -31609,19 +31609,19 @@
         <v>11116818</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="287" t="s">
         <v>206</v>
       </c>
+      <c r="D92" s="294" t="s">
+        <v>205</v>
+      </c>
       <c r="E92" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F92" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G92" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H92" s="212"/>
       <c r="I92" s="217"/>
@@ -31634,17 +31634,17 @@
         <v>8609663</v>
       </c>
       <c r="C93" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="289"/>
+        <v>207</v>
+      </c>
+      <c r="D93" s="292"/>
       <c r="E93" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F93" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G93" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H93" s="212"/>
       <c r="I93" s="217"/>
@@ -31657,17 +31657,17 @@
         <v>9271972</v>
       </c>
       <c r="C94" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D94" s="289"/>
+        <v>207</v>
+      </c>
+      <c r="D94" s="292"/>
       <c r="E94" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F94" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G94" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H94" s="212"/>
       <c r="I94" s="217"/>
@@ -31680,17 +31680,17 @@
         <v>9616116</v>
       </c>
       <c r="C95" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="D95" s="289"/>
+        <v>208</v>
+      </c>
+      <c r="D95" s="292"/>
       <c r="E95" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F95" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G95" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H95" s="212"/>
       <c r="I95" s="217"/>
@@ -31703,17 +31703,17 @@
         <v>8617838</v>
       </c>
       <c r="C96" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="289"/>
+        <v>209</v>
+      </c>
+      <c r="D96" s="292"/>
       <c r="E96" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F96" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G96" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H96" s="212"/>
       <c r="I96" s="217"/>
@@ -31726,17 +31726,17 @@
         <v>9879003</v>
       </c>
       <c r="C97" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D97" s="289"/>
+        <v>210</v>
+      </c>
+      <c r="D97" s="292"/>
       <c r="E97" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F97" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G97" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H97" s="212"/>
       <c r="I97" s="217"/>
@@ -31749,17 +31749,17 @@
         <v>8232240</v>
       </c>
       <c r="C98" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="289"/>
+        <v>211</v>
+      </c>
+      <c r="D98" s="292"/>
       <c r="E98" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F98" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G98" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H98" s="212"/>
       <c r="I98" s="217"/>
@@ -31772,17 +31772,17 @@
         <v>10982291</v>
       </c>
       <c r="C99" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" s="289"/>
+        <v>212</v>
+      </c>
+      <c r="D99" s="292"/>
       <c r="E99" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F99" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G99" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H99" s="212"/>
       <c r="I99" s="217"/>
@@ -31795,17 +31795,17 @@
         <v>9023352</v>
       </c>
       <c r="C100" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="289"/>
+        <v>213</v>
+      </c>
+      <c r="D100" s="292"/>
       <c r="E100" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F100" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G100" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H100" s="212"/>
       <c r="I100" s="217"/>
@@ -31818,17 +31818,17 @@
         <v>8598342</v>
       </c>
       <c r="C101" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="D101" s="289"/>
+        <v>214</v>
+      </c>
+      <c r="D101" s="292"/>
       <c r="E101" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F101" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G101" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H101" s="212"/>
       <c r="I101" s="217"/>
@@ -31841,17 +31841,17 @@
         <v>9234885</v>
       </c>
       <c r="C102" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="289"/>
+        <v>215</v>
+      </c>
+      <c r="D102" s="292"/>
       <c r="E102" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F102" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G102" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H102" s="212"/>
       <c r="I102" s="217"/>
@@ -31864,17 +31864,17 @@
         <v>8349326</v>
       </c>
       <c r="C103" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" s="289"/>
+        <v>216</v>
+      </c>
+      <c r="D103" s="292"/>
       <c r="E103" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F103" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G103" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H103" s="212"/>
       <c r="I103" s="217"/>
@@ -31887,17 +31887,17 @@
         <v>8865169</v>
       </c>
       <c r="C104" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="289"/>
+        <v>216</v>
+      </c>
+      <c r="D104" s="292"/>
       <c r="E104" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F104" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G104" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H104" s="212"/>
       <c r="I104" s="217"/>
@@ -31910,17 +31910,17 @@
         <v>7517667</v>
       </c>
       <c r="C105" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="289"/>
+        <v>217</v>
+      </c>
+      <c r="D105" s="292"/>
       <c r="E105" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F105" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G105" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H105" s="212"/>
       <c r="I105" s="217"/>
@@ -31933,17 +31933,17 @@
         <v>9834616</v>
       </c>
       <c r="C106" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="289"/>
+        <v>218</v>
+      </c>
+      <c r="D106" s="292"/>
       <c r="E106" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F106" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G106" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H106" s="212"/>
       <c r="I106" s="217"/>
@@ -31956,17 +31956,17 @@
         <v>10202441</v>
       </c>
       <c r="C107" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="D107" s="289"/>
+        <v>219</v>
+      </c>
+      <c r="D107" s="292"/>
       <c r="E107" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F107" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G107" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H107" s="212"/>
       <c r="I107" s="217"/>
@@ -31979,17 +31979,17 @@
         <v>9359275</v>
       </c>
       <c r="C108" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="289"/>
+        <v>220</v>
+      </c>
+      <c r="D108" s="292"/>
       <c r="E108" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F108" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G108" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H108" s="212"/>
       <c r="I108" s="217"/>
@@ -32002,17 +32002,17 @@
         <v>9533032</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="289"/>
+        <v>221</v>
+      </c>
+      <c r="D109" s="292"/>
       <c r="E109" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F109" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G109" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H109" s="212"/>
       <c r="I109" s="217"/>
@@ -32025,17 +32025,17 @@
         <v>9216223</v>
       </c>
       <c r="C110" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="289"/>
+        <v>221</v>
+      </c>
+      <c r="D110" s="292"/>
       <c r="E110" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F110" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G110" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H110" s="212"/>
       <c r="I110" s="217"/>
@@ -32048,17 +32048,17 @@
         <v>7807180</v>
       </c>
       <c r="C111" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="289"/>
+        <v>222</v>
+      </c>
+      <c r="D111" s="292"/>
       <c r="E111" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F111" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G111" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H111" s="212"/>
       <c r="I111" s="217"/>
@@ -32071,17 +32071,17 @@
         <v>8642042</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="289"/>
+        <v>223</v>
+      </c>
+      <c r="D112" s="292"/>
       <c r="E112" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F112" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G112" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H112" s="212"/>
       <c r="I112" s="217"/>
@@ -32094,17 +32094,17 @@
         <v>9131687</v>
       </c>
       <c r="C113" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="D113" s="289"/>
+        <v>224</v>
+      </c>
+      <c r="D113" s="292"/>
       <c r="E113" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F113" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G113" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H113" s="212"/>
       <c r="I113" s="217"/>
@@ -32117,17 +32117,17 @@
         <v>9885088</v>
       </c>
       <c r="C114" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="D114" s="289"/>
+        <v>225</v>
+      </c>
+      <c r="D114" s="292"/>
       <c r="E114" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F114" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G114" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H114" s="212"/>
       <c r="I114" s="217"/>
@@ -32140,17 +32140,17 @@
         <v>9193705</v>
       </c>
       <c r="C115" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" s="289"/>
+        <v>226</v>
+      </c>
+      <c r="D115" s="292"/>
       <c r="E115" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F115" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G115" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H115" s="212"/>
       <c r="I115" s="217"/>
@@ -32163,17 +32163,17 @@
         <v>10150742</v>
       </c>
       <c r="C116" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="D116" s="289"/>
+        <v>169</v>
+      </c>
+      <c r="D116" s="292"/>
       <c r="E116" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F116" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G116" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H116" s="212"/>
       <c r="I116" s="217"/>
@@ -32186,17 +32186,17 @@
         <v>9452992</v>
       </c>
       <c r="C117" s="104" t="s">
-        <v>228</v>
-      </c>
-      <c r="D117" s="289"/>
+        <v>227</v>
+      </c>
+      <c r="D117" s="292"/>
       <c r="E117" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F117" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G117" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H117" s="212"/>
       <c r="I117" s="217"/>
@@ -32209,17 +32209,17 @@
         <v>11261201</v>
       </c>
       <c r="C118" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D118" s="289"/>
+        <v>228</v>
+      </c>
+      <c r="D118" s="292"/>
       <c r="E118" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F118" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G118" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H118" s="212"/>
       <c r="I118" s="217"/>
@@ -32232,17 +32232,17 @@
         <v>9340505</v>
       </c>
       <c r="C119" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D119" s="289"/>
+        <v>229</v>
+      </c>
+      <c r="D119" s="292"/>
       <c r="E119" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F119" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G119" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H119" s="212"/>
       <c r="I119" s="217"/>
@@ -32255,17 +32255,17 @@
         <v>8716283</v>
       </c>
       <c r="C120" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D120" s="289"/>
+        <v>229</v>
+      </c>
+      <c r="D120" s="292"/>
       <c r="E120" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F120" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G120" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H120" s="212"/>
       <c r="I120" s="217"/>
@@ -32278,17 +32278,17 @@
         <v>11001625</v>
       </c>
       <c r="C121" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D121" s="289"/>
+        <v>230</v>
+      </c>
+      <c r="D121" s="292"/>
       <c r="E121" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F121" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G121" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H121" s="212"/>
       <c r="I121" s="217"/>
@@ -32301,17 +32301,17 @@
         <v>8841253</v>
       </c>
       <c r="C122" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="D122" s="288"/>
+        <v>231</v>
+      </c>
+      <c r="D122" s="293"/>
       <c r="E122" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F122" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G122" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H122" s="212"/>
       <c r="I122" s="217"/>
@@ -32353,19 +32353,19 @@
         <v>9951074</v>
       </c>
       <c r="C123" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="287" t="s">
         <v>233</v>
       </c>
+      <c r="D123" s="294" t="s">
+        <v>232</v>
+      </c>
       <c r="E123" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F123" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G123" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H123" s="212"/>
       <c r="I123" s="217"/>
@@ -32378,17 +32378,17 @@
         <v>10308653</v>
       </c>
       <c r="C124" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D124" s="289"/>
+        <v>234</v>
+      </c>
+      <c r="D124" s="292"/>
       <c r="E124" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F124" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G124" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H124" s="212"/>
       <c r="I124" s="217"/>
@@ -32401,17 +32401,17 @@
         <v>11040957</v>
       </c>
       <c r="C125" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D125" s="289"/>
+        <v>157</v>
+      </c>
+      <c r="D125" s="292"/>
       <c r="E125" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F125" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G125" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H125" s="212"/>
       <c r="I125" s="217"/>
@@ -32424,17 +32424,17 @@
         <v>9879003</v>
       </c>
       <c r="C126" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D126" s="289"/>
+        <v>210</v>
+      </c>
+      <c r="D126" s="292"/>
       <c r="E126" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F126" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G126" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H126" s="212"/>
       <c r="I126" s="217"/>
@@ -32447,17 +32447,17 @@
         <v>9975896</v>
       </c>
       <c r="C127" s="104" t="s">
-        <v>236</v>
-      </c>
-      <c r="D127" s="289"/>
+        <v>235</v>
+      </c>
+      <c r="D127" s="292"/>
       <c r="E127" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F127" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G127" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H127" s="212"/>
       <c r="I127" s="217"/>
@@ -32470,17 +32470,17 @@
         <v>10906889</v>
       </c>
       <c r="C128" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D128" s="289"/>
+        <v>159</v>
+      </c>
+      <c r="D128" s="292"/>
       <c r="E128" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F128" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G128" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H128" s="212"/>
       <c r="I128" s="217"/>
@@ -32493,17 +32493,17 @@
         <v>10047070</v>
       </c>
       <c r="C129" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="D129" s="288"/>
+        <v>159</v>
+      </c>
+      <c r="D129" s="293"/>
       <c r="E129" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F129" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G129" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H129" s="212"/>
       <c r="I129" s="217"/>
@@ -32545,19 +32545,19 @@
         <v>11453907</v>
       </c>
       <c r="C130" s="142" t="s">
-        <v>238</v>
-      </c>
-      <c r="D130" s="290" t="s">
         <v>237</v>
       </c>
+      <c r="D130" s="298" t="s">
+        <v>236</v>
+      </c>
       <c r="E130" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F130" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G130" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H130" s="212"/>
       <c r="I130" s="217"/>
@@ -32570,17 +32570,17 @@
         <v>11384344</v>
       </c>
       <c r="C131" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" s="290"/>
+        <v>238</v>
+      </c>
+      <c r="D131" s="298"/>
       <c r="E131" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F131" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G131" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H131" s="212"/>
       <c r="I131" s="217"/>
@@ -32593,17 +32593,17 @@
         <v>11639523</v>
       </c>
       <c r="C132" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="D132" s="290"/>
+        <v>239</v>
+      </c>
+      <c r="D132" s="298"/>
       <c r="E132" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F132" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G132" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H132" s="212"/>
       <c r="I132" s="217"/>
@@ -32616,17 +32616,17 @@
         <v>11851702</v>
       </c>
       <c r="C133" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D133" s="290"/>
+        <v>240</v>
+      </c>
+      <c r="D133" s="298"/>
       <c r="E133" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F133" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G133" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H133" s="212"/>
       <c r="I133" s="217"/>
@@ -32639,17 +32639,17 @@
         <v>10968257</v>
       </c>
       <c r="C134" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="D134" s="291"/>
+        <v>241</v>
+      </c>
+      <c r="D134" s="299"/>
       <c r="E134" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F134" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G134" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H134" s="212"/>
       <c r="I134" s="217"/>
@@ -32662,19 +32662,19 @@
         <v>11236327</v>
       </c>
       <c r="C135" s="142" t="s">
-        <v>244</v>
-      </c>
-      <c r="D135" s="285" t="s">
         <v>243</v>
       </c>
+      <c r="D135" s="287" t="s">
+        <v>242</v>
+      </c>
       <c r="E135" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F135" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G135" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H135" s="212"/>
       <c r="I135" s="217"/>
@@ -32687,17 +32687,17 @@
         <v>11591581</v>
       </c>
       <c r="C136" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D136" s="285"/>
+        <v>244</v>
+      </c>
+      <c r="D136" s="287"/>
       <c r="E136" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F136" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G136" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H136" s="212"/>
       <c r="I136" s="217"/>
@@ -32710,17 +32710,17 @@
         <v>10851357</v>
       </c>
       <c r="C137" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D137" s="285"/>
+        <v>244</v>
+      </c>
+      <c r="D137" s="287"/>
       <c r="E137" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F137" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G137" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H137" s="212"/>
       <c r="I137" s="217"/>
@@ -32733,17 +32733,17 @@
         <v>11286478</v>
       </c>
       <c r="C138" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D138" s="285"/>
+        <v>245</v>
+      </c>
+      <c r="D138" s="287"/>
       <c r="E138" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F138" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G138" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H138" s="212"/>
       <c r="I138" s="217"/>
@@ -32756,17 +32756,17 @@
         <v>11174515</v>
       </c>
       <c r="C139" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D139" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D139" s="287"/>
       <c r="E139" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F139" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G139" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H139" s="212"/>
       <c r="I139" s="217"/>
@@ -32779,17 +32779,17 @@
         <v>11104937</v>
       </c>
       <c r="C140" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D140" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D140" s="287"/>
       <c r="E140" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F140" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G140" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H140" s="212"/>
       <c r="I140" s="217"/>
@@ -32802,17 +32802,17 @@
         <v>11633732</v>
       </c>
       <c r="C141" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D141" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D141" s="287"/>
       <c r="E141" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F141" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G141" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H141" s="212"/>
       <c r="I141" s="217"/>
@@ -32825,17 +32825,17 @@
         <v>11618928</v>
       </c>
       <c r="C142" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D142" s="285"/>
+        <v>247</v>
+      </c>
+      <c r="D142" s="287"/>
       <c r="E142" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F142" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G142" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H142" s="212"/>
       <c r="I142" s="217"/>
@@ -32848,17 +32848,17 @@
         <v>10876100</v>
       </c>
       <c r="C143" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D143" s="285"/>
+        <v>248</v>
+      </c>
+      <c r="D143" s="287"/>
       <c r="E143" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F143" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H143" s="212"/>
       <c r="I143" s="217"/>
@@ -32871,17 +32871,17 @@
         <v>10266887</v>
       </c>
       <c r="C144" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D144" s="285"/>
+        <v>249</v>
+      </c>
+      <c r="D144" s="287"/>
       <c r="E144" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F144" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G144" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H144" s="212"/>
       <c r="I144" s="217"/>
@@ -32894,17 +32894,17 @@
         <v>10266886</v>
       </c>
       <c r="C145" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D145" s="285"/>
+        <v>249</v>
+      </c>
+      <c r="D145" s="287"/>
       <c r="E145" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F145" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G145" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H145" s="212"/>
       <c r="I145" s="217"/>
@@ -32917,17 +32917,17 @@
         <v>10494621</v>
       </c>
       <c r="C146" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="D146" s="285"/>
+        <v>250</v>
+      </c>
+      <c r="D146" s="287"/>
       <c r="E146" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F146" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G146" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H146" s="212"/>
       <c r="I146" s="217"/>
@@ -32940,17 +32940,17 @@
         <v>9840713</v>
       </c>
       <c r="C147" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D147" s="285"/>
+        <v>251</v>
+      </c>
+      <c r="D147" s="287"/>
       <c r="E147" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F147" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G147" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H147" s="212"/>
       <c r="I147" s="217"/>
@@ -32963,17 +32963,17 @@
         <v>9822372</v>
       </c>
       <c r="C148" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D148" s="285"/>
+        <v>252</v>
+      </c>
+      <c r="D148" s="287"/>
       <c r="E148" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F148" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G148" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H148" s="212"/>
       <c r="I148" s="217"/>
@@ -32986,17 +32986,17 @@
         <v>8889356</v>
       </c>
       <c r="C149" s="108" t="s">
-        <v>254</v>
-      </c>
-      <c r="D149" s="285"/>
+        <v>253</v>
+      </c>
+      <c r="D149" s="287"/>
       <c r="E149" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F149" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G149" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H149" s="212"/>
       <c r="I149" s="217"/>
@@ -33009,17 +33009,17 @@
         <v>8932814</v>
       </c>
       <c r="C150" s="108" t="s">
-        <v>254</v>
-      </c>
-      <c r="D150" s="285"/>
+        <v>253</v>
+      </c>
+      <c r="D150" s="287"/>
       <c r="E150" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F150" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G150" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H150" s="212"/>
       <c r="I150" s="217"/>
@@ -33032,17 +33032,17 @@
         <v>11149259</v>
       </c>
       <c r="C151" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="D151" s="285"/>
+        <v>254</v>
+      </c>
+      <c r="D151" s="287"/>
       <c r="E151" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F151" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G151" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H151" s="212"/>
       <c r="I151" s="217"/>
@@ -33055,17 +33055,17 @@
         <v>11155795</v>
       </c>
       <c r="C152" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D152" s="285"/>
+        <v>255</v>
+      </c>
+      <c r="D152" s="287"/>
       <c r="E152" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F152" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G152" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H152" s="212"/>
       <c r="I152" s="217"/>
@@ -33078,17 +33078,17 @@
         <v>10377998</v>
       </c>
       <c r="C153" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="D153" s="285"/>
+        <v>256</v>
+      </c>
+      <c r="D153" s="287"/>
       <c r="E153" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F153" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G153" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H153" s="212"/>
       <c r="I153" s="217"/>
@@ -33101,17 +33101,17 @@
         <v>8795965</v>
       </c>
       <c r="C154" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D154" s="285"/>
+        <v>257</v>
+      </c>
+      <c r="D154" s="287"/>
       <c r="E154" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F154" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G154" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H154" s="212"/>
       <c r="I154" s="217"/>
@@ -33124,17 +33124,17 @@
         <v>8871445</v>
       </c>
       <c r="C155" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D155" s="285"/>
+        <v>257</v>
+      </c>
+      <c r="D155" s="287"/>
       <c r="E155" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F155" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G155" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H155" s="212"/>
       <c r="I155" s="217"/>
@@ -33147,17 +33147,17 @@
         <v>8945839</v>
       </c>
       <c r="C156" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D156" s="285"/>
+        <v>258</v>
+      </c>
+      <c r="D156" s="287"/>
       <c r="E156" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F156" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G156" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H156" s="212"/>
       <c r="I156" s="217"/>
@@ -33170,17 +33170,17 @@
         <v>8697359</v>
       </c>
       <c r="C157" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D157" s="285"/>
+        <v>258</v>
+      </c>
+      <c r="D157" s="287"/>
       <c r="E157" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F157" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G157" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H157" s="212"/>
       <c r="I157" s="217"/>
@@ -33193,17 +33193,17 @@
         <v>8771945</v>
       </c>
       <c r="C158" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D158" s="285"/>
+        <v>258</v>
+      </c>
+      <c r="D158" s="287"/>
       <c r="E158" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F158" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G158" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H158" s="212"/>
       <c r="I158" s="217"/>
@@ -33216,17 +33216,17 @@
         <v>10577630</v>
       </c>
       <c r="C159" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="D159" s="285"/>
+        <v>259</v>
+      </c>
+      <c r="D159" s="287"/>
       <c r="E159" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F159" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G159" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H159" s="212"/>
       <c r="I159" s="217"/>
@@ -33239,17 +33239,17 @@
         <v>11041173</v>
       </c>
       <c r="C160" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="D160" s="285"/>
+        <v>260</v>
+      </c>
+      <c r="D160" s="287"/>
       <c r="E160" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F160" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G160" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H160" s="212"/>
       <c r="I160" s="217"/>
@@ -33262,17 +33262,17 @@
         <v>11008588</v>
       </c>
       <c r="C161" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="D161" s="285"/>
+        <v>261</v>
+      </c>
+      <c r="D161" s="287"/>
       <c r="E161" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F161" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G161" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H161" s="212"/>
       <c r="I161" s="217"/>
@@ -33285,17 +33285,17 @@
         <v>11407985</v>
       </c>
       <c r="C162" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="D162" s="285"/>
+        <v>262</v>
+      </c>
+      <c r="D162" s="287"/>
       <c r="E162" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F162" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G162" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H162" s="212"/>
       <c r="I162" s="217"/>
@@ -33308,17 +33308,17 @@
         <v>11124796</v>
       </c>
       <c r="C163" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="D163" s="285"/>
+        <v>263</v>
+      </c>
+      <c r="D163" s="287"/>
       <c r="E163" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F163" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G163" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H163" s="212"/>
       <c r="I163" s="217"/>
@@ -33331,17 +33331,17 @@
         <v>10946108</v>
       </c>
       <c r="C164" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="D164" s="285"/>
+        <v>264</v>
+      </c>
+      <c r="D164" s="287"/>
       <c r="E164" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F164" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G164" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H164" s="212"/>
       <c r="I164" s="217"/>
@@ -33354,17 +33354,17 @@
         <v>11021740</v>
       </c>
       <c r="C165" s="108" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="285"/>
+        <v>265</v>
+      </c>
+      <c r="D165" s="287"/>
       <c r="E165" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F165" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G165" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H165" s="212"/>
       <c r="I165" s="217"/>
@@ -33377,17 +33377,17 @@
         <v>11339390</v>
       </c>
       <c r="C166" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="D166" s="285"/>
+        <v>266</v>
+      </c>
+      <c r="D166" s="287"/>
       <c r="E166" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F166" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G166" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H166" s="212"/>
       <c r="I166" s="217"/>
@@ -33400,17 +33400,17 @@
         <v>8993233</v>
       </c>
       <c r="C167" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="D167" s="285"/>
+        <v>267</v>
+      </c>
+      <c r="D167" s="287"/>
       <c r="E167" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F167" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G167" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H167" s="212"/>
       <c r="I167" s="217"/>
@@ -33423,17 +33423,17 @@
         <v>11578312</v>
       </c>
       <c r="C168" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="D168" s="285"/>
+        <v>268</v>
+      </c>
+      <c r="D168" s="287"/>
       <c r="E168" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F168" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G168" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H168" s="212"/>
       <c r="I168" s="217"/>
@@ -33446,17 +33446,17 @@
         <v>10954514</v>
       </c>
       <c r="C169" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="D169" s="285"/>
+        <v>269</v>
+      </c>
+      <c r="D169" s="287"/>
       <c r="E169" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F169" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G169" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H169" s="212"/>
       <c r="I169" s="217"/>
@@ -33469,17 +33469,17 @@
         <v>8895308</v>
       </c>
       <c r="C170" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D170" s="285"/>
+        <v>270</v>
+      </c>
+      <c r="D170" s="287"/>
       <c r="E170" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F170" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G170" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H170" s="212"/>
       <c r="I170" s="217"/>
@@ -33492,17 +33492,17 @@
         <v>8865406</v>
       </c>
       <c r="C171" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D171" s="285"/>
+        <v>270</v>
+      </c>
+      <c r="D171" s="287"/>
       <c r="E171" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F171" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G171" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H171" s="212"/>
       <c r="I171" s="217"/>
@@ -33515,17 +33515,17 @@
         <v>8889418</v>
       </c>
       <c r="C172" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D172" s="285"/>
+        <v>270</v>
+      </c>
+      <c r="D172" s="287"/>
       <c r="E172" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F172" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G172" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H172" s="212"/>
       <c r="I172" s="217"/>
@@ -33538,17 +33538,17 @@
         <v>8993223</v>
       </c>
       <c r="C173" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="D173" s="285"/>
+        <v>271</v>
+      </c>
+      <c r="D173" s="287"/>
       <c r="E173" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F173" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G173" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H173" s="212"/>
       <c r="I173" s="217"/>
@@ -33561,17 +33561,17 @@
         <v>8999641</v>
       </c>
       <c r="C174" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="D174" s="285"/>
+        <v>271</v>
+      </c>
+      <c r="D174" s="287"/>
       <c r="E174" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F174" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G174" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H174" s="212"/>
       <c r="I174" s="217"/>
@@ -33584,17 +33584,17 @@
         <v>8906616</v>
       </c>
       <c r="C175" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="D175" s="285"/>
+        <v>272</v>
+      </c>
+      <c r="D175" s="287"/>
       <c r="E175" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F175" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G175" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H175" s="212"/>
       <c r="I175" s="217"/>
@@ -33607,17 +33607,17 @@
         <v>11685917</v>
       </c>
       <c r="C176" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="D176" s="285"/>
+        <v>273</v>
+      </c>
+      <c r="D176" s="287"/>
       <c r="E176" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F176" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G176" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H176" s="212"/>
       <c r="I176" s="217"/>
@@ -33630,17 +33630,17 @@
         <v>10781444</v>
       </c>
       <c r="C177" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="D177" s="285"/>
+        <v>274</v>
+      </c>
+      <c r="D177" s="287"/>
       <c r="E177" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F177" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G177" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H177" s="212"/>
       <c r="I177" s="217"/>
@@ -33653,17 +33653,17 @@
         <v>11001829</v>
       </c>
       <c r="C178" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="D178" s="285"/>
+        <v>275</v>
+      </c>
+      <c r="D178" s="287"/>
       <c r="E178" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F178" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G178" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H178" s="212"/>
       <c r="I178" s="217"/>
@@ -33676,17 +33676,17 @@
         <v>11591601</v>
       </c>
       <c r="C179" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="D179" s="285"/>
+        <v>276</v>
+      </c>
+      <c r="D179" s="287"/>
       <c r="E179" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F179" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G179" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H179" s="212"/>
       <c r="I179" s="217"/>
@@ -33699,17 +33699,17 @@
         <v>11810649</v>
       </c>
       <c r="C180" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D180" s="285"/>
+        <v>277</v>
+      </c>
+      <c r="D180" s="287"/>
       <c r="E180" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F180" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G180" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H180" s="212"/>
       <c r="I180" s="217"/>
@@ -33722,17 +33722,17 @@
         <v>10930367</v>
       </c>
       <c r="C181" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="D181" s="285"/>
+        <v>278</v>
+      </c>
+      <c r="D181" s="287"/>
       <c r="E181" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F181" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G181" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H181" s="212"/>
       <c r="I181" s="217"/>
@@ -33745,17 +33745,17 @@
         <v>11898142</v>
       </c>
       <c r="C182" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="D182" s="285"/>
+        <v>279</v>
+      </c>
+      <c r="D182" s="287"/>
       <c r="E182" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F182" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G182" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H182" s="212"/>
       <c r="I182" s="217"/>
@@ -33768,17 +33768,17 @@
         <v>11739308</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D183" s="285"/>
+        <v>280</v>
+      </c>
+      <c r="D183" s="287"/>
       <c r="E183" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F183" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G183" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H183" s="212"/>
       <c r="I183" s="217"/>
@@ -33791,17 +33791,17 @@
         <v>10648020</v>
       </c>
       <c r="C184" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D184" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D184" s="287"/>
       <c r="E184" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F184" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G184" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H184" s="212"/>
       <c r="I184" s="217"/>
@@ -33814,17 +33814,17 @@
         <v>11180751</v>
       </c>
       <c r="C185" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D185" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D185" s="287"/>
       <c r="E185" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F185" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G185" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H185" s="212"/>
       <c r="I185" s="217"/>
@@ -33837,17 +33837,17 @@
         <v>9790490</v>
       </c>
       <c r="C186" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D186" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D186" s="287"/>
       <c r="E186" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F186" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G186" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H186" s="212"/>
       <c r="I186" s="217"/>
@@ -33860,17 +33860,17 @@
         <v>10669540</v>
       </c>
       <c r="C187" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D187" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D187" s="287"/>
       <c r="E187" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F187" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G187" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H187" s="212"/>
       <c r="I187" s="217"/>
@@ -33883,17 +33883,17 @@
         <v>11091798</v>
       </c>
       <c r="C188" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D188" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D188" s="287"/>
       <c r="E188" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F188" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G188" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H188" s="212"/>
       <c r="I188" s="217"/>
@@ -33906,17 +33906,17 @@
         <v>11781172</v>
       </c>
       <c r="C189" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D189" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D189" s="287"/>
       <c r="E189" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F189" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G189" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H189" s="212"/>
       <c r="I189" s="217"/>
@@ -33929,17 +33929,17 @@
         <v>11352647</v>
       </c>
       <c r="C190" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D190" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D190" s="287"/>
       <c r="E190" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F190" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G190" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H190" s="212"/>
       <c r="I190" s="217"/>
@@ -33952,17 +33952,17 @@
         <v>11773412</v>
       </c>
       <c r="C191" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D191" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D191" s="287"/>
       <c r="E191" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F191" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G191" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H191" s="212"/>
       <c r="I191" s="217"/>
@@ -33975,17 +33975,17 @@
         <v>11060115</v>
       </c>
       <c r="C192" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D192" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D192" s="287"/>
       <c r="E192" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F192" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G192" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H192" s="212"/>
       <c r="I192" s="217"/>
@@ -33998,17 +33998,17 @@
         <v>11421250</v>
       </c>
       <c r="C193" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D193" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D193" s="287"/>
       <c r="E193" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F193" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G193" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H193" s="212"/>
       <c r="I193" s="217"/>
@@ -34021,17 +34021,17 @@
         <v>11634755</v>
       </c>
       <c r="C194" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D194" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D194" s="287"/>
       <c r="E194" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F194" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G194" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H194" s="212"/>
       <c r="I194" s="217"/>
@@ -34044,17 +34044,17 @@
         <v>11773432</v>
       </c>
       <c r="C195" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D195" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D195" s="287"/>
       <c r="E195" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F195" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G195" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H195" s="212"/>
       <c r="I195" s="217"/>
@@ -34067,17 +34067,17 @@
         <v>11840711</v>
       </c>
       <c r="C196" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="D196" s="285"/>
+        <v>282</v>
+      </c>
+      <c r="D196" s="287"/>
       <c r="E196" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F196" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G196" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H196" s="212"/>
       <c r="I196" s="217"/>
@@ -34090,17 +34090,17 @@
         <v>11312937</v>
       </c>
       <c r="C197" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D197" s="285"/>
+        <v>283</v>
+      </c>
+      <c r="D197" s="287"/>
       <c r="E197" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F197" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G197" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H197" s="212"/>
       <c r="I197" s="217"/>
@@ -34113,17 +34113,17 @@
         <v>10801017</v>
       </c>
       <c r="C198" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D198" s="285"/>
+        <v>284</v>
+      </c>
+      <c r="D198" s="287"/>
       <c r="E198" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F198" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G198" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H198" s="212"/>
       <c r="I198" s="217"/>
@@ -34136,17 +34136,17 @@
         <v>8481309</v>
       </c>
       <c r="C199" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D199" s="285"/>
+        <v>284</v>
+      </c>
+      <c r="D199" s="287"/>
       <c r="E199" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F199" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G199" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H199" s="212"/>
       <c r="I199" s="217"/>
@@ -34159,17 +34159,17 @@
         <v>8614092</v>
       </c>
       <c r="C200" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D200" s="285"/>
+        <v>284</v>
+      </c>
+      <c r="D200" s="287"/>
       <c r="E200" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F200" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G200" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H200" s="212"/>
       <c r="I200" s="217"/>
@@ -34182,17 +34182,17 @@
         <v>8450107</v>
       </c>
       <c r="C201" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D201" s="285"/>
+        <v>284</v>
+      </c>
+      <c r="D201" s="287"/>
       <c r="E201" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F201" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G201" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H201" s="212"/>
       <c r="I201" s="217"/>
@@ -34205,17 +34205,17 @@
         <v>8507272</v>
       </c>
       <c r="C202" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D202" s="285"/>
+        <v>284</v>
+      </c>
+      <c r="D202" s="287"/>
       <c r="E202" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F202" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G202" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H202" s="212"/>
       <c r="I202" s="217"/>
@@ -34228,17 +34228,17 @@
         <v>10711285</v>
       </c>
       <c r="C203" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D203" s="285"/>
+        <v>285</v>
+      </c>
+      <c r="D203" s="287"/>
       <c r="E203" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F203" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G203" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H203" s="212"/>
       <c r="I203" s="217"/>
@@ -34251,17 +34251,17 @@
         <v>11597949</v>
       </c>
       <c r="C204" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D204" s="285"/>
+        <v>285</v>
+      </c>
+      <c r="D204" s="287"/>
       <c r="E204" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F204" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G204" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H204" s="212"/>
       <c r="I204" s="217"/>
@@ -34274,17 +34274,17 @@
         <v>10696986</v>
       </c>
       <c r="C205" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D205" s="285"/>
+        <v>286</v>
+      </c>
+      <c r="D205" s="287"/>
       <c r="E205" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F205" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G205" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H205" s="212"/>
       <c r="I205" s="217"/>
@@ -34297,17 +34297,17 @@
         <v>11624078</v>
       </c>
       <c r="C206" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D206" s="285"/>
+        <v>286</v>
+      </c>
+      <c r="D206" s="287"/>
       <c r="E206" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F206" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G206" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H206" s="212"/>
       <c r="I206" s="217"/>
@@ -34320,17 +34320,17 @@
         <v>11332719</v>
       </c>
       <c r="C207" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="D207" s="285"/>
+        <v>287</v>
+      </c>
+      <c r="D207" s="287"/>
       <c r="E207" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F207" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G207" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H207" s="212"/>
       <c r="I207" s="217"/>
@@ -34343,17 +34343,17 @@
         <v>10655173</v>
       </c>
       <c r="C208" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="D208" s="285"/>
+        <v>288</v>
+      </c>
+      <c r="D208" s="287"/>
       <c r="E208" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F208" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G208" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H208" s="212"/>
       <c r="I208" s="217"/>
@@ -34366,17 +34366,17 @@
         <v>10550372</v>
       </c>
       <c r="C209" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D209" s="285"/>
+        <v>289</v>
+      </c>
+      <c r="D209" s="287"/>
       <c r="E209" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F209" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G209" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H209" s="212"/>
       <c r="I209" s="217"/>
@@ -34389,17 +34389,17 @@
         <v>11597919</v>
       </c>
       <c r="C210" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D210" s="285"/>
+        <v>289</v>
+      </c>
+      <c r="D210" s="287"/>
       <c r="E210" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F210" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G210" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H210" s="212"/>
       <c r="I210" s="217"/>
@@ -34412,17 +34412,17 @@
         <v>11618896</v>
       </c>
       <c r="C211" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D211" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D211" s="287"/>
       <c r="E211" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F211" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G211" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H211" s="212"/>
       <c r="I211" s="217"/>
@@ -34435,17 +34435,17 @@
         <v>11866697</v>
       </c>
       <c r="C212" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D212" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D212" s="287"/>
       <c r="E212" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F212" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G212" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H212" s="212"/>
       <c r="I212" s="217"/>
@@ -34458,17 +34458,17 @@
         <v>11685916</v>
       </c>
       <c r="C213" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D213" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D213" s="287"/>
       <c r="E213" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F213" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G213" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H213" s="212"/>
       <c r="I213" s="217"/>
@@ -34481,17 +34481,17 @@
         <v>10530372</v>
       </c>
       <c r="C214" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D214" s="285"/>
+        <v>291</v>
+      </c>
+      <c r="D214" s="287"/>
       <c r="E214" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F214" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G214" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H214" s="212"/>
       <c r="I214" s="217"/>
@@ -34504,17 +34504,17 @@
         <v>11572543</v>
       </c>
       <c r="C215" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D215" s="285"/>
+        <v>292</v>
+      </c>
+      <c r="D215" s="287"/>
       <c r="E215" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F215" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G215" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H215" s="212"/>
       <c r="I215" s="217"/>
@@ -34527,17 +34527,17 @@
         <v>11788083</v>
       </c>
       <c r="C216" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D216" s="285"/>
+        <v>293</v>
+      </c>
+      <c r="D216" s="287"/>
       <c r="E216" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F216" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G216" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H216" s="212"/>
       <c r="I216" s="217"/>
@@ -34550,17 +34550,17 @@
         <v>10689691</v>
       </c>
       <c r="C217" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="D217" s="285"/>
+        <v>294</v>
+      </c>
+      <c r="D217" s="287"/>
       <c r="E217" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F217" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G217" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H217" s="212"/>
       <c r="I217" s="217"/>
@@ -34573,17 +34573,17 @@
         <v>11459557</v>
       </c>
       <c r="C218" s="110" t="s">
-        <v>296</v>
-      </c>
-      <c r="D218" s="286"/>
+        <v>295</v>
+      </c>
+      <c r="D218" s="288"/>
       <c r="E218" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F218" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G218" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H218" s="212"/>
       <c r="I218" s="217"/>
@@ -34596,19 +34596,19 @@
         <v>11685917</v>
       </c>
       <c r="C219" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="D219" s="284" t="s">
-        <v>297</v>
+        <v>273</v>
+      </c>
+      <c r="D219" s="286" t="s">
+        <v>296</v>
       </c>
       <c r="E219" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F219" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G219" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H219" s="212"/>
       <c r="I219" s="217"/>
@@ -34621,17 +34621,17 @@
         <v>11135230</v>
       </c>
       <c r="C220" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D220" s="285"/>
+        <v>297</v>
+      </c>
+      <c r="D220" s="287"/>
       <c r="E220" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F220" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G220" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H220" s="212"/>
       <c r="I220" s="217"/>
@@ -34644,17 +34644,17 @@
         <v>10930367</v>
       </c>
       <c r="C221" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="D221" s="285"/>
+        <v>278</v>
+      </c>
+      <c r="D221" s="287"/>
       <c r="E221" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F221" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G221" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H221" s="212"/>
       <c r="I221" s="217"/>
@@ -34667,17 +34667,17 @@
         <v>11421250</v>
       </c>
       <c r="C222" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D222" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D222" s="287"/>
       <c r="E222" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F222" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G222" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H222" s="212"/>
       <c r="I222" s="217"/>
@@ -34690,17 +34690,17 @@
         <v>11060115</v>
       </c>
       <c r="C223" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D223" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D223" s="287"/>
       <c r="E223" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F223" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G223" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H223" s="212"/>
       <c r="I223" s="217"/>
@@ -34713,17 +34713,17 @@
         <v>11773412</v>
       </c>
       <c r="C224" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D224" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D224" s="287"/>
       <c r="E224" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F224" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G224" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H224" s="212"/>
       <c r="I224" s="217"/>
@@ -34736,17 +34736,17 @@
         <v>11180751</v>
       </c>
       <c r="C225" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D225" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D225" s="287"/>
       <c r="E225" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F225" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G225" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H225" s="212"/>
       <c r="I225" s="217"/>
@@ -34759,17 +34759,17 @@
         <v>11572543</v>
       </c>
       <c r="C226" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D226" s="285"/>
+        <v>292</v>
+      </c>
+      <c r="D226" s="287"/>
       <c r="E226" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F226" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G226" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H226" s="212"/>
       <c r="I226" s="217"/>
@@ -34782,17 +34782,17 @@
         <v>11618881</v>
       </c>
       <c r="C227" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="D227" s="285"/>
+        <v>298</v>
+      </c>
+      <c r="D227" s="287"/>
       <c r="E227" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F227" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G227" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H227" s="212"/>
       <c r="I227" s="217"/>
@@ -34805,17 +34805,17 @@
         <v>10968426</v>
       </c>
       <c r="C228" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="D228" s="285"/>
+        <v>298</v>
+      </c>
+      <c r="D228" s="287"/>
       <c r="E228" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F228" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G228" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H228" s="212"/>
       <c r="I228" s="217"/>
@@ -34828,17 +34828,17 @@
         <v>11492591</v>
       </c>
       <c r="C229" s="110" t="s">
-        <v>299</v>
-      </c>
-      <c r="D229" s="286"/>
+        <v>298</v>
+      </c>
+      <c r="D229" s="288"/>
       <c r="E229" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F229" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G229" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H229" s="212"/>
       <c r="I229" s="217"/>
@@ -34851,19 +34851,19 @@
         <v>11339390</v>
       </c>
       <c r="C230" s="114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D230" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E230" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F230" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G230" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H230" s="212"/>
       <c r="I230" s="217"/>
@@ -34876,19 +34876,19 @@
         <v>11384344</v>
       </c>
       <c r="C231" s="112" t="s">
-        <v>239</v>
-      </c>
-      <c r="D231" s="284" t="s">
-        <v>301</v>
+        <v>238</v>
+      </c>
+      <c r="D231" s="286" t="s">
+        <v>300</v>
       </c>
       <c r="E231" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F231" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G231" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H231" s="212"/>
       <c r="I231" s="217"/>
@@ -34901,17 +34901,17 @@
         <v>10968257</v>
       </c>
       <c r="C232" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="D232" s="286"/>
+        <v>241</v>
+      </c>
+      <c r="D232" s="288"/>
       <c r="E232" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F232" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G232" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H232" s="212"/>
       <c r="I232" s="217"/>
@@ -34924,19 +34924,19 @@
         <v>11286478</v>
       </c>
       <c r="C233" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="D233" s="284" t="s">
-        <v>302</v>
+        <v>245</v>
+      </c>
+      <c r="D233" s="286" t="s">
+        <v>301</v>
       </c>
       <c r="E233" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F233" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G233" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H233" s="212"/>
       <c r="I233" s="217"/>
@@ -34949,17 +34949,17 @@
         <v>11453907</v>
       </c>
       <c r="C234" s="108" t="s">
-        <v>238</v>
-      </c>
-      <c r="D234" s="285"/>
+        <v>237</v>
+      </c>
+      <c r="D234" s="287"/>
       <c r="E234" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F234" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G234" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H234" s="212"/>
       <c r="I234" s="217"/>
@@ -34972,17 +34972,17 @@
         <v>11104937</v>
       </c>
       <c r="C235" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D235" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D235" s="287"/>
       <c r="E235" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F235" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G235" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H235" s="212"/>
       <c r="I235" s="217"/>
@@ -34995,17 +34995,17 @@
         <v>11174515</v>
       </c>
       <c r="C236" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D236" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D236" s="287"/>
       <c r="E236" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F236" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G236" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H236" s="212"/>
       <c r="I236" s="217"/>
@@ -35018,17 +35018,17 @@
         <v>11633732</v>
       </c>
       <c r="C237" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D237" s="285"/>
+        <v>246</v>
+      </c>
+      <c r="D237" s="287"/>
       <c r="E237" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F237" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G237" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H237" s="212"/>
       <c r="I237" s="217"/>
@@ -35041,17 +35041,17 @@
         <v>11618928</v>
       </c>
       <c r="C238" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D238" s="285"/>
+        <v>247</v>
+      </c>
+      <c r="D238" s="287"/>
       <c r="E238" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F238" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G238" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H238" s="212"/>
       <c r="I238" s="217"/>
@@ -35064,17 +35064,17 @@
         <v>10876100</v>
       </c>
       <c r="C239" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D239" s="285"/>
+        <v>248</v>
+      </c>
+      <c r="D239" s="287"/>
       <c r="E239" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F239" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G239" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H239" s="212"/>
       <c r="I239" s="217"/>
@@ -35087,17 +35087,17 @@
         <v>10266887</v>
       </c>
       <c r="C240" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D240" s="285"/>
+        <v>249</v>
+      </c>
+      <c r="D240" s="287"/>
       <c r="E240" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F240" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G240" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H240" s="212"/>
       <c r="I240" s="217"/>
@@ -35110,17 +35110,17 @@
         <v>10266886</v>
       </c>
       <c r="C241" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D241" s="285"/>
+        <v>249</v>
+      </c>
+      <c r="D241" s="287"/>
       <c r="E241" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F241" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G241" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H241" s="212"/>
       <c r="I241" s="217"/>
@@ -35133,17 +35133,17 @@
         <v>10494621</v>
       </c>
       <c r="C242" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="D242" s="285"/>
+        <v>250</v>
+      </c>
+      <c r="D242" s="287"/>
       <c r="E242" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F242" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G242" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H242" s="212"/>
       <c r="I242" s="217"/>
@@ -35156,17 +35156,17 @@
         <v>11384344</v>
       </c>
       <c r="C243" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="D243" s="285"/>
+        <v>238</v>
+      </c>
+      <c r="D243" s="287"/>
       <c r="E243" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F243" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G243" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H243" s="212"/>
       <c r="I243" s="217"/>
@@ -35179,17 +35179,17 @@
         <v>11021740</v>
       </c>
       <c r="C244" s="108" t="s">
-        <v>266</v>
-      </c>
-      <c r="D244" s="285"/>
+        <v>265</v>
+      </c>
+      <c r="D244" s="287"/>
       <c r="E244" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F244" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G244" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H244" s="212"/>
       <c r="I244" s="217"/>
@@ -35202,17 +35202,17 @@
         <v>10954514</v>
       </c>
       <c r="C245" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="D245" s="285"/>
+        <v>269</v>
+      </c>
+      <c r="D245" s="287"/>
       <c r="E245" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F245" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G245" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H245" s="212"/>
       <c r="I245" s="217"/>
@@ -35225,17 +35225,17 @@
         <v>11685917</v>
       </c>
       <c r="C246" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="D246" s="285"/>
+        <v>273</v>
+      </c>
+      <c r="D246" s="287"/>
       <c r="E246" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F246" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G246" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H246" s="212"/>
       <c r="I246" s="217"/>
@@ -35248,17 +35248,17 @@
         <v>11591601</v>
       </c>
       <c r="C247" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="D247" s="285"/>
+        <v>276</v>
+      </c>
+      <c r="D247" s="287"/>
       <c r="E247" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F247" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G247" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H247" s="212"/>
       <c r="I247" s="217"/>
@@ -35271,17 +35271,17 @@
         <v>11810649</v>
       </c>
       <c r="C248" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D248" s="285"/>
+        <v>277</v>
+      </c>
+      <c r="D248" s="287"/>
       <c r="E248" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F248" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G248" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H248" s="212"/>
       <c r="I248" s="217"/>
@@ -35294,17 +35294,17 @@
         <v>11898142</v>
       </c>
       <c r="C249" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="D249" s="285"/>
+        <v>279</v>
+      </c>
+      <c r="D249" s="287"/>
       <c r="E249" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F249" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G249" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H249" s="212"/>
       <c r="I249" s="217"/>
@@ -35317,17 +35317,17 @@
         <v>11739308</v>
       </c>
       <c r="C250" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D250" s="285"/>
+        <v>280</v>
+      </c>
+      <c r="D250" s="287"/>
       <c r="E250" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F250" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G250" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H250" s="212"/>
       <c r="I250" s="217"/>
@@ -35340,17 +35340,17 @@
         <v>11773412</v>
       </c>
       <c r="C251" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D251" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D251" s="287"/>
       <c r="E251" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F251" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G251" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H251" s="212"/>
       <c r="I251" s="217"/>
@@ -35363,17 +35363,17 @@
         <v>11060115</v>
       </c>
       <c r="C252" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D252" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D252" s="287"/>
       <c r="E252" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F252" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G252" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H252" s="212"/>
       <c r="I252" s="217"/>
@@ -35386,17 +35386,17 @@
         <v>11352647</v>
       </c>
       <c r="C253" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D253" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D253" s="287"/>
       <c r="E253" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F253" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G253" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H253" s="212"/>
       <c r="I253" s="217"/>
@@ -35409,17 +35409,17 @@
         <v>11421250</v>
       </c>
       <c r="C254" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D254" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D254" s="287"/>
       <c r="E254" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F254" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G254" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H254" s="212"/>
       <c r="I254" s="217"/>
@@ -35432,17 +35432,17 @@
         <v>11180751</v>
       </c>
       <c r="C255" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D255" s="285"/>
+        <v>281</v>
+      </c>
+      <c r="D255" s="287"/>
       <c r="E255" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F255" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G255" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H255" s="212"/>
       <c r="I255" s="217"/>
@@ -35455,17 +35455,17 @@
         <v>11639523</v>
       </c>
       <c r="C256" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="D256" s="285"/>
+        <v>239</v>
+      </c>
+      <c r="D256" s="287"/>
       <c r="E256" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F256" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G256" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H256" s="212"/>
       <c r="I256" s="217"/>
@@ -35478,17 +35478,17 @@
         <v>11840711</v>
       </c>
       <c r="C257" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="D257" s="285"/>
+        <v>282</v>
+      </c>
+      <c r="D257" s="287"/>
       <c r="E257" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F257" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G257" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H257" s="212"/>
       <c r="I257" s="217"/>
@@ -35501,17 +35501,17 @@
         <v>10696986</v>
       </c>
       <c r="C258" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D258" s="285"/>
+        <v>286</v>
+      </c>
+      <c r="D258" s="287"/>
       <c r="E258" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F258" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G258" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H258" s="212"/>
       <c r="I258" s="217"/>
@@ -35524,17 +35524,17 @@
         <v>11624078</v>
       </c>
       <c r="C259" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D259" s="285"/>
+        <v>286</v>
+      </c>
+      <c r="D259" s="287"/>
       <c r="E259" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F259" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G259" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H259" s="212"/>
       <c r="I259" s="217"/>
@@ -35547,17 +35547,17 @@
         <v>11851702</v>
       </c>
       <c r="C260" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D260" s="285"/>
+        <v>240</v>
+      </c>
+      <c r="D260" s="287"/>
       <c r="E260" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F260" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G260" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H260" s="212"/>
       <c r="I260" s="217"/>
@@ -35570,17 +35570,17 @@
         <v>11618896</v>
       </c>
       <c r="C261" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D261" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D261" s="287"/>
       <c r="E261" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F261" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G261" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H261" s="212"/>
       <c r="I261" s="217"/>
@@ -35593,17 +35593,17 @@
         <v>11685916</v>
       </c>
       <c r="C262" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D262" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D262" s="287"/>
       <c r="E262" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F262" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G262" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H262" s="212"/>
       <c r="I262" s="217"/>
@@ -35616,17 +35616,17 @@
         <v>11866697</v>
       </c>
       <c r="C263" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D263" s="285"/>
+        <v>290</v>
+      </c>
+      <c r="D263" s="287"/>
       <c r="E263" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F263" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G263" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H263" s="212"/>
       <c r="I263" s="217"/>
@@ -35639,17 +35639,17 @@
         <v>10968257</v>
       </c>
       <c r="C264" s="108" t="s">
-        <v>242</v>
-      </c>
-      <c r="D264" s="285"/>
+        <v>241</v>
+      </c>
+      <c r="D264" s="287"/>
       <c r="E264" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F264" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G264" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H264" s="212"/>
       <c r="I264" s="217"/>
@@ -35662,17 +35662,17 @@
         <v>11572543</v>
       </c>
       <c r="C265" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D265" s="285"/>
+        <v>292</v>
+      </c>
+      <c r="D265" s="287"/>
       <c r="E265" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F265" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G265" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H265" s="212"/>
       <c r="I265" s="217"/>
@@ -35685,17 +35685,17 @@
         <v>11788083</v>
       </c>
       <c r="C266" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D266" s="285"/>
+        <v>293</v>
+      </c>
+      <c r="D266" s="287"/>
       <c r="E266" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F266" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G266" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H266" s="212"/>
       <c r="I266" s="217"/>
@@ -35708,23 +35708,31 @@
         <v>10689691</v>
       </c>
       <c r="C267" s="110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D267" s="286"/>
+        <v>294</v>
+      </c>
+      <c r="D267" s="288"/>
       <c r="E267" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F267" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G267" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H267" s="212"/>
       <c r="I267" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D233:D267"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D122"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="D135:D218"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
@@ -35737,14 +35745,6 @@
     <mergeCell ref="D71:D82"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D233:D267"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D122"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="D135:D218"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://ppubs.uspto.gov/pubwebapp/external.html?q=(11492403).pn.&amp;db=USPAT&amp;type=ids" xr:uid="{1857059F-94EB-B943-9482-55315B0CB5CC}"/>
@@ -35783,10 +35783,10 @@
         <v>70</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="165" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="19" customHeight="1">
@@ -36275,31 +36275,31 @@
   <sheetData>
     <row r="1" spans="1:23" s="5" customFormat="1" ht="19">
       <c r="A1" s="146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="146" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="146" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="D1" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="146" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="146" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="146" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="146" t="s">
+      <c r="H1" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="I1" s="146" t="s">
         <v>346</v>
-      </c>
-      <c r="I1" s="146" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -36307,13 +36307,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="175" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="175" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="D2" s="175" t="s">
         <v>349</v>
-      </c>
-      <c r="D2" s="175" t="s">
-        <v>350</v>
       </c>
       <c r="E2" s="175">
         <v>2011</v>
@@ -36322,13 +36322,13 @@
         <v>2019</v>
       </c>
       <c r="G2" s="175" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="175" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="175" t="s">
+      <c r="I2" s="175" t="s">
         <v>352</v>
-      </c>
-      <c r="I2" s="175" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -36336,13 +36336,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="175" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="175" t="s">
         <v>354</v>
-      </c>
-      <c r="C3" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" s="175" t="s">
-        <v>355</v>
       </c>
       <c r="E3" s="175">
         <v>2010</v>
@@ -36351,13 +36351,13 @@
         <v>2020</v>
       </c>
       <c r="G3" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H3" s="175" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="175" t="s">
         <v>356</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -36365,13 +36365,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="175" t="s">
         <v>358</v>
-      </c>
-      <c r="C4" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="175" t="s">
-        <v>359</v>
       </c>
       <c r="E4" s="175">
         <v>2016</v>
@@ -36380,13 +36380,13 @@
         <v>2021</v>
       </c>
       <c r="G4" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H4" s="175" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="175" t="s">
         <v>360</v>
-      </c>
-      <c r="I4" s="175" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -36394,13 +36394,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="175" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="175" t="s">
         <v>362</v>
-      </c>
-      <c r="C5" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="175" t="s">
-        <v>363</v>
       </c>
       <c r="E5" s="175">
         <v>2015</v>
@@ -36409,13 +36409,13 @@
         <v>2019</v>
       </c>
       <c r="G5" s="175" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="175" t="s">
         <v>351</v>
       </c>
-      <c r="H5" s="175" t="s">
-        <v>352</v>
-      </c>
       <c r="I5" s="175" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -36423,13 +36423,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="175" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="175" t="s">
         <v>364</v>
-      </c>
-      <c r="C6" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="175" t="s">
-        <v>365</v>
       </c>
       <c r="E6" s="175">
         <v>2017</v>
@@ -36438,13 +36438,13 @@
         <v>2020</v>
       </c>
       <c r="G6" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H6" s="175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -36452,13 +36452,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="175" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="175" t="s">
         <v>450</v>
-      </c>
-      <c r="C7" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="175" t="s">
-        <v>451</v>
       </c>
       <c r="E7" s="175">
         <v>2019</v>
@@ -36467,13 +36467,13 @@
         <v>2021</v>
       </c>
       <c r="G7" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H7" s="175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -36481,13 +36481,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="175" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" s="175" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="175" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="175" t="s">
         <v>59</v>
@@ -36496,13 +36496,13 @@
         <v>2020</v>
       </c>
       <c r="G8" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H8" s="175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I8" s="175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="24">
@@ -36510,13 +36510,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="175" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="175" t="s">
         <v>453</v>
-      </c>
-      <c r="C9" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="175" t="s">
-        <v>454</v>
       </c>
       <c r="E9" s="175">
         <v>2020</v>
@@ -36525,13 +36525,13 @@
         <v>2021</v>
       </c>
       <c r="G9" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H9" s="175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P9" s="300"/>
       <c r="Q9" s="300"/>
@@ -36547,13 +36547,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="175" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="175" t="s">
         <v>455</v>
-      </c>
-      <c r="C10" s="175" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="175" t="s">
-        <v>456</v>
       </c>
       <c r="E10" s="175">
         <v>2014</v>
@@ -36562,13 +36562,13 @@
         <v>2019</v>
       </c>
       <c r="G10" s="175" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="175" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="175" t="s">
-        <v>352</v>
-      </c>
       <c r="I10" s="175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -36576,13 +36576,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="176" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="176" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="176" t="s">
         <v>367</v>
-      </c>
-      <c r="C11" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="176" t="s">
-        <v>368</v>
       </c>
       <c r="E11" s="176">
         <v>2020</v>
@@ -36591,13 +36591,13 @@
         <v>2021</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H11" s="176" t="s">
+        <v>359</v>
+      </c>
+      <c r="I11" s="176" t="s">
         <v>360</v>
-      </c>
-      <c r="I11" s="176" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -36605,13 +36605,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="176" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="176" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="176" t="s">
         <v>369</v>
-      </c>
-      <c r="C12" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="176" t="s">
-        <v>370</v>
       </c>
       <c r="E12" s="176">
         <v>2015</v>
@@ -36623,10 +36623,10 @@
         <v>2020</v>
       </c>
       <c r="H12" s="176" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="176" t="s">
         <v>371</v>
-      </c>
-      <c r="I12" s="176" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -36634,13 +36634,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="176" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="176" t="s">
         <v>373</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="176" t="s">
-        <v>374</v>
       </c>
       <c r="E13" s="176">
         <v>2015</v>
@@ -36649,13 +36649,13 @@
         <v>2018</v>
       </c>
       <c r="G13" s="176" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H13" s="176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -36663,13 +36663,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="176" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="176" t="s">
         <v>376</v>
-      </c>
-      <c r="C14" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="176" t="s">
-        <v>377</v>
       </c>
       <c r="E14" s="176">
         <v>2011</v>
@@ -36678,13 +36678,13 @@
         <v>2019</v>
       </c>
       <c r="G14" s="176" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="176" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="176" t="s">
-        <v>352</v>
-      </c>
       <c r="I14" s="176" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -36692,13 +36692,13 @@
         <v>67</v>
       </c>
       <c r="B15" s="176" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="176" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="176" t="s">
         <v>457</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="176" t="s">
-        <v>458</v>
       </c>
       <c r="E15" s="176">
         <v>2019</v>
@@ -36707,13 +36707,13 @@
         <v>2020</v>
       </c>
       <c r="G15" s="176" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H15" s="176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -36721,13 +36721,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="177" t="s">
         <v>362</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D16" s="177" t="s">
-        <v>363</v>
       </c>
       <c r="E16" s="177">
         <v>2015</v>
@@ -36736,13 +36736,13 @@
         <v>2015</v>
       </c>
       <c r="G16" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H16" s="177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36750,13 +36750,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="177" t="s">
         <v>380</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" s="177" t="s">
-        <v>381</v>
       </c>
       <c r="E17" s="177">
         <v>2012</v>
@@ -36765,13 +36765,13 @@
         <v>2012</v>
       </c>
       <c r="G17" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H17" s="177" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I17" s="177" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -36779,13 +36779,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D18" s="177" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="177">
         <v>2020</v>
@@ -36794,13 +36794,13 @@
         <v>2020</v>
       </c>
       <c r="G18" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H18" s="177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I18" s="177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -36808,13 +36808,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="177" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="177" t="s">
         <v>459</v>
-      </c>
-      <c r="C19" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="177" t="s">
-        <v>460</v>
       </c>
       <c r="E19" s="177">
         <v>2009</v>
@@ -36826,10 +36826,10 @@
         <v>2016</v>
       </c>
       <c r="H19" s="177" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I19" s="177" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -36837,13 +36837,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="177" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="177" t="s">
         <v>462</v>
-      </c>
-      <c r="C20" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D20" s="177" t="s">
-        <v>463</v>
       </c>
       <c r="E20" s="177">
         <v>2016</v>
@@ -36855,10 +36855,10 @@
         <v>2020</v>
       </c>
       <c r="H20" s="177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I20" s="177" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -36866,13 +36866,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="177" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="177" t="s">
         <v>465</v>
-      </c>
-      <c r="C21" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D21" s="177" t="s">
-        <v>466</v>
       </c>
       <c r="E21" s="177">
         <v>2018</v>
@@ -36881,13 +36881,13 @@
         <v>2018</v>
       </c>
       <c r="G21" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H21" s="177" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I21" s="177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -36895,13 +36895,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="177" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D22" s="177" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E22" s="177">
         <v>2021</v>
@@ -36910,13 +36910,13 @@
         <v>2021</v>
       </c>
       <c r="G22" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H22" s="177" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I22" s="177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -36924,13 +36924,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="177" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="177" t="s">
         <v>470</v>
-      </c>
-      <c r="C23" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D23" s="177" t="s">
-        <v>471</v>
       </c>
       <c r="E23" s="177">
         <v>2022</v>
@@ -36939,13 +36939,13 @@
         <v>2022</v>
       </c>
       <c r="G23" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H23" s="177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I23" s="177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -36953,13 +36953,13 @@
         <v>68</v>
       </c>
       <c r="B24" s="177" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="177" t="s">
         <v>472</v>
-      </c>
-      <c r="C24" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="177" t="s">
-        <v>473</v>
       </c>
       <c r="E24" s="177">
         <v>2020</v>
@@ -36968,13 +36968,13 @@
         <v>2020</v>
       </c>
       <c r="G24" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H24" s="177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I24" s="177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -36982,13 +36982,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="177" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="177" t="s">
         <v>474</v>
-      </c>
-      <c r="C25" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="D25" s="177" t="s">
-        <v>475</v>
       </c>
       <c r="E25" s="177">
         <v>2021</v>
@@ -36997,13 +36997,13 @@
         <v>2021</v>
       </c>
       <c r="G25" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H25" s="177" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" s="177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -37011,13 +37011,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="177" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="177" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="177" t="s">
         <v>384</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="177" t="s">
-        <v>385</v>
       </c>
       <c r="E26" s="177">
         <v>2012</v>
@@ -37026,13 +37026,13 @@
         <v>2018</v>
       </c>
       <c r="G26" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H26" s="177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I26" s="177" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -37040,13 +37040,13 @@
         <v>68</v>
       </c>
       <c r="B27" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="D27" s="177" t="s">
         <v>387</v>
-      </c>
-      <c r="D27" s="177" t="s">
-        <v>388</v>
       </c>
       <c r="E27" s="177" t="s">
         <v>59</v>
@@ -37055,13 +37055,13 @@
         <v>2021</v>
       </c>
       <c r="G27" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="177" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="177" t="s">
         <v>389</v>
-      </c>
-      <c r="I27" s="177" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -37069,13 +37069,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="C28" s="177" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="177" t="s">
         <v>391</v>
-      </c>
-      <c r="C28" s="177" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="177" t="s">
-        <v>392</v>
       </c>
       <c r="E28" s="177">
         <v>2014</v>
@@ -37084,13 +37084,13 @@
         <v>2019</v>
       </c>
       <c r="G28" s="177" t="s">
+        <v>350</v>
+      </c>
+      <c r="H28" s="177" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="177" t="s">
-        <v>352</v>
-      </c>
       <c r="I28" s="177" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -37098,13 +37098,13 @@
         <v>68</v>
       </c>
       <c r="B29" s="177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="177" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="177" t="s">
         <v>393</v>
-      </c>
-      <c r="C29" s="177" t="s">
-        <v>349</v>
-      </c>
-      <c r="D29" s="177" t="s">
-        <v>394</v>
       </c>
       <c r="E29" s="177">
         <v>2021</v>
@@ -37113,13 +37113,13 @@
         <v>2022</v>
       </c>
       <c r="G29" s="177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="177" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I29" s="177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -37127,13 +37127,13 @@
         <v>69</v>
       </c>
       <c r="B30" s="178" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="178" t="s">
         <v>396</v>
-      </c>
-      <c r="C30" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="178" t="s">
-        <v>397</v>
       </c>
       <c r="E30" s="178">
         <v>2013</v>
@@ -37145,10 +37145,10 @@
         <v>2018</v>
       </c>
       <c r="H30" s="178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I30" s="178" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -37156,13 +37156,13 @@
         <v>69</v>
       </c>
       <c r="B31" s="178" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="178" t="s">
         <v>399</v>
-      </c>
-      <c r="C31" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D31" s="178" t="s">
-        <v>400</v>
       </c>
       <c r="E31" s="178">
         <v>2017</v>
@@ -37171,13 +37171,13 @@
         <v>2017</v>
       </c>
       <c r="G31" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H31" s="178" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I31" s="178" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -37185,13 +37185,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="178" t="s">
         <v>402</v>
-      </c>
-      <c r="C32" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D32" s="178" t="s">
-        <v>403</v>
       </c>
       <c r="E32" s="178">
         <v>2016</v>
@@ -37200,13 +37200,13 @@
         <v>2016</v>
       </c>
       <c r="G32" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H32" s="178" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I32" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -37214,13 +37214,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33" s="178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" s="178">
         <v>2019</v>
@@ -37229,13 +37229,13 @@
         <v>2019</v>
       </c>
       <c r="G33" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H33" s="178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I33" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -37243,13 +37243,13 @@
         <v>69</v>
       </c>
       <c r="B34" s="178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C34" s="178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" s="178" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E34" s="178">
         <v>2022</v>
@@ -37258,13 +37258,13 @@
         <v>2022</v>
       </c>
       <c r="G34" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H34" s="178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I34" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -37272,13 +37272,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="178" t="s">
+        <v>476</v>
+      </c>
+      <c r="C35" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35" s="178" t="s">
         <v>477</v>
-      </c>
-      <c r="C35" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D35" s="178" t="s">
-        <v>478</v>
       </c>
       <c r="E35" s="178">
         <v>2023</v>
@@ -37287,13 +37287,13 @@
         <v>2023</v>
       </c>
       <c r="G35" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="178" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I35" s="178" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -37301,13 +37301,13 @@
         <v>69</v>
       </c>
       <c r="B36" s="178" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="178" t="s">
         <v>479</v>
-      </c>
-      <c r="C36" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D36" s="178" t="s">
-        <v>480</v>
       </c>
       <c r="E36" s="178">
         <v>2020</v>
@@ -37316,13 +37316,13 @@
         <v>2020</v>
       </c>
       <c r="G36" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H36" s="178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I36" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -37330,13 +37330,13 @@
         <v>69</v>
       </c>
       <c r="B37" s="178" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="178" t="s">
         <v>481</v>
-      </c>
-      <c r="C37" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="D37" s="178" t="s">
-        <v>482</v>
       </c>
       <c r="E37" s="178">
         <v>2018</v>
@@ -37348,10 +37348,10 @@
         <v>2022</v>
       </c>
       <c r="H37" s="178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I37" s="178" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -37359,13 +37359,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C38" s="178" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D38" s="178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="178">
         <v>2017</v>
@@ -37374,13 +37374,13 @@
         <v>2019</v>
       </c>
       <c r="G38" s="178" t="s">
+        <v>350</v>
+      </c>
+      <c r="H38" s="178" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="178" t="s">
-        <v>352</v>
-      </c>
       <c r="I38" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -37388,13 +37388,13 @@
         <v>69</v>
       </c>
       <c r="B39" s="178" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" s="178" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="178" t="s">
         <v>444</v>
-      </c>
-      <c r="C39" s="178" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" s="178" t="s">
-        <v>445</v>
       </c>
       <c r="E39" s="178">
         <v>2012</v>
@@ -37403,13 +37403,13 @@
         <v>2018</v>
       </c>
       <c r="G39" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H39" s="178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I39" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -37417,13 +37417,13 @@
         <v>69</v>
       </c>
       <c r="B40" s="178" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="178" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="178" t="s">
         <v>446</v>
-      </c>
-      <c r="C40" s="178" t="s">
-        <v>349</v>
-      </c>
-      <c r="D40" s="178" t="s">
-        <v>447</v>
       </c>
       <c r="E40" s="178">
         <v>2015</v>
@@ -37432,13 +37432,13 @@
         <v>2020</v>
       </c>
       <c r="G40" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H40" s="178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I40" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -37446,13 +37446,13 @@
         <v>69</v>
       </c>
       <c r="B41" s="178" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="178" t="s">
         <v>448</v>
-      </c>
-      <c r="C41" s="178" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="178" t="s">
-        <v>449</v>
       </c>
       <c r="E41" s="178">
         <v>2017</v>
@@ -37461,13 +37461,13 @@
         <v>2019</v>
       </c>
       <c r="G41" s="178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H41" s="178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I41" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="24">
@@ -37508,37 +37508,37 @@
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="145" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="145" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="D1" s="145" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="E1" s="145" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="F1" s="145" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="G1" s="145" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="H1" s="145" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="145" t="s">
+      <c r="I1" s="145" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="145" t="s">
+      <c r="J1" s="145" t="s">
         <v>413</v>
       </c>
-      <c r="J1" s="145" t="s">
-        <v>414</v>
-      </c>
       <c r="K1" s="145" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -37555,25 +37555,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="143" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="143" t="s">
         <v>431</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="143" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="143" t="s">
-        <v>416</v>
-      </c>
-      <c r="I2" s="143" t="s">
-        <v>432</v>
-      </c>
       <c r="J2" s="143" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K2" s="143" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -37590,25 +37590,25 @@
         <v>5</v>
       </c>
       <c r="E3" s="143" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F3" s="143" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="143" t="s">
         <v>418</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="H3" s="143" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="I3" s="143" t="s">
+        <v>416</v>
+      </c>
+      <c r="J3" s="143" t="s">
         <v>420</v>
       </c>
-      <c r="I3" s="143" t="s">
-        <v>417</v>
-      </c>
-      <c r="J3" s="143" t="s">
-        <v>421</v>
-      </c>
       <c r="K3" s="143" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -37625,25 +37625,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="143" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="143" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="143" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="143" t="s">
         <v>422</v>
-      </c>
-      <c r="F4" s="143" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="143" t="s">
-        <v>429</v>
-      </c>
-      <c r="H4" s="143" t="s">
-        <v>423</v>
       </c>
       <c r="I4" s="143" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K4" s="143" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -37660,25 +37660,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="143" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="143" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="143" t="s">
-        <v>436</v>
-      </c>
       <c r="G5" s="143" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="143" t="s">
         <v>424</v>
-      </c>
-      <c r="H5" s="143" t="s">
-        <v>425</v>
       </c>
       <c r="I5" s="143" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K5" s="143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
@@ -37745,14 +37745,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -37802,14 +37802,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="250" t="s">
+      <c r="I4" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="251"/>
-      <c r="K4" s="245" t="s">
+      <c r="J4" s="244"/>
+      <c r="K4" s="260" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="246"/>
+      <c r="L4" s="261"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -37841,10 +37841,10 @@
       <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="257" t="s">
+      <c r="I5" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="258"/>
+      <c r="J5" s="251"/>
       <c r="K5" s="41" t="s">
         <v>55</v>
       </c>
@@ -37875,13 +37875,13 @@
       <c r="E6" s="28"/>
       <c r="F6" s="35"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="248">
+      <c r="H6" s="241">
         <v>45809</v>
       </c>
-      <c r="I6" s="253">
+      <c r="I6" s="246">
         <v>1</v>
       </c>
-      <c r="J6" s="255">
+      <c r="J6" s="248">
         <v>30000</v>
       </c>
       <c r="K6" s="51">
@@ -37924,9 +37924,9 @@
       <c r="E7" s="28"/>
       <c r="F7" s="35"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="256"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="249"/>
       <c r="K7" s="51">
         <v>2</v>
       </c>
@@ -37937,7 +37937,7 @@
         <f>M6-L7</f>
         <v>-2552</v>
       </c>
-      <c r="N7" s="240">
+      <c r="N7" s="255">
         <f>SUM(M7:M14)</f>
         <v>-13945.200000000003</v>
       </c>
@@ -37987,7 +37987,7 @@
         <f t="shared" ref="M8:M14" si="0">J8-L8</f>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N8" s="241"/>
+      <c r="N8" s="256"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -38034,7 +38034,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N9" s="241"/>
+      <c r="N9" s="256"/>
       <c r="O9" s="3"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
@@ -38081,7 +38081,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N10" s="241"/>
+      <c r="N10" s="256"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -38128,7 +38128,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N11" s="241"/>
+      <c r="N11" s="256"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -38175,7 +38175,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N12" s="241"/>
+      <c r="N12" s="256"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -38222,7 +38222,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N13" s="241"/>
+      <c r="N13" s="256"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -38269,7 +38269,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N14" s="242"/>
+      <c r="N14" s="257"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -38410,13 +38410,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="243"/>
+      <c r="H18" s="258"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -38437,14 +38437,14 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="250" t="s">
+      <c r="I19" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="252"/>
-      <c r="K19" s="246" t="s">
+      <c r="J19" s="245"/>
+      <c r="K19" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="246"/>
+      <c r="L19" s="261"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -38472,10 +38472,10 @@
       <c r="H20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="257" t="s">
+      <c r="I20" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="259"/>
+      <c r="J20" s="252"/>
       <c r="K20" s="34" t="s">
         <v>55</v>
       </c>
@@ -38500,15 +38500,15 @@
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="E21" s="7"/>
-      <c r="F21" s="247"/>
+      <c r="F21" s="240"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="248">
+      <c r="H21" s="241">
         <v>45809</v>
       </c>
-      <c r="I21" s="253">
+      <c r="I21" s="246">
         <v>1</v>
       </c>
-      <c r="J21" s="260">
+      <c r="J21" s="253">
         <v>31000</v>
       </c>
       <c r="K21" s="37">
@@ -38539,11 +38539,11 @@
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="E22" s="7"/>
-      <c r="F22" s="247"/>
+      <c r="F22" s="240"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="261"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="37">
         <v>2</v>
       </c>
@@ -38554,7 +38554,7 @@
         <f>M21-L22</f>
         <v>-1552</v>
       </c>
-      <c r="N22" s="240">
+      <c r="N22" s="255">
         <f>SUM(M22:M29)</f>
         <v>-6984</v>
       </c>
@@ -38593,7 +38593,7 @@
         <f t="shared" ref="M23:M29" si="1">J23-L23</f>
         <v>-776</v>
       </c>
-      <c r="N23" s="241"/>
+      <c r="N23" s="256"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -38629,7 +38629,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N24" s="241"/>
+      <c r="N24" s="256"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -38665,7 +38665,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N25" s="241"/>
+      <c r="N25" s="256"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -38701,7 +38701,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N26" s="241"/>
+      <c r="N26" s="256"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -38737,7 +38737,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N27" s="241"/>
+      <c r="N27" s="256"/>
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="3"/>
@@ -38773,7 +38773,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N28" s="241"/>
+      <c r="N28" s="256"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -38809,7 +38809,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N29" s="242"/>
+      <c r="N29" s="257"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -65234,6 +65234,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="N7:N14"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H6:H7"/>
@@ -65245,12 +65251,6 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="N7:N14"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -65371,28 +65371,28 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -65501,7 +65501,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>768</v>
@@ -65563,19 +65563,19 @@
         <v>65</v>
       </c>
       <c r="D1" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="93" t="s">
+      <c r="G1" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>104</v>
-      </c>
       <c r="H1" s="99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -65589,16 +65589,16 @@
         <v>42551</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="95">
         <v>34691725</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
@@ -65612,10 +65612,10 @@
         <v>41121</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="95">
         <v>37062593</v>
@@ -65635,10 +65635,10 @@
         <v>40543</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="97">
         <v>47498460</v>
@@ -65649,7 +65649,7 @@
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -65658,10 +65658,10 @@
         <v>42004</v>
       </c>
       <c r="D5" s="237" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="237" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="95">
         <v>64508381</v>
@@ -65750,7 +65750,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="92"/>
     </row>
@@ -65765,7 +65765,7 @@
         <v>42551</v>
       </c>
       <c r="D2" s="179" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -65779,7 +65779,7 @@
         <v>41121</v>
       </c>
       <c r="D3" s="179" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -65793,12 +65793,12 @@
         <v>40543</v>
       </c>
       <c r="D4" s="179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32">
       <c r="A5" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -65807,7 +65807,7 @@
         <v>42004</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="71"/>
     </row>
@@ -65841,16 +65841,16 @@
         <v>70</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="233" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="233" t="s">
         <v>557</v>
       </c>
-      <c r="D1" s="233" t="s">
-        <v>558</v>
-      </c>
       <c r="E1" s="233" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -65860,16 +65860,16 @@
         <v>66</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="234">
         <v>2015</v>
       </c>
       <c r="D2" s="234" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="234" t="s">
         <v>485</v>
-      </c>
-      <c r="E2" s="234" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="91" customFormat="1" ht="30" customHeight="1">
@@ -65877,16 +65877,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" s="234">
         <v>2016</v>
       </c>
       <c r="D3" s="234" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" s="234" t="s">
         <v>488</v>
-      </c>
-      <c r="E3" s="234" t="s">
-        <v>489</v>
       </c>
       <c r="F3"/>
     </row>
@@ -65895,16 +65895,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="234" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="234">
         <v>2017</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4" s="234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -65912,13 +65912,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="234" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C5" s="234">
         <v>2021</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E5" s="234"/>
       <c r="F5" s="91"/>
@@ -65928,13 +65928,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="234" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="234">
         <v>2023</v>
       </c>
       <c r="D6" s="234" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E6" s="234"/>
     </row>
@@ -65943,16 +65943,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="234" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C7" s="234">
         <v>2017</v>
       </c>
       <c r="D7" s="234" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" s="234" t="s">
         <v>496</v>
-      </c>
-      <c r="E7" s="234" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -65960,16 +65960,16 @@
         <v>66</v>
       </c>
       <c r="B8" s="234" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="234">
         <v>2017</v>
       </c>
       <c r="D8" s="234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" s="234" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -65977,13 +65977,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="235" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C9" s="235">
         <v>2017</v>
       </c>
       <c r="D9" s="235" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E9" s="235"/>
     </row>
@@ -65992,13 +65992,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="235" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C10" s="235">
         <v>2017</v>
       </c>
       <c r="D10" s="235" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E10" s="235"/>
     </row>
@@ -66007,13 +66007,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="235" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C11" s="235">
         <v>2019</v>
       </c>
       <c r="D11" s="235" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="235"/>
     </row>
@@ -66022,16 +66022,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="235" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C12" s="235">
         <v>2022</v>
       </c>
       <c r="D12" s="235" t="s">
+        <v>503</v>
+      </c>
+      <c r="E12" s="235" t="s">
         <v>504</v>
-      </c>
-      <c r="E12" s="235" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -66039,16 +66039,16 @@
         <v>67</v>
       </c>
       <c r="B13" s="235" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" s="235">
         <v>2023</v>
       </c>
       <c r="D13" s="235" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="235" t="s">
         <v>507</v>
-      </c>
-      <c r="E13" s="235" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -66056,16 +66056,16 @@
         <v>67</v>
       </c>
       <c r="B14" s="235" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C14" s="235">
         <v>2024</v>
       </c>
       <c r="D14" s="235" t="s">
+        <v>509</v>
+      </c>
+      <c r="E14" s="235" t="s">
         <v>510</v>
-      </c>
-      <c r="E14" s="235" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -66073,16 +66073,16 @@
         <v>67</v>
       </c>
       <c r="B15" s="235" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C15" s="235">
         <v>2024</v>
       </c>
       <c r="D15" s="235" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="235" t="s">
         <v>513</v>
-      </c>
-      <c r="E15" s="235" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -66090,13 +66090,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="236" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C16" s="236">
         <v>2011</v>
       </c>
       <c r="D16" s="236" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="236"/>
     </row>
@@ -66105,13 +66105,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="236" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C17" s="236">
         <v>2011</v>
       </c>
       <c r="D17" s="236" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E17" s="236"/>
     </row>
@@ -66120,13 +66120,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="236" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="236">
         <v>2013</v>
       </c>
       <c r="D18" s="236" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E18" s="236"/>
     </row>
@@ -66135,16 +66135,16 @@
         <v>68</v>
       </c>
       <c r="B19" s="236" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" s="236">
         <v>2019</v>
       </c>
       <c r="D19" s="236" t="s">
+        <v>520</v>
+      </c>
+      <c r="E19" s="236" t="s">
         <v>521</v>
-      </c>
-      <c r="E19" s="236" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -66152,13 +66152,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="236" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C20" s="236">
         <v>2024</v>
       </c>
       <c r="D20" s="236" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E20" s="236"/>
     </row>
@@ -66167,13 +66167,13 @@
         <v>69</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C21" s="70">
         <v>2015</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E21" s="70"/>
     </row>
@@ -66182,13 +66182,13 @@
         <v>69</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C22" s="70">
         <v>2015</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E22" s="70"/>
     </row>
@@ -66197,13 +66197,13 @@
         <v>69</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C23" s="70">
         <v>2015</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E23" s="70"/>
     </row>
@@ -66212,16 +66212,16 @@
         <v>69</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C24" s="70">
         <v>2016</v>
       </c>
       <c r="D24" s="70" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="70" t="s">
         <v>531</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -66229,13 +66229,13 @@
         <v>69</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="70">
         <v>2016</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E25" s="70"/>
     </row>
@@ -66244,13 +66244,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" s="70">
         <v>2016</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E26" s="70"/>
     </row>
@@ -66259,13 +66259,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="70">
         <v>2016</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E27" s="70"/>
     </row>
@@ -66274,16 +66274,16 @@
         <v>69</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="70">
         <v>2017</v>
       </c>
       <c r="D28" s="70" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>540</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -66291,13 +66291,13 @@
         <v>69</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C29" s="70">
         <v>2017</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E29" s="70"/>
     </row>
@@ -66306,16 +66306,16 @@
         <v>69</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C30" s="70">
         <v>2018</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -66323,16 +66323,16 @@
         <v>69</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C31" s="70">
         <v>2018</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -66340,13 +66340,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="70" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C32" s="70">
         <v>2018</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E32" s="70"/>
     </row>
@@ -66355,13 +66355,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C33" s="70">
         <v>2018</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E33" s="70"/>
     </row>
@@ -66370,13 +66370,13 @@
         <v>69</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C34" s="70">
         <v>2021</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E34" s="70"/>
     </row>
@@ -66385,16 +66385,16 @@
         <v>69</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C35" s="70">
         <v>2025</v>
       </c>
       <c r="D35" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="E35" s="70" t="s">
         <v>555</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -66410,7 +66410,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -66450,22 +66450,22 @@
         <v>87</v>
       </c>
       <c r="G1" s="79" t="s">
+        <v>558</v>
+      </c>
+      <c r="H1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="I1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="J1" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="169" t="s">
-        <v>91</v>
-      </c>
       <c r="K1" s="180" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="181" t="s">
         <v>118</v>
-      </c>
-      <c r="L1" s="181" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16">
@@ -66587,7 +66587,7 @@
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1">
       <c r="A5" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -67072,25 +67072,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="116" customFormat="1" ht="19">
       <c r="A1" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="C1" s="196" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="D1" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="196" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="196" t="s">
-        <v>307</v>
-      </c>
       <c r="F1" s="126" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="196" t="s">
         <v>327</v>
-      </c>
-      <c r="G1" s="196" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="119" customFormat="1" ht="16">
@@ -67098,10 +67098,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="197" t="s">
         <v>308</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>309</v>
       </c>
       <c r="D2" s="186">
         <v>50</v>
@@ -67123,10 +67123,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="197" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="197" t="s">
-        <v>311</v>
       </c>
       <c r="D3" s="186">
         <v>50.3</v>
@@ -67142,10 +67142,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="186">
         <v>50</v>
@@ -67161,10 +67161,10 @@
         <v>66</v>
       </c>
       <c r="B5" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="197" t="s">
         <v>313</v>
-      </c>
-      <c r="C5" s="197" t="s">
-        <v>314</v>
       </c>
       <c r="D5" s="186">
         <v>64.8</v>
@@ -67180,10 +67180,10 @@
         <v>66</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="198" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="187">
         <v>50</v>
@@ -67199,10 +67199,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="199" t="s">
         <v>308</v>
-      </c>
-      <c r="C7" s="199" t="s">
-        <v>309</v>
       </c>
       <c r="D7" s="188">
         <v>50</v>
@@ -67224,10 +67224,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="200" t="s">
         <v>310</v>
-      </c>
-      <c r="C8" s="200" t="s">
-        <v>311</v>
       </c>
       <c r="D8" s="189">
         <v>50.3</v>
@@ -67243,10 +67243,10 @@
         <v>67</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="189">
         <v>50</v>
@@ -67262,10 +67262,10 @@
         <v>67</v>
       </c>
       <c r="B10" s="121" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="200" t="s">
         <v>313</v>
-      </c>
-      <c r="C10" s="200" t="s">
-        <v>314</v>
       </c>
       <c r="D10" s="189">
         <v>64.8</v>
@@ -67281,10 +67281,10 @@
         <v>67</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="201" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D11" s="190">
         <v>50</v>
@@ -67300,10 +67300,10 @@
         <v>68</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" s="202" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="191">
         <v>50.3</v>
@@ -67325,10 +67325,10 @@
         <v>68</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13" s="192">
         <v>64.8</v>
@@ -67344,10 +67344,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="203" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D14" s="192">
         <v>50.3</v>
@@ -67363,10 +67363,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C15" s="203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="192">
         <v>64.8</v>
@@ -67382,10 +67382,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="134" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="204" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" s="193">
         <v>50.3</v>
@@ -67401,10 +67401,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="205" t="s">
         <v>316</v>
-      </c>
-      <c r="C17" s="205" t="s">
-        <v>317</v>
       </c>
       <c r="D17" s="194">
         <v>63.7</v>
@@ -67426,10 +67426,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" s="195">
         <v>63.7</v>
@@ -67445,10 +67445,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19" s="195">
         <v>50.3</v>
@@ -67464,10 +67464,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20" s="206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D20" s="195">
         <v>50.3</v>
@@ -67483,10 +67483,10 @@
         <v>69</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21" s="207" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="208">
         <v>50.3</v>

--- a/assets/damon_runyon_data_CLEAN.xlsx
+++ b/assets/damon_runyon_data_CLEAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/dashboard_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9841FED-F404-2A48-886D-B836971B57F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD24657-8246-A74D-AF4A-95F43BA3DE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="26760" activeTab="7" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="26760" firstSheet="2" activeTab="12" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="548">
   <si>
     <t>Real time data access</t>
   </si>
@@ -334,15 +334,6 @@
     <t>Weighted RCR</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean RCR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pubs Per Year </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Cites per Year </t>
-  </si>
-  <si>
     <t>Avg APT</t>
   </si>
   <si>
@@ -431,12 +422,6 @@
   </si>
   <si>
     <t>% of pubs in Top 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Factor </t>
   </si>
   <si>
     <t>Patent #</t>
@@ -981,9 +966,6 @@
   </si>
   <si>
     <t>R01MH110049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Patent Count </t>
   </si>
   <si>
     <t>Scientist</t>
@@ -1532,22 +1514,13 @@
     <t>American Society of Hematology</t>
   </si>
   <si>
-    <t>Outstanding Achievement</t>
-  </si>
-  <si>
     <t>Pershing Square Sohn Prize</t>
   </si>
   <si>
     <t>Pershing Square Sohn Cancer Research Alliance</t>
   </si>
   <si>
-    <t>Young Investigator</t>
-  </si>
-  <si>
     <t>Seldin-Smith Award</t>
-  </si>
-  <si>
-    <t>Pioneering Research</t>
   </si>
   <si>
     <t>CDP Achievement Award</t>
@@ -1589,16 +1562,10 @@
     <t>IWCLL</t>
   </si>
   <si>
-    <t>Chronic Lymphocytic Leukemia</t>
-  </si>
-  <si>
     <t>Fellow</t>
   </si>
   <si>
     <t>American Association for Cancer Research</t>
-  </si>
-  <si>
-    <t>Elected Fellow</t>
   </si>
   <si>
     <t>Sj√∂berg Prize</t>
@@ -1607,16 +1574,10 @@
     <t>Royal Swedish Academy</t>
   </si>
   <si>
-    <t>Cancer Vaccine Research</t>
-  </si>
-  <si>
     <t>Board of Directors</t>
   </si>
   <si>
     <t>AACR</t>
-  </si>
-  <si>
-    <t>Elected Position</t>
   </si>
   <si>
     <t>Outstanding Achievement Award</t>
@@ -1638,9 +1599,6 @@
   </si>
   <si>
     <t>Memorial Sloan Kettering</t>
-  </si>
-  <si>
-    <t>Cancer Research</t>
   </si>
   <si>
     <t>AACR Chemistry in Cancer Research Award</t>
@@ -1670,9 +1628,6 @@
     <t>Tang Foundation</t>
   </si>
   <si>
-    <t>Biopharmaceutical Science</t>
-  </si>
-  <si>
     <t>Gairdner International Award</t>
   </si>
   <si>
@@ -1695,9 +1650,6 @@
   </si>
   <si>
     <t>MIT</t>
-  </si>
-  <si>
-    <t>Innovation</t>
   </si>
   <si>
     <t>Albany Medical Center Prize</t>
@@ -1742,9 +1694,6 @@
     <t>United States Government</t>
   </si>
   <si>
-    <t>Highest U.S. tech honor</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1752,6 +1701,24 @@
   </si>
   <si>
     <t>Total Pubs</t>
+  </si>
+  <si>
+    <t>Mean RCR</t>
+  </si>
+  <si>
+    <t>Pubs Per Year</t>
+  </si>
+  <si>
+    <t>Mean Cites per Year</t>
+  </si>
+  <si>
+    <t>Impact Factor</t>
+  </si>
+  <si>
+    <t>Core Patent Count</t>
+  </si>
+  <si>
+    <t>Total Patent Count</t>
   </si>
 </sst>
 </file>
@@ -3283,6 +3250,27 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3326,27 +3314,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,12 +3382,6 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3428,6 +3389,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3439,15 +3421,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3455,12 +3428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29101,7 +29068,7 @@
   <dimension ref="A1:AL267"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -29119,28 +29086,28 @@
   <sheetData>
     <row r="1" spans="1:38" s="147" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="220" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="163" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="D1" s="162" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E1" s="173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F1" s="173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G1" s="173" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H1" s="210" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I1" s="215"/>
     </row>
@@ -29152,22 +29119,22 @@
         <v>5843642</v>
       </c>
       <c r="C2" s="161" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="289" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="D2" s="294" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F2" s="174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G2" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H2" s="211" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I2" s="216"/>
     </row>
@@ -29179,27 +29146,27 @@
         <v>10251922</v>
       </c>
       <c r="C3" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="290"/>
+        <v>118</v>
+      </c>
+      <c r="D3" s="295"/>
       <c r="E3" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F3" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="174" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="211" t="s">
         <v>332</v>
-      </c>
-      <c r="H3" s="211" t="s">
-        <v>338</v>
       </c>
       <c r="I3" s="217"/>
       <c r="J3"/>
-      <c r="K3" s="284" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="284"/>
+      <c r="K3" s="292" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" s="292"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -29232,30 +29199,30 @@
         <v>11220545</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="297" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="D4" s="299" t="s">
+        <v>120</v>
       </c>
       <c r="E4" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H4" s="212"/>
       <c r="I4" s="217"/>
       <c r="J4" s="158" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K4" s="159" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L4" s="159" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" customHeight="1">
@@ -29266,25 +29233,25 @@
         <v>11357742</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="295"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="297"/>
       <c r="E5" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F5" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H5" s="212"/>
       <c r="I5" s="217"/>
-      <c r="J5" s="285">
+      <c r="J5" s="293">
         <v>1</v>
       </c>
-      <c r="K5" s="285" t="s">
-        <v>124</v>
+      <c r="K5" s="293" t="s">
+        <v>119</v>
       </c>
       <c r="L5" s="102">
         <v>5843642</v>
@@ -29298,22 +29265,22 @@
         <v>11492403</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="295"/>
+        <v>123</v>
+      </c>
+      <c r="D6" s="297"/>
       <c r="E6" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F6" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H6" s="212"/>
       <c r="I6" s="217"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
       <c r="L6" s="102">
         <v>10251922</v>
       </c>
@@ -29326,17 +29293,17 @@
         <v>11852631</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="295"/>
+        <v>124</v>
+      </c>
+      <c r="D7" s="297"/>
       <c r="E7" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F7" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H7" s="213"/>
       <c r="I7" s="218"/>
@@ -29352,19 +29319,19 @@
         <v>11814687</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="295" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="D8" s="297" t="s">
+        <v>125</v>
       </c>
       <c r="E8" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F8" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H8" s="213"/>
       <c r="I8" s="218"/>
@@ -29380,17 +29347,17 @@
         <v>11452768</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="295"/>
+        <v>127</v>
+      </c>
+      <c r="D9" s="297"/>
       <c r="E9" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F9" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H9" s="213"/>
       <c r="I9" s="218"/>
@@ -29406,17 +29373,17 @@
         <v>11725237</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="295"/>
+        <v>128</v>
+      </c>
+      <c r="D10" s="297"/>
       <c r="E10" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F10" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H10" s="213"/>
       <c r="I10" s="218"/>
@@ -29432,17 +29399,17 @@
         <v>10993997</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="296"/>
+        <v>129</v>
+      </c>
+      <c r="D11" s="298"/>
       <c r="E11" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F11" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H11" s="212"/>
       <c r="I11" s="217"/>
@@ -29484,19 +29451,19 @@
         <v>11161842</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="291" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="D12" s="296" t="s">
+        <v>131</v>
       </c>
       <c r="E12" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F12" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H12" s="212"/>
       <c r="I12" s="217"/>
@@ -29509,17 +29476,17 @@
         <v>10836722</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="292"/>
+        <v>133</v>
+      </c>
+      <c r="D13" s="289"/>
       <c r="E13" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F13" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H13" s="212"/>
       <c r="I13" s="217"/>
@@ -29532,17 +29499,17 @@
         <v>10450310</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="292"/>
+        <v>134</v>
+      </c>
+      <c r="D14" s="289"/>
       <c r="E14" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F14" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H14" s="212"/>
       <c r="I14" s="217"/>
@@ -29555,17 +29522,17 @@
         <v>11186574</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="292"/>
+        <v>135</v>
+      </c>
+      <c r="D15" s="289"/>
       <c r="E15" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F15" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H15" s="212"/>
       <c r="I15" s="217"/>
@@ -29578,17 +29545,17 @@
         <v>11945816</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="292"/>
+        <v>135</v>
+      </c>
+      <c r="D16" s="289"/>
       <c r="E16" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F16" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H16" s="212"/>
       <c r="I16" s="217"/>
@@ -29601,17 +29568,17 @@
         <v>10385019</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="292"/>
+        <v>136</v>
+      </c>
+      <c r="D17" s="289"/>
       <c r="E17" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F17" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H17" s="212"/>
       <c r="I17" s="217"/>
@@ -29624,17 +29591,17 @@
         <v>10266517</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="292"/>
+        <v>137</v>
+      </c>
+      <c r="D18" s="289"/>
       <c r="E18" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F18" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H18" s="212"/>
       <c r="I18" s="217"/>
@@ -29647,17 +29614,17 @@
         <v>10870636</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="292"/>
+        <v>137</v>
+      </c>
+      <c r="D19" s="289"/>
       <c r="E19" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F19" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H19" s="212"/>
       <c r="I19" s="217"/>
@@ -29670,17 +29637,17 @@
         <v>11873486</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="292"/>
+        <v>138</v>
+      </c>
+      <c r="D20" s="289"/>
       <c r="E20" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F20" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H20" s="212"/>
       <c r="I20" s="217"/>
@@ -29693,17 +29660,17 @@
         <v>11673882</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="292"/>
+        <v>139</v>
+      </c>
+      <c r="D21" s="289"/>
       <c r="E21" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F21" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H21" s="213"/>
       <c r="I21" s="218"/>
@@ -29719,17 +29686,17 @@
         <v>10550112</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="292"/>
+        <v>139</v>
+      </c>
+      <c r="D22" s="289"/>
       <c r="E22" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F22" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H22" s="212"/>
       <c r="I22" s="217"/>
@@ -29742,17 +29709,17 @@
         <v>11624093</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="293"/>
+        <v>140</v>
+      </c>
+      <c r="D23" s="288"/>
       <c r="E23" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F23" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H23" s="212"/>
       <c r="I23" s="217"/>
@@ -29794,19 +29761,19 @@
         <v>5502214</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="294" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D24" s="287" t="s">
+        <v>141</v>
       </c>
       <c r="E24" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F24" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H24" s="212"/>
       <c r="I24" s="217"/>
@@ -29819,17 +29786,17 @@
         <v>10190160</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="292"/>
+        <v>143</v>
+      </c>
+      <c r="D25" s="289"/>
       <c r="E25" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F25" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H25" s="212"/>
       <c r="I25" s="217"/>
@@ -29842,17 +29809,17 @@
         <v>11299782</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="292"/>
+        <v>143</v>
+      </c>
+      <c r="D26" s="289"/>
       <c r="E26" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F26" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H26" s="213"/>
       <c r="I26" s="218"/>
@@ -29868,17 +29835,17 @@
         <v>7396678</v>
       </c>
       <c r="C27" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="292"/>
+        <v>144</v>
+      </c>
+      <c r="D27" s="289"/>
       <c r="E27" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F27" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H27" s="212"/>
       <c r="I27" s="217"/>
@@ -29891,17 +29858,17 @@
         <v>4542225</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="292"/>
+        <v>145</v>
+      </c>
+      <c r="D28" s="289"/>
       <c r="E28" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F28" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H28" s="212"/>
       <c r="I28" s="217"/>
@@ -29914,17 +29881,17 @@
         <v>4618492</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="292"/>
+        <v>145</v>
+      </c>
+      <c r="D29" s="289"/>
       <c r="E29" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F29" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H29" s="212"/>
       <c r="I29" s="217"/>
@@ -29937,17 +29904,17 @@
         <v>5360803</v>
       </c>
       <c r="C30" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="292"/>
+        <v>146</v>
+      </c>
+      <c r="D30" s="289"/>
       <c r="E30" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F30" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H30" s="212"/>
       <c r="I30" s="217"/>
@@ -29960,17 +29927,17 @@
         <v>5618831</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="292"/>
+        <v>147</v>
+      </c>
+      <c r="D31" s="289"/>
       <c r="E31" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F31" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H31" s="213"/>
       <c r="I31" s="219"/>
@@ -29983,17 +29950,17 @@
         <v>5670530</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="292"/>
+        <v>147</v>
+      </c>
+      <c r="D32" s="289"/>
       <c r="E32" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F32" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H32" s="213"/>
       <c r="I32" s="219"/>
@@ -30006,17 +29973,17 @@
         <v>5861424</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="292"/>
+        <v>147</v>
+      </c>
+      <c r="D33" s="289"/>
       <c r="E33" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F33" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H33" s="213"/>
       <c r="I33" s="219"/>
@@ -30029,17 +29996,17 @@
         <v>7786269</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="292"/>
+        <v>148</v>
+      </c>
+      <c r="D34" s="289"/>
       <c r="E34" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F34" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H34" s="212"/>
       <c r="I34" s="217"/>
@@ -30052,17 +30019,17 @@
         <v>11421032</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="292"/>
+        <v>149</v>
+      </c>
+      <c r="D35" s="289"/>
       <c r="E35" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F35" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H35" s="212"/>
       <c r="I35" s="217"/>
@@ -30075,17 +30042,17 @@
         <v>4625014</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="292"/>
+        <v>150</v>
+      </c>
+      <c r="D36" s="289"/>
       <c r="E36" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F36" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H36" s="212"/>
       <c r="I36" s="217"/>
@@ -30098,17 +30065,17 @@
         <v>6908617</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="292"/>
+        <v>151</v>
+      </c>
+      <c r="D37" s="289"/>
       <c r="E37" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F37" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H37" s="212"/>
       <c r="I37" s="217"/>
@@ -30121,17 +30088,17 @@
         <v>11040957</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="292"/>
+        <v>152</v>
+      </c>
+      <c r="D38" s="289"/>
       <c r="E38" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F38" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H38" s="212"/>
       <c r="I38" s="217"/>
@@ -30144,17 +30111,17 @@
         <v>6479281</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="292"/>
+        <v>153</v>
+      </c>
+      <c r="D39" s="289"/>
       <c r="E39" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F39" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H39" s="212"/>
       <c r="I39" s="217"/>
@@ -30167,17 +30134,17 @@
         <v>10047070</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="292"/>
+        <v>154</v>
+      </c>
+      <c r="D40" s="289"/>
       <c r="E40" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F40" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H40" s="212"/>
       <c r="I40" s="217"/>
@@ -30190,17 +30157,17 @@
         <v>10906889</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="292"/>
+        <v>154</v>
+      </c>
+      <c r="D41" s="289"/>
       <c r="E41" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F41" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H41" s="212"/>
       <c r="I41" s="217"/>
@@ -30213,17 +30180,17 @@
         <v>10577662</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="292"/>
+        <v>155</v>
+      </c>
+      <c r="D42" s="289"/>
       <c r="E42" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F42" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H42" s="212"/>
       <c r="I42" s="217"/>
@@ -30236,17 +30203,17 @@
         <v>7229755</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="292"/>
+        <v>156</v>
+      </c>
+      <c r="D43" s="289"/>
       <c r="E43" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F43" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H43" s="212"/>
       <c r="I43" s="217"/>
@@ -30259,17 +30226,17 @@
         <v>6479284</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="292"/>
+        <v>157</v>
+      </c>
+      <c r="D44" s="289"/>
       <c r="E44" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F44" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H44" s="212"/>
       <c r="I44" s="217"/>
@@ -30282,17 +30249,17 @@
         <v>9512485</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="292"/>
+        <v>158</v>
+      </c>
+      <c r="D45" s="289"/>
       <c r="E45" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F45" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H45" s="212"/>
       <c r="I45" s="217"/>
@@ -30305,17 +30272,17 @@
         <v>4035566</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="292"/>
+        <v>159</v>
+      </c>
+      <c r="D46" s="289"/>
       <c r="E46" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F46" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G46" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H46" s="212"/>
       <c r="I46" s="217"/>
@@ -30328,17 +30295,17 @@
         <v>7048929</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="292"/>
+        <v>160</v>
+      </c>
+      <c r="D47" s="289"/>
       <c r="E47" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F47" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H47" s="212"/>
       <c r="I47" s="217"/>
@@ -30351,17 +30318,17 @@
         <v>10738300</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="292"/>
+        <v>161</v>
+      </c>
+      <c r="D48" s="289"/>
       <c r="E48" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F48" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G48" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H48" s="212"/>
       <c r="I48" s="217"/>
@@ -30374,17 +30341,17 @@
         <v>10801021</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="292"/>
+        <v>161</v>
+      </c>
+      <c r="D49" s="289"/>
       <c r="E49" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F49" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G49" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H49" s="212"/>
       <c r="I49" s="217"/>
@@ -30397,17 +30364,17 @@
         <v>10039844</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="293"/>
+        <v>162</v>
+      </c>
+      <c r="D50" s="288"/>
       <c r="E50" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F50" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G50" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H50" s="212"/>
       <c r="I50" s="217"/>
@@ -30449,19 +30416,19 @@
         <v>10150742</v>
       </c>
       <c r="C51" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="292" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="D51" s="289" t="s">
+        <v>163</v>
       </c>
       <c r="E51" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F51" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H51" s="212"/>
       <c r="I51" s="217"/>
@@ -30474,17 +30441,17 @@
         <v>10633348</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="292"/>
+        <v>165</v>
+      </c>
+      <c r="D52" s="289"/>
       <c r="E52" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F52" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G52" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H52" s="212"/>
       <c r="I52" s="217"/>
@@ -30497,17 +30464,17 @@
         <v>9505784</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="292"/>
+        <v>166</v>
+      </c>
+      <c r="D53" s="289"/>
       <c r="E53" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F53" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G53" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H53" s="212"/>
       <c r="I53" s="217"/>
@@ -30520,17 +30487,17 @@
         <v>8765747</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="292"/>
+        <v>167</v>
+      </c>
+      <c r="D54" s="289"/>
       <c r="E54" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F54" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H54" s="212"/>
       <c r="I54" s="217"/>
@@ -30543,17 +30510,17 @@
         <v>11040957</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="292"/>
+        <v>152</v>
+      </c>
+      <c r="D55" s="289"/>
       <c r="E55" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F55" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H55" s="212"/>
       <c r="I55" s="217"/>
@@ -30566,17 +30533,17 @@
         <v>10047070</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="292"/>
+        <v>154</v>
+      </c>
+      <c r="D56" s="289"/>
       <c r="E56" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F56" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H56" s="212"/>
       <c r="I56" s="217"/>
@@ -30589,17 +30556,17 @@
         <v>10906889</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="292"/>
+        <v>154</v>
+      </c>
+      <c r="D57" s="289"/>
       <c r="E57" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F57" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G57" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H57" s="212"/>
       <c r="I57" s="217"/>
@@ -30612,17 +30579,17 @@
         <v>10316002</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="292"/>
+        <v>168</v>
+      </c>
+      <c r="D58" s="289"/>
       <c r="E58" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F58" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G58" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H58" s="212"/>
       <c r="I58" s="217"/>
@@ -30635,17 +30602,17 @@
         <v>10906878</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="292"/>
+        <v>169</v>
+      </c>
+      <c r="D59" s="289"/>
       <c r="E59" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F59" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G59" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H59" s="212"/>
       <c r="I59" s="217"/>
@@ -30658,17 +30625,17 @@
         <v>9783504</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="292"/>
+        <v>170</v>
+      </c>
+      <c r="D60" s="289"/>
       <c r="E60" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F60" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G60" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H60" s="212"/>
       <c r="I60" s="217"/>
@@ -30681,17 +30648,17 @@
         <v>9856223</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="292"/>
+        <v>171</v>
+      </c>
+      <c r="D61" s="289"/>
       <c r="E61" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F61" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G61" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H61" s="212"/>
       <c r="I61" s="217"/>
@@ -30704,17 +30671,17 @@
         <v>9180127</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="292"/>
+        <v>172</v>
+      </c>
+      <c r="D62" s="289"/>
       <c r="E62" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F62" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G62" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H62" s="212"/>
       <c r="I62" s="217"/>
@@ -30727,17 +30694,17 @@
         <v>11826365</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="292"/>
+        <v>172</v>
+      </c>
+      <c r="D63" s="289"/>
       <c r="E63" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F63" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G63" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H63" s="212"/>
       <c r="I63" s="217"/>
@@ -30750,17 +30717,17 @@
         <v>9358231</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="292"/>
+        <v>173</v>
+      </c>
+      <c r="D64" s="289"/>
       <c r="E64" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F64" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H64" s="212"/>
       <c r="I64" s="217"/>
@@ -30773,17 +30740,17 @@
         <v>10633348</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="292"/>
+        <v>165</v>
+      </c>
+      <c r="D65" s="289"/>
       <c r="E65" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F65" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G65" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H65" s="212"/>
       <c r="I65" s="217"/>
@@ -30796,17 +30763,17 @@
         <v>10508082</v>
       </c>
       <c r="C66" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="292"/>
+        <v>174</v>
+      </c>
+      <c r="D66" s="289"/>
       <c r="E66" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F66" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G66" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H66" s="212"/>
       <c r="I66" s="217"/>
@@ -30819,17 +30786,17 @@
         <v>10913744</v>
       </c>
       <c r="C67" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="292"/>
+        <v>175</v>
+      </c>
+      <c r="D67" s="289"/>
       <c r="E67" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F67" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G67" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H67" s="212"/>
       <c r="I67" s="217"/>
@@ -30842,17 +30809,17 @@
         <v>9856223</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="292"/>
+        <v>171</v>
+      </c>
+      <c r="D68" s="289"/>
       <c r="E68" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F68" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G68" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H68" s="212"/>
       <c r="I68" s="217"/>
@@ -30865,17 +30832,17 @@
         <v>11066363</v>
       </c>
       <c r="C69" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="292"/>
+        <v>176</v>
+      </c>
+      <c r="D69" s="289"/>
       <c r="E69" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F69" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G69" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H69" s="212"/>
       <c r="I69" s="217"/>
@@ -30888,17 +30855,17 @@
         <v>11858897</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="293"/>
+        <v>176</v>
+      </c>
+      <c r="D70" s="288"/>
       <c r="E70" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F70" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G70" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H70" s="212"/>
       <c r="I70" s="217"/>
@@ -30940,19 +30907,19 @@
         <v>10702527</v>
       </c>
       <c r="C71" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="292" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="D71" s="289" t="s">
+        <v>177</v>
       </c>
       <c r="E71" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F71" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G71" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H71" s="212"/>
       <c r="I71" s="217"/>
@@ -30965,17 +30932,17 @@
         <v>10865204</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="292"/>
+        <v>179</v>
+      </c>
+      <c r="D72" s="289"/>
       <c r="E72" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F72" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G72" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H72" s="212"/>
       <c r="I72" s="217"/>
@@ -30988,17 +30955,17 @@
         <v>10865205</v>
       </c>
       <c r="C73" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="292"/>
+        <v>180</v>
+      </c>
+      <c r="D73" s="289"/>
       <c r="E73" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F73" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G73" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H73" s="212"/>
       <c r="I73" s="217"/>
@@ -31011,17 +30978,17 @@
         <v>11247991</v>
       </c>
       <c r="C74" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D74" s="292"/>
+        <v>180</v>
+      </c>
+      <c r="D74" s="289"/>
       <c r="E74" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F74" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G74" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H74" s="212"/>
       <c r="I74" s="217"/>
@@ -31034,17 +31001,17 @@
         <v>11827636</v>
       </c>
       <c r="C75" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="292"/>
+        <v>180</v>
+      </c>
+      <c r="D75" s="289"/>
       <c r="E75" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F75" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H75" s="212"/>
       <c r="I75" s="217"/>
@@ -31057,17 +31024,17 @@
         <v>10532103</v>
       </c>
       <c r="C76" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" s="292"/>
+        <v>181</v>
+      </c>
+      <c r="D76" s="289"/>
       <c r="E76" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F76" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G76" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H76" s="212"/>
       <c r="I76" s="217"/>
@@ -31080,17 +31047,17 @@
         <v>11932625</v>
       </c>
       <c r="C77" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="292"/>
+        <v>182</v>
+      </c>
+      <c r="D77" s="289"/>
       <c r="E77" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F77" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G77" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H77" s="212"/>
       <c r="I77" s="217"/>
@@ -31103,17 +31070,17 @@
         <v>11142507</v>
       </c>
       <c r="C78" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="292"/>
+        <v>183</v>
+      </c>
+      <c r="D78" s="289"/>
       <c r="E78" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F78" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G78" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H78" s="212"/>
       <c r="I78" s="217"/>
@@ -31126,17 +31093,17 @@
         <v>11306070</v>
       </c>
       <c r="C79" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="292"/>
+        <v>184</v>
+      </c>
+      <c r="D79" s="289"/>
       <c r="E79" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F79" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G79" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H79" s="212"/>
       <c r="I79" s="217"/>
@@ -31149,17 +31116,17 @@
         <v>10870651</v>
       </c>
       <c r="C80" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D80" s="292"/>
+        <v>185</v>
+      </c>
+      <c r="D80" s="289"/>
       <c r="E80" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F80" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G80" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H80" s="212"/>
       <c r="I80" s="217"/>
@@ -31172,17 +31139,17 @@
         <v>10550121</v>
       </c>
       <c r="C81" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="292"/>
+        <v>186</v>
+      </c>
+      <c r="D81" s="289"/>
       <c r="E81" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F81" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G81" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H81" s="212"/>
       <c r="I81" s="217"/>
@@ -31195,17 +31162,17 @@
         <v>11325910</v>
       </c>
       <c r="C82" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="293"/>
+        <v>186</v>
+      </c>
+      <c r="D82" s="288"/>
       <c r="E82" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F82" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G82" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H82" s="212"/>
       <c r="I82" s="217"/>
@@ -31247,19 +31214,19 @@
         <v>10689366</v>
       </c>
       <c r="C83" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="D83" s="294" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D83" s="287" t="s">
+        <v>187</v>
       </c>
       <c r="E83" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F83" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G83" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H83" s="212"/>
       <c r="I83" s="217"/>
@@ -31272,17 +31239,17 @@
         <v>10711036</v>
       </c>
       <c r="C84" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="D84" s="293"/>
+        <v>189</v>
+      </c>
+      <c r="D84" s="288"/>
       <c r="E84" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F84" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G84" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H84" s="212"/>
       <c r="I84" s="217"/>
@@ -31324,19 +31291,19 @@
         <v>10695346</v>
       </c>
       <c r="C85" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="D85" s="294" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="D85" s="287" t="s">
+        <v>190</v>
       </c>
       <c r="E85" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F85" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G85" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H85" s="212"/>
       <c r="I85" s="217"/>
@@ -31349,17 +31316,17 @@
         <v>10342798</v>
       </c>
       <c r="C86" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="293"/>
+        <v>192</v>
+      </c>
+      <c r="D86" s="288"/>
       <c r="E86" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F86" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G86" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H86" s="212"/>
       <c r="I86" s="217"/>
@@ -31401,19 +31368,19 @@
         <v>11584746</v>
       </c>
       <c r="C87" s="139" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D87" s="155" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E87" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F87" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G87" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H87" s="212"/>
       <c r="I87" s="217"/>
@@ -31455,19 +31422,19 @@
         <v>10150742</v>
       </c>
       <c r="C88" s="140" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D88" s="156" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E88" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F88" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G88" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H88" s="212"/>
       <c r="I88" s="217"/>
@@ -31509,19 +31476,19 @@
         <v>10738310</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="294" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="D89" s="287" t="s">
+        <v>196</v>
       </c>
       <c r="E89" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F89" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G89" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H89" s="212"/>
       <c r="I89" s="217"/>
@@ -31534,17 +31501,17 @@
         <v>10960008</v>
       </c>
       <c r="C90" s="104" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="292"/>
+        <v>198</v>
+      </c>
+      <c r="D90" s="289"/>
       <c r="E90" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F90" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G90" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H90" s="212"/>
       <c r="I90" s="217"/>
@@ -31557,17 +31524,17 @@
         <v>7153700</v>
       </c>
       <c r="C91" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="293"/>
+        <v>199</v>
+      </c>
+      <c r="D91" s="288"/>
       <c r="E91" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F91" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H91" s="212"/>
       <c r="I91" s="217"/>
@@ -31609,19 +31576,19 @@
         <v>11116818</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" s="294" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="D92" s="287" t="s">
+        <v>200</v>
       </c>
       <c r="E92" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F92" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G92" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H92" s="212"/>
       <c r="I92" s="217"/>
@@ -31634,17 +31601,17 @@
         <v>8609663</v>
       </c>
       <c r="C93" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="292"/>
+        <v>202</v>
+      </c>
+      <c r="D93" s="289"/>
       <c r="E93" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F93" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G93" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H93" s="212"/>
       <c r="I93" s="217"/>
@@ -31657,17 +31624,17 @@
         <v>9271972</v>
       </c>
       <c r="C94" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="292"/>
+        <v>202</v>
+      </c>
+      <c r="D94" s="289"/>
       <c r="E94" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F94" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G94" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H94" s="212"/>
       <c r="I94" s="217"/>
@@ -31680,17 +31647,17 @@
         <v>9616116</v>
       </c>
       <c r="C95" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="292"/>
+        <v>203</v>
+      </c>
+      <c r="D95" s="289"/>
       <c r="E95" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F95" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G95" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H95" s="212"/>
       <c r="I95" s="217"/>
@@ -31703,17 +31670,17 @@
         <v>8617838</v>
       </c>
       <c r="C96" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="292"/>
+        <v>204</v>
+      </c>
+      <c r="D96" s="289"/>
       <c r="E96" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F96" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G96" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H96" s="212"/>
       <c r="I96" s="217"/>
@@ -31726,17 +31693,17 @@
         <v>9879003</v>
       </c>
       <c r="C97" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="D97" s="292"/>
+        <v>205</v>
+      </c>
+      <c r="D97" s="289"/>
       <c r="E97" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F97" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G97" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H97" s="212"/>
       <c r="I97" s="217"/>
@@ -31749,17 +31716,17 @@
         <v>8232240</v>
       </c>
       <c r="C98" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="292"/>
+        <v>206</v>
+      </c>
+      <c r="D98" s="289"/>
       <c r="E98" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F98" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G98" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H98" s="212"/>
       <c r="I98" s="217"/>
@@ -31772,17 +31739,17 @@
         <v>10982291</v>
       </c>
       <c r="C99" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="292"/>
+        <v>207</v>
+      </c>
+      <c r="D99" s="289"/>
       <c r="E99" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F99" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G99" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H99" s="212"/>
       <c r="I99" s="217"/>
@@ -31795,17 +31762,17 @@
         <v>9023352</v>
       </c>
       <c r="C100" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="292"/>
+        <v>208</v>
+      </c>
+      <c r="D100" s="289"/>
       <c r="E100" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F100" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G100" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H100" s="212"/>
       <c r="I100" s="217"/>
@@ -31818,17 +31785,17 @@
         <v>8598342</v>
       </c>
       <c r="C101" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="292"/>
+        <v>209</v>
+      </c>
+      <c r="D101" s="289"/>
       <c r="E101" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F101" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G101" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H101" s="212"/>
       <c r="I101" s="217"/>
@@ -31841,17 +31808,17 @@
         <v>9234885</v>
       </c>
       <c r="C102" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="D102" s="292"/>
+        <v>210</v>
+      </c>
+      <c r="D102" s="289"/>
       <c r="E102" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F102" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G102" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H102" s="212"/>
       <c r="I102" s="217"/>
@@ -31864,17 +31831,17 @@
         <v>8349326</v>
       </c>
       <c r="C103" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="292"/>
+        <v>211</v>
+      </c>
+      <c r="D103" s="289"/>
       <c r="E103" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F103" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G103" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H103" s="212"/>
       <c r="I103" s="217"/>
@@ -31887,17 +31854,17 @@
         <v>8865169</v>
       </c>
       <c r="C104" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="292"/>
+        <v>211</v>
+      </c>
+      <c r="D104" s="289"/>
       <c r="E104" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F104" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G104" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H104" s="212"/>
       <c r="I104" s="217"/>
@@ -31910,17 +31877,17 @@
         <v>7517667</v>
       </c>
       <c r="C105" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" s="292"/>
+        <v>212</v>
+      </c>
+      <c r="D105" s="289"/>
       <c r="E105" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F105" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G105" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H105" s="212"/>
       <c r="I105" s="217"/>
@@ -31933,17 +31900,17 @@
         <v>9834616</v>
       </c>
       <c r="C106" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="D106" s="292"/>
+        <v>213</v>
+      </c>
+      <c r="D106" s="289"/>
       <c r="E106" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F106" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G106" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H106" s="212"/>
       <c r="I106" s="217"/>
@@ -31956,17 +31923,17 @@
         <v>10202441</v>
       </c>
       <c r="C107" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="D107" s="292"/>
+        <v>214</v>
+      </c>
+      <c r="D107" s="289"/>
       <c r="E107" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F107" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G107" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H107" s="212"/>
       <c r="I107" s="217"/>
@@ -31979,17 +31946,17 @@
         <v>9359275</v>
       </c>
       <c r="C108" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="292"/>
+        <v>215</v>
+      </c>
+      <c r="D108" s="289"/>
       <c r="E108" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F108" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G108" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H108" s="212"/>
       <c r="I108" s="217"/>
@@ -32002,17 +31969,17 @@
         <v>9533032</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="292"/>
+        <v>216</v>
+      </c>
+      <c r="D109" s="289"/>
       <c r="E109" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F109" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G109" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H109" s="212"/>
       <c r="I109" s="217"/>
@@ -32025,17 +31992,17 @@
         <v>9216223</v>
       </c>
       <c r="C110" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D110" s="292"/>
+        <v>216</v>
+      </c>
+      <c r="D110" s="289"/>
       <c r="E110" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F110" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G110" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H110" s="212"/>
       <c r="I110" s="217"/>
@@ -32048,17 +32015,17 @@
         <v>7807180</v>
       </c>
       <c r="C111" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" s="292"/>
+        <v>217</v>
+      </c>
+      <c r="D111" s="289"/>
       <c r="E111" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F111" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G111" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H111" s="212"/>
       <c r="I111" s="217"/>
@@ -32071,17 +32038,17 @@
         <v>8642042</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" s="292"/>
+        <v>218</v>
+      </c>
+      <c r="D112" s="289"/>
       <c r="E112" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F112" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G112" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H112" s="212"/>
       <c r="I112" s="217"/>
@@ -32094,17 +32061,17 @@
         <v>9131687</v>
       </c>
       <c r="C113" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="292"/>
+        <v>219</v>
+      </c>
+      <c r="D113" s="289"/>
       <c r="E113" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F113" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G113" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H113" s="212"/>
       <c r="I113" s="217"/>
@@ -32117,17 +32084,17 @@
         <v>9885088</v>
       </c>
       <c r="C114" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="292"/>
+        <v>220</v>
+      </c>
+      <c r="D114" s="289"/>
       <c r="E114" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F114" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G114" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H114" s="212"/>
       <c r="I114" s="217"/>
@@ -32140,17 +32107,17 @@
         <v>9193705</v>
       </c>
       <c r="C115" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115" s="292"/>
+        <v>221</v>
+      </c>
+      <c r="D115" s="289"/>
       <c r="E115" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F115" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G115" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H115" s="212"/>
       <c r="I115" s="217"/>
@@ -32163,17 +32130,17 @@
         <v>10150742</v>
       </c>
       <c r="C116" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="292"/>
+        <v>164</v>
+      </c>
+      <c r="D116" s="289"/>
       <c r="E116" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F116" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G116" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H116" s="212"/>
       <c r="I116" s="217"/>
@@ -32186,17 +32153,17 @@
         <v>9452992</v>
       </c>
       <c r="C117" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="D117" s="292"/>
+        <v>222</v>
+      </c>
+      <c r="D117" s="289"/>
       <c r="E117" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F117" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G117" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H117" s="212"/>
       <c r="I117" s="217"/>
@@ -32209,17 +32176,17 @@
         <v>11261201</v>
       </c>
       <c r="C118" s="104" t="s">
-        <v>228</v>
-      </c>
-      <c r="D118" s="292"/>
+        <v>223</v>
+      </c>
+      <c r="D118" s="289"/>
       <c r="E118" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F118" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G118" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H118" s="212"/>
       <c r="I118" s="217"/>
@@ -32232,17 +32199,17 @@
         <v>9340505</v>
       </c>
       <c r="C119" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D119" s="292"/>
+        <v>224</v>
+      </c>
+      <c r="D119" s="289"/>
       <c r="E119" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F119" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G119" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H119" s="212"/>
       <c r="I119" s="217"/>
@@ -32255,17 +32222,17 @@
         <v>8716283</v>
       </c>
       <c r="C120" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D120" s="292"/>
+        <v>224</v>
+      </c>
+      <c r="D120" s="289"/>
       <c r="E120" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F120" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G120" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H120" s="212"/>
       <c r="I120" s="217"/>
@@ -32278,17 +32245,17 @@
         <v>11001625</v>
       </c>
       <c r="C121" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D121" s="292"/>
+        <v>225</v>
+      </c>
+      <c r="D121" s="289"/>
       <c r="E121" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F121" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G121" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H121" s="212"/>
       <c r="I121" s="217"/>
@@ -32301,17 +32268,17 @@
         <v>8841253</v>
       </c>
       <c r="C122" s="105" t="s">
-        <v>231</v>
-      </c>
-      <c r="D122" s="293"/>
+        <v>226</v>
+      </c>
+      <c r="D122" s="288"/>
       <c r="E122" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F122" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G122" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H122" s="212"/>
       <c r="I122" s="217"/>
@@ -32353,19 +32320,19 @@
         <v>9951074</v>
       </c>
       <c r="C123" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D123" s="294" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="D123" s="287" t="s">
+        <v>227</v>
       </c>
       <c r="E123" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F123" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G123" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H123" s="212"/>
       <c r="I123" s="217"/>
@@ -32378,17 +32345,17 @@
         <v>10308653</v>
       </c>
       <c r="C124" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="D124" s="292"/>
+        <v>229</v>
+      </c>
+      <c r="D124" s="289"/>
       <c r="E124" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F124" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G124" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H124" s="212"/>
       <c r="I124" s="217"/>
@@ -32401,17 +32368,17 @@
         <v>11040957</v>
       </c>
       <c r="C125" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D125" s="292"/>
+        <v>152</v>
+      </c>
+      <c r="D125" s="289"/>
       <c r="E125" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F125" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G125" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H125" s="212"/>
       <c r="I125" s="217"/>
@@ -32424,17 +32391,17 @@
         <v>9879003</v>
       </c>
       <c r="C126" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="D126" s="292"/>
+        <v>205</v>
+      </c>
+      <c r="D126" s="289"/>
       <c r="E126" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F126" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G126" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H126" s="212"/>
       <c r="I126" s="217"/>
@@ -32447,17 +32414,17 @@
         <v>9975896</v>
       </c>
       <c r="C127" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D127" s="292"/>
+        <v>230</v>
+      </c>
+      <c r="D127" s="289"/>
       <c r="E127" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F127" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G127" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H127" s="212"/>
       <c r="I127" s="217"/>
@@ -32470,17 +32437,17 @@
         <v>10906889</v>
       </c>
       <c r="C128" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" s="292"/>
+        <v>154</v>
+      </c>
+      <c r="D128" s="289"/>
       <c r="E128" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F128" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G128" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H128" s="212"/>
       <c r="I128" s="217"/>
@@ -32493,17 +32460,17 @@
         <v>10047070</v>
       </c>
       <c r="C129" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D129" s="293"/>
+        <v>154</v>
+      </c>
+      <c r="D129" s="288"/>
       <c r="E129" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F129" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G129" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H129" s="212"/>
       <c r="I129" s="217"/>
@@ -32545,19 +32512,19 @@
         <v>11453907</v>
       </c>
       <c r="C130" s="142" t="s">
-        <v>237</v>
-      </c>
-      <c r="D130" s="298" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="D130" s="290" t="s">
+        <v>231</v>
       </c>
       <c r="E130" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F130" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G130" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H130" s="212"/>
       <c r="I130" s="217"/>
@@ -32570,17 +32537,17 @@
         <v>11384344</v>
       </c>
       <c r="C131" s="108" t="s">
-        <v>238</v>
-      </c>
-      <c r="D131" s="298"/>
+        <v>233</v>
+      </c>
+      <c r="D131" s="290"/>
       <c r="E131" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F131" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G131" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H131" s="212"/>
       <c r="I131" s="217"/>
@@ -32593,17 +32560,17 @@
         <v>11639523</v>
       </c>
       <c r="C132" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="D132" s="298"/>
+        <v>234</v>
+      </c>
+      <c r="D132" s="290"/>
       <c r="E132" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F132" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G132" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H132" s="212"/>
       <c r="I132" s="217"/>
@@ -32616,17 +32583,17 @@
         <v>11851702</v>
       </c>
       <c r="C133" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="D133" s="298"/>
+        <v>235</v>
+      </c>
+      <c r="D133" s="290"/>
       <c r="E133" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F133" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G133" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H133" s="212"/>
       <c r="I133" s="217"/>
@@ -32639,17 +32606,17 @@
         <v>10968257</v>
       </c>
       <c r="C134" s="110" t="s">
-        <v>241</v>
-      </c>
-      <c r="D134" s="299"/>
+        <v>236</v>
+      </c>
+      <c r="D134" s="291"/>
       <c r="E134" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F134" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G134" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H134" s="212"/>
       <c r="I134" s="217"/>
@@ -32662,19 +32629,19 @@
         <v>11236327</v>
       </c>
       <c r="C135" s="142" t="s">
-        <v>243</v>
-      </c>
-      <c r="D135" s="287" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="D135" s="285" t="s">
+        <v>237</v>
       </c>
       <c r="E135" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F135" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G135" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H135" s="212"/>
       <c r="I135" s="217"/>
@@ -32687,17 +32654,17 @@
         <v>11591581</v>
       </c>
       <c r="C136" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D136" s="287"/>
+        <v>239</v>
+      </c>
+      <c r="D136" s="285"/>
       <c r="E136" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F136" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G136" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H136" s="212"/>
       <c r="I136" s="217"/>
@@ -32710,17 +32677,17 @@
         <v>10851357</v>
       </c>
       <c r="C137" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D137" s="287"/>
+        <v>239</v>
+      </c>
+      <c r="D137" s="285"/>
       <c r="E137" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F137" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G137" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H137" s="212"/>
       <c r="I137" s="217"/>
@@ -32733,17 +32700,17 @@
         <v>11286478</v>
       </c>
       <c r="C138" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D138" s="287"/>
+        <v>240</v>
+      </c>
+      <c r="D138" s="285"/>
       <c r="E138" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F138" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G138" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H138" s="212"/>
       <c r="I138" s="217"/>
@@ -32756,17 +32723,17 @@
         <v>11174515</v>
       </c>
       <c r="C139" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D139" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D139" s="285"/>
       <c r="E139" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F139" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G139" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H139" s="212"/>
       <c r="I139" s="217"/>
@@ -32779,17 +32746,17 @@
         <v>11104937</v>
       </c>
       <c r="C140" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D140" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D140" s="285"/>
       <c r="E140" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F140" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G140" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H140" s="212"/>
       <c r="I140" s="217"/>
@@ -32802,17 +32769,17 @@
         <v>11633732</v>
       </c>
       <c r="C141" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D141" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D141" s="285"/>
       <c r="E141" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F141" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G141" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H141" s="212"/>
       <c r="I141" s="217"/>
@@ -32825,17 +32792,17 @@
         <v>11618928</v>
       </c>
       <c r="C142" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D142" s="287"/>
+        <v>242</v>
+      </c>
+      <c r="D142" s="285"/>
       <c r="E142" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F142" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G142" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H142" s="212"/>
       <c r="I142" s="217"/>
@@ -32848,17 +32815,17 @@
         <v>10876100</v>
       </c>
       <c r="C143" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D143" s="287"/>
+        <v>243</v>
+      </c>
+      <c r="D143" s="285"/>
       <c r="E143" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F143" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H143" s="212"/>
       <c r="I143" s="217"/>
@@ -32871,17 +32838,17 @@
         <v>10266887</v>
       </c>
       <c r="C144" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D144" s="287"/>
+        <v>244</v>
+      </c>
+      <c r="D144" s="285"/>
       <c r="E144" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F144" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G144" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H144" s="212"/>
       <c r="I144" s="217"/>
@@ -32894,17 +32861,17 @@
         <v>10266886</v>
       </c>
       <c r="C145" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D145" s="287"/>
+        <v>244</v>
+      </c>
+      <c r="D145" s="285"/>
       <c r="E145" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F145" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G145" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H145" s="212"/>
       <c r="I145" s="217"/>
@@ -32917,17 +32884,17 @@
         <v>10494621</v>
       </c>
       <c r="C146" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D146" s="287"/>
+        <v>245</v>
+      </c>
+      <c r="D146" s="285"/>
       <c r="E146" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F146" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G146" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H146" s="212"/>
       <c r="I146" s="217"/>
@@ -32940,17 +32907,17 @@
         <v>9840713</v>
       </c>
       <c r="C147" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="D147" s="287"/>
+        <v>246</v>
+      </c>
+      <c r="D147" s="285"/>
       <c r="E147" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F147" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G147" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H147" s="212"/>
       <c r="I147" s="217"/>
@@ -32963,17 +32930,17 @@
         <v>9822372</v>
       </c>
       <c r="C148" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D148" s="287"/>
+        <v>247</v>
+      </c>
+      <c r="D148" s="285"/>
       <c r="E148" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F148" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G148" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H148" s="212"/>
       <c r="I148" s="217"/>
@@ -32986,17 +32953,17 @@
         <v>8889356</v>
       </c>
       <c r="C149" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D149" s="287"/>
+        <v>248</v>
+      </c>
+      <c r="D149" s="285"/>
       <c r="E149" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F149" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G149" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H149" s="212"/>
       <c r="I149" s="217"/>
@@ -33009,17 +32976,17 @@
         <v>8932814</v>
       </c>
       <c r="C150" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D150" s="287"/>
+        <v>248</v>
+      </c>
+      <c r="D150" s="285"/>
       <c r="E150" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F150" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G150" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H150" s="212"/>
       <c r="I150" s="217"/>
@@ -33032,17 +32999,17 @@
         <v>11149259</v>
       </c>
       <c r="C151" s="108" t="s">
-        <v>254</v>
-      </c>
-      <c r="D151" s="287"/>
+        <v>249</v>
+      </c>
+      <c r="D151" s="285"/>
       <c r="E151" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F151" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G151" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H151" s="212"/>
       <c r="I151" s="217"/>
@@ -33055,17 +33022,17 @@
         <v>11155795</v>
       </c>
       <c r="C152" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="D152" s="287"/>
+        <v>250</v>
+      </c>
+      <c r="D152" s="285"/>
       <c r="E152" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F152" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G152" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H152" s="212"/>
       <c r="I152" s="217"/>
@@ -33078,17 +33045,17 @@
         <v>10377998</v>
       </c>
       <c r="C153" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D153" s="287"/>
+        <v>251</v>
+      </c>
+      <c r="D153" s="285"/>
       <c r="E153" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F153" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G153" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H153" s="212"/>
       <c r="I153" s="217"/>
@@ -33101,17 +33068,17 @@
         <v>8795965</v>
       </c>
       <c r="C154" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="D154" s="287"/>
+        <v>252</v>
+      </c>
+      <c r="D154" s="285"/>
       <c r="E154" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F154" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G154" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H154" s="212"/>
       <c r="I154" s="217"/>
@@ -33124,17 +33091,17 @@
         <v>8871445</v>
       </c>
       <c r="C155" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="D155" s="287"/>
+        <v>252</v>
+      </c>
+      <c r="D155" s="285"/>
       <c r="E155" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F155" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G155" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H155" s="212"/>
       <c r="I155" s="217"/>
@@ -33147,17 +33114,17 @@
         <v>8945839</v>
       </c>
       <c r="C156" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D156" s="287"/>
+        <v>253</v>
+      </c>
+      <c r="D156" s="285"/>
       <c r="E156" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F156" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G156" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H156" s="212"/>
       <c r="I156" s="217"/>
@@ -33170,17 +33137,17 @@
         <v>8697359</v>
       </c>
       <c r="C157" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="287"/>
+        <v>253</v>
+      </c>
+      <c r="D157" s="285"/>
       <c r="E157" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F157" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G157" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H157" s="212"/>
       <c r="I157" s="217"/>
@@ -33193,17 +33160,17 @@
         <v>8771945</v>
       </c>
       <c r="C158" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" s="287"/>
+        <v>253</v>
+      </c>
+      <c r="D158" s="285"/>
       <c r="E158" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F158" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G158" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H158" s="212"/>
       <c r="I158" s="217"/>
@@ -33216,17 +33183,17 @@
         <v>10577630</v>
       </c>
       <c r="C159" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D159" s="287"/>
+        <v>254</v>
+      </c>
+      <c r="D159" s="285"/>
       <c r="E159" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F159" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G159" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H159" s="212"/>
       <c r="I159" s="217"/>
@@ -33239,17 +33206,17 @@
         <v>11041173</v>
       </c>
       <c r="C160" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="D160" s="287"/>
+        <v>255</v>
+      </c>
+      <c r="D160" s="285"/>
       <c r="E160" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F160" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G160" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H160" s="212"/>
       <c r="I160" s="217"/>
@@ -33262,17 +33229,17 @@
         <v>11008588</v>
       </c>
       <c r="C161" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="287"/>
+        <v>256</v>
+      </c>
+      <c r="D161" s="285"/>
       <c r="E161" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F161" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G161" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H161" s="212"/>
       <c r="I161" s="217"/>
@@ -33285,17 +33252,17 @@
         <v>11407985</v>
       </c>
       <c r="C162" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="D162" s="287"/>
+        <v>257</v>
+      </c>
+      <c r="D162" s="285"/>
       <c r="E162" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F162" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G162" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H162" s="212"/>
       <c r="I162" s="217"/>
@@ -33308,17 +33275,17 @@
         <v>11124796</v>
       </c>
       <c r="C163" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="D163" s="287"/>
+        <v>258</v>
+      </c>
+      <c r="D163" s="285"/>
       <c r="E163" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F163" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G163" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H163" s="212"/>
       <c r="I163" s="217"/>
@@ -33331,17 +33298,17 @@
         <v>10946108</v>
       </c>
       <c r="C164" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="D164" s="287"/>
+        <v>259</v>
+      </c>
+      <c r="D164" s="285"/>
       <c r="E164" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F164" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G164" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H164" s="212"/>
       <c r="I164" s="217"/>
@@ -33354,17 +33321,17 @@
         <v>11021740</v>
       </c>
       <c r="C165" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="D165" s="287"/>
+        <v>260</v>
+      </c>
+      <c r="D165" s="285"/>
       <c r="E165" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F165" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G165" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H165" s="212"/>
       <c r="I165" s="217"/>
@@ -33377,17 +33344,17 @@
         <v>11339390</v>
       </c>
       <c r="C166" s="108" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" s="287"/>
+        <v>261</v>
+      </c>
+      <c r="D166" s="285"/>
       <c r="E166" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F166" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G166" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H166" s="212"/>
       <c r="I166" s="217"/>
@@ -33400,17 +33367,17 @@
         <v>8993233</v>
       </c>
       <c r="C167" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="D167" s="287"/>
+        <v>262</v>
+      </c>
+      <c r="D167" s="285"/>
       <c r="E167" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F167" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G167" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H167" s="212"/>
       <c r="I167" s="217"/>
@@ -33423,17 +33390,17 @@
         <v>11578312</v>
       </c>
       <c r="C168" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="D168" s="287"/>
+        <v>263</v>
+      </c>
+      <c r="D168" s="285"/>
       <c r="E168" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F168" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G168" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H168" s="212"/>
       <c r="I168" s="217"/>
@@ -33446,17 +33413,17 @@
         <v>10954514</v>
       </c>
       <c r="C169" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="D169" s="287"/>
+        <v>264</v>
+      </c>
+      <c r="D169" s="285"/>
       <c r="E169" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F169" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G169" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H169" s="212"/>
       <c r="I169" s="217"/>
@@ -33469,17 +33436,17 @@
         <v>8895308</v>
       </c>
       <c r="C170" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="D170" s="287"/>
+        <v>265</v>
+      </c>
+      <c r="D170" s="285"/>
       <c r="E170" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F170" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G170" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H170" s="212"/>
       <c r="I170" s="217"/>
@@ -33492,17 +33459,17 @@
         <v>8865406</v>
       </c>
       <c r="C171" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="D171" s="287"/>
+        <v>265</v>
+      </c>
+      <c r="D171" s="285"/>
       <c r="E171" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F171" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G171" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H171" s="212"/>
       <c r="I171" s="217"/>
@@ -33515,17 +33482,17 @@
         <v>8889418</v>
       </c>
       <c r="C172" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="D172" s="287"/>
+        <v>265</v>
+      </c>
+      <c r="D172" s="285"/>
       <c r="E172" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F172" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G172" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H172" s="212"/>
       <c r="I172" s="217"/>
@@ -33538,17 +33505,17 @@
         <v>8993223</v>
       </c>
       <c r="C173" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D173" s="287"/>
+        <v>266</v>
+      </c>
+      <c r="D173" s="285"/>
       <c r="E173" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F173" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G173" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H173" s="212"/>
       <c r="I173" s="217"/>
@@ -33561,17 +33528,17 @@
         <v>8999641</v>
       </c>
       <c r="C174" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D174" s="287"/>
+        <v>266</v>
+      </c>
+      <c r="D174" s="285"/>
       <c r="E174" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F174" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G174" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H174" s="212"/>
       <c r="I174" s="217"/>
@@ -33584,17 +33551,17 @@
         <v>8906616</v>
       </c>
       <c r="C175" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="D175" s="287"/>
+        <v>267</v>
+      </c>
+      <c r="D175" s="285"/>
       <c r="E175" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F175" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G175" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H175" s="212"/>
       <c r="I175" s="217"/>
@@ -33607,17 +33574,17 @@
         <v>11685917</v>
       </c>
       <c r="C176" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="D176" s="287"/>
+        <v>268</v>
+      </c>
+      <c r="D176" s="285"/>
       <c r="E176" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F176" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G176" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H176" s="212"/>
       <c r="I176" s="217"/>
@@ -33630,17 +33597,17 @@
         <v>10781444</v>
       </c>
       <c r="C177" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="D177" s="287"/>
+        <v>269</v>
+      </c>
+      <c r="D177" s="285"/>
       <c r="E177" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F177" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G177" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H177" s="212"/>
       <c r="I177" s="217"/>
@@ -33653,17 +33620,17 @@
         <v>11001829</v>
       </c>
       <c r="C178" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="D178" s="287"/>
+        <v>270</v>
+      </c>
+      <c r="D178" s="285"/>
       <c r="E178" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F178" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G178" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H178" s="212"/>
       <c r="I178" s="217"/>
@@ -33676,17 +33643,17 @@
         <v>11591601</v>
       </c>
       <c r="C179" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="D179" s="287"/>
+        <v>271</v>
+      </c>
+      <c r="D179" s="285"/>
       <c r="E179" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F179" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G179" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H179" s="212"/>
       <c r="I179" s="217"/>
@@ -33699,17 +33666,17 @@
         <v>11810649</v>
       </c>
       <c r="C180" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="D180" s="287"/>
+        <v>272</v>
+      </c>
+      <c r="D180" s="285"/>
       <c r="E180" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F180" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G180" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H180" s="212"/>
       <c r="I180" s="217"/>
@@ -33722,17 +33689,17 @@
         <v>10930367</v>
       </c>
       <c r="C181" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D181" s="287"/>
+        <v>273</v>
+      </c>
+      <c r="D181" s="285"/>
       <c r="E181" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F181" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G181" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H181" s="212"/>
       <c r="I181" s="217"/>
@@ -33745,17 +33712,17 @@
         <v>11898142</v>
       </c>
       <c r="C182" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="D182" s="287"/>
+        <v>274</v>
+      </c>
+      <c r="D182" s="285"/>
       <c r="E182" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F182" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G182" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H182" s="212"/>
       <c r="I182" s="217"/>
@@ -33768,17 +33735,17 @@
         <v>11739308</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="D183" s="287"/>
+        <v>275</v>
+      </c>
+      <c r="D183" s="285"/>
       <c r="E183" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F183" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G183" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H183" s="212"/>
       <c r="I183" s="217"/>
@@ -33791,17 +33758,17 @@
         <v>10648020</v>
       </c>
       <c r="C184" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D184" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D184" s="285"/>
       <c r="E184" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F184" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G184" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H184" s="212"/>
       <c r="I184" s="217"/>
@@ -33814,17 +33781,17 @@
         <v>11180751</v>
       </c>
       <c r="C185" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D185" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D185" s="285"/>
       <c r="E185" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F185" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G185" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H185" s="212"/>
       <c r="I185" s="217"/>
@@ -33837,17 +33804,17 @@
         <v>9790490</v>
       </c>
       <c r="C186" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D186" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D186" s="285"/>
       <c r="E186" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F186" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G186" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H186" s="212"/>
       <c r="I186" s="217"/>
@@ -33860,17 +33827,17 @@
         <v>10669540</v>
       </c>
       <c r="C187" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D187" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D187" s="285"/>
       <c r="E187" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F187" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G187" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H187" s="212"/>
       <c r="I187" s="217"/>
@@ -33883,17 +33850,17 @@
         <v>11091798</v>
       </c>
       <c r="C188" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D188" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D188" s="285"/>
       <c r="E188" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F188" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G188" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H188" s="212"/>
       <c r="I188" s="217"/>
@@ -33906,17 +33873,17 @@
         <v>11781172</v>
       </c>
       <c r="C189" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D189" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D189" s="285"/>
       <c r="E189" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F189" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G189" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H189" s="212"/>
       <c r="I189" s="217"/>
@@ -33929,17 +33896,17 @@
         <v>11352647</v>
       </c>
       <c r="C190" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D190" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D190" s="285"/>
       <c r="E190" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F190" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G190" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H190" s="212"/>
       <c r="I190" s="217"/>
@@ -33952,17 +33919,17 @@
         <v>11773412</v>
       </c>
       <c r="C191" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D191" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D191" s="285"/>
       <c r="E191" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F191" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G191" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H191" s="212"/>
       <c r="I191" s="217"/>
@@ -33975,17 +33942,17 @@
         <v>11060115</v>
       </c>
       <c r="C192" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D192" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D192" s="285"/>
       <c r="E192" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F192" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G192" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H192" s="212"/>
       <c r="I192" s="217"/>
@@ -33998,17 +33965,17 @@
         <v>11421250</v>
       </c>
       <c r="C193" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D193" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D193" s="285"/>
       <c r="E193" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F193" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G193" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H193" s="212"/>
       <c r="I193" s="217"/>
@@ -34021,17 +33988,17 @@
         <v>11634755</v>
       </c>
       <c r="C194" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D194" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D194" s="285"/>
       <c r="E194" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F194" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G194" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H194" s="212"/>
       <c r="I194" s="217"/>
@@ -34044,17 +34011,17 @@
         <v>11773432</v>
       </c>
       <c r="C195" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D195" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D195" s="285"/>
       <c r="E195" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F195" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G195" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H195" s="212"/>
       <c r="I195" s="217"/>
@@ -34067,17 +34034,17 @@
         <v>11840711</v>
       </c>
       <c r="C196" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D196" s="287"/>
+        <v>277</v>
+      </c>
+      <c r="D196" s="285"/>
       <c r="E196" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F196" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G196" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H196" s="212"/>
       <c r="I196" s="217"/>
@@ -34090,17 +34057,17 @@
         <v>11312937</v>
       </c>
       <c r="C197" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="D197" s="287"/>
+        <v>278</v>
+      </c>
+      <c r="D197" s="285"/>
       <c r="E197" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F197" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G197" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H197" s="212"/>
       <c r="I197" s="217"/>
@@ -34113,17 +34080,17 @@
         <v>10801017</v>
       </c>
       <c r="C198" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D198" s="287"/>
+        <v>279</v>
+      </c>
+      <c r="D198" s="285"/>
       <c r="E198" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F198" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G198" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H198" s="212"/>
       <c r="I198" s="217"/>
@@ -34136,17 +34103,17 @@
         <v>8481309</v>
       </c>
       <c r="C199" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D199" s="287"/>
+        <v>279</v>
+      </c>
+      <c r="D199" s="285"/>
       <c r="E199" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F199" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G199" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H199" s="212"/>
       <c r="I199" s="217"/>
@@ -34159,17 +34126,17 @@
         <v>8614092</v>
       </c>
       <c r="C200" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D200" s="287"/>
+        <v>279</v>
+      </c>
+      <c r="D200" s="285"/>
       <c r="E200" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F200" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G200" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H200" s="212"/>
       <c r="I200" s="217"/>
@@ -34182,17 +34149,17 @@
         <v>8450107</v>
       </c>
       <c r="C201" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D201" s="287"/>
+        <v>279</v>
+      </c>
+      <c r="D201" s="285"/>
       <c r="E201" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F201" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G201" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H201" s="212"/>
       <c r="I201" s="217"/>
@@ -34205,17 +34172,17 @@
         <v>8507272</v>
       </c>
       <c r="C202" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D202" s="287"/>
+        <v>279</v>
+      </c>
+      <c r="D202" s="285"/>
       <c r="E202" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F202" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G202" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H202" s="212"/>
       <c r="I202" s="217"/>
@@ -34228,17 +34195,17 @@
         <v>10711285</v>
       </c>
       <c r="C203" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D203" s="287"/>
+        <v>280</v>
+      </c>
+      <c r="D203" s="285"/>
       <c r="E203" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F203" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G203" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H203" s="212"/>
       <c r="I203" s="217"/>
@@ -34251,17 +34218,17 @@
         <v>11597949</v>
       </c>
       <c r="C204" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D204" s="287"/>
+        <v>280</v>
+      </c>
+      <c r="D204" s="285"/>
       <c r="E204" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F204" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G204" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H204" s="212"/>
       <c r="I204" s="217"/>
@@ -34274,17 +34241,17 @@
         <v>10696986</v>
       </c>
       <c r="C205" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D205" s="287"/>
+        <v>281</v>
+      </c>
+      <c r="D205" s="285"/>
       <c r="E205" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F205" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G205" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H205" s="212"/>
       <c r="I205" s="217"/>
@@ -34297,17 +34264,17 @@
         <v>11624078</v>
       </c>
       <c r="C206" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D206" s="287"/>
+        <v>281</v>
+      </c>
+      <c r="D206" s="285"/>
       <c r="E206" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F206" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G206" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H206" s="212"/>
       <c r="I206" s="217"/>
@@ -34320,17 +34287,17 @@
         <v>11332719</v>
       </c>
       <c r="C207" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D207" s="287"/>
+        <v>282</v>
+      </c>
+      <c r="D207" s="285"/>
       <c r="E207" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F207" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G207" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H207" s="212"/>
       <c r="I207" s="217"/>
@@ -34343,17 +34310,17 @@
         <v>10655173</v>
       </c>
       <c r="C208" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="D208" s="287"/>
+        <v>283</v>
+      </c>
+      <c r="D208" s="285"/>
       <c r="E208" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F208" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G208" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H208" s="212"/>
       <c r="I208" s="217"/>
@@ -34366,17 +34333,17 @@
         <v>10550372</v>
       </c>
       <c r="C209" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="D209" s="287"/>
+        <v>284</v>
+      </c>
+      <c r="D209" s="285"/>
       <c r="E209" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F209" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G209" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H209" s="212"/>
       <c r="I209" s="217"/>
@@ -34389,17 +34356,17 @@
         <v>11597919</v>
       </c>
       <c r="C210" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="D210" s="287"/>
+        <v>284</v>
+      </c>
+      <c r="D210" s="285"/>
       <c r="E210" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F210" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G210" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H210" s="212"/>
       <c r="I210" s="217"/>
@@ -34412,17 +34379,17 @@
         <v>11618896</v>
       </c>
       <c r="C211" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D211" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D211" s="285"/>
       <c r="E211" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F211" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G211" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H211" s="212"/>
       <c r="I211" s="217"/>
@@ -34435,17 +34402,17 @@
         <v>11866697</v>
       </c>
       <c r="C212" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D212" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D212" s="285"/>
       <c r="E212" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F212" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G212" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H212" s="212"/>
       <c r="I212" s="217"/>
@@ -34458,17 +34425,17 @@
         <v>11685916</v>
       </c>
       <c r="C213" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D213" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D213" s="285"/>
       <c r="E213" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F213" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G213" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H213" s="212"/>
       <c r="I213" s="217"/>
@@ -34481,17 +34448,17 @@
         <v>10530372</v>
       </c>
       <c r="C214" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D214" s="287"/>
+        <v>286</v>
+      </c>
+      <c r="D214" s="285"/>
       <c r="E214" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F214" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G214" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H214" s="212"/>
       <c r="I214" s="217"/>
@@ -34504,17 +34471,17 @@
         <v>11572543</v>
       </c>
       <c r="C215" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D215" s="287"/>
+        <v>287</v>
+      </c>
+      <c r="D215" s="285"/>
       <c r="E215" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F215" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G215" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H215" s="212"/>
       <c r="I215" s="217"/>
@@ -34527,17 +34494,17 @@
         <v>11788083</v>
       </c>
       <c r="C216" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D216" s="287"/>
+        <v>288</v>
+      </c>
+      <c r="D216" s="285"/>
       <c r="E216" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F216" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G216" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H216" s="212"/>
       <c r="I216" s="217"/>
@@ -34550,17 +34517,17 @@
         <v>10689691</v>
       </c>
       <c r="C217" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D217" s="287"/>
+        <v>289</v>
+      </c>
+      <c r="D217" s="285"/>
       <c r="E217" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F217" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G217" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H217" s="212"/>
       <c r="I217" s="217"/>
@@ -34573,17 +34540,17 @@
         <v>11459557</v>
       </c>
       <c r="C218" s="110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D218" s="288"/>
+        <v>290</v>
+      </c>
+      <c r="D218" s="286"/>
       <c r="E218" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F218" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G218" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H218" s="212"/>
       <c r="I218" s="217"/>
@@ -34596,19 +34563,19 @@
         <v>11685917</v>
       </c>
       <c r="C219" s="112" t="s">
-        <v>273</v>
-      </c>
-      <c r="D219" s="286" t="s">
-        <v>296</v>
+        <v>268</v>
+      </c>
+      <c r="D219" s="284" t="s">
+        <v>291</v>
       </c>
       <c r="E219" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F219" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G219" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H219" s="212"/>
       <c r="I219" s="217"/>
@@ -34621,17 +34588,17 @@
         <v>11135230</v>
       </c>
       <c r="C220" s="108" t="s">
-        <v>297</v>
-      </c>
-      <c r="D220" s="287"/>
+        <v>292</v>
+      </c>
+      <c r="D220" s="285"/>
       <c r="E220" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F220" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G220" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H220" s="212"/>
       <c r="I220" s="217"/>
@@ -34644,17 +34611,17 @@
         <v>10930367</v>
       </c>
       <c r="C221" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D221" s="287"/>
+        <v>273</v>
+      </c>
+      <c r="D221" s="285"/>
       <c r="E221" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F221" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G221" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H221" s="212"/>
       <c r="I221" s="217"/>
@@ -34667,17 +34634,17 @@
         <v>11421250</v>
       </c>
       <c r="C222" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D222" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D222" s="285"/>
       <c r="E222" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F222" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G222" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H222" s="212"/>
       <c r="I222" s="217"/>
@@ -34690,17 +34657,17 @@
         <v>11060115</v>
       </c>
       <c r="C223" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D223" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D223" s="285"/>
       <c r="E223" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F223" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G223" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H223" s="212"/>
       <c r="I223" s="217"/>
@@ -34713,17 +34680,17 @@
         <v>11773412</v>
       </c>
       <c r="C224" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D224" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D224" s="285"/>
       <c r="E224" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F224" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G224" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H224" s="212"/>
       <c r="I224" s="217"/>
@@ -34736,17 +34703,17 @@
         <v>11180751</v>
       </c>
       <c r="C225" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D225" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D225" s="285"/>
       <c r="E225" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F225" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G225" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H225" s="212"/>
       <c r="I225" s="217"/>
@@ -34759,17 +34726,17 @@
         <v>11572543</v>
       </c>
       <c r="C226" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D226" s="287"/>
+        <v>287</v>
+      </c>
+      <c r="D226" s="285"/>
       <c r="E226" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F226" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G226" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H226" s="212"/>
       <c r="I226" s="217"/>
@@ -34782,17 +34749,17 @@
         <v>11618881</v>
       </c>
       <c r="C227" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D227" s="287"/>
+        <v>293</v>
+      </c>
+      <c r="D227" s="285"/>
       <c r="E227" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F227" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G227" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H227" s="212"/>
       <c r="I227" s="217"/>
@@ -34805,17 +34772,17 @@
         <v>10968426</v>
       </c>
       <c r="C228" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D228" s="287"/>
+        <v>293</v>
+      </c>
+      <c r="D228" s="285"/>
       <c r="E228" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F228" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G228" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H228" s="212"/>
       <c r="I228" s="217"/>
@@ -34828,17 +34795,17 @@
         <v>11492591</v>
       </c>
       <c r="C229" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="D229" s="288"/>
+        <v>293</v>
+      </c>
+      <c r="D229" s="286"/>
       <c r="E229" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F229" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G229" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H229" s="212"/>
       <c r="I229" s="217"/>
@@ -34851,19 +34818,19 @@
         <v>11339390</v>
       </c>
       <c r="C230" s="114" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D230" s="157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E230" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F230" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G230" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H230" s="212"/>
       <c r="I230" s="217"/>
@@ -34876,19 +34843,19 @@
         <v>11384344</v>
       </c>
       <c r="C231" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D231" s="286" t="s">
-        <v>300</v>
+        <v>233</v>
+      </c>
+      <c r="D231" s="284" t="s">
+        <v>295</v>
       </c>
       <c r="E231" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F231" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G231" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H231" s="212"/>
       <c r="I231" s="217"/>
@@ -34901,17 +34868,17 @@
         <v>10968257</v>
       </c>
       <c r="C232" s="110" t="s">
-        <v>241</v>
-      </c>
-      <c r="D232" s="288"/>
+        <v>236</v>
+      </c>
+      <c r="D232" s="286"/>
       <c r="E232" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F232" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G232" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H232" s="212"/>
       <c r="I232" s="217"/>
@@ -34924,19 +34891,19 @@
         <v>11286478</v>
       </c>
       <c r="C233" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="D233" s="286" t="s">
-        <v>301</v>
+        <v>240</v>
+      </c>
+      <c r="D233" s="284" t="s">
+        <v>296</v>
       </c>
       <c r="E233" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F233" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G233" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H233" s="212"/>
       <c r="I233" s="217"/>
@@ -34949,17 +34916,17 @@
         <v>11453907</v>
       </c>
       <c r="C234" s="108" t="s">
-        <v>237</v>
-      </c>
-      <c r="D234" s="287"/>
+        <v>232</v>
+      </c>
+      <c r="D234" s="285"/>
       <c r="E234" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F234" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G234" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H234" s="212"/>
       <c r="I234" s="217"/>
@@ -34972,17 +34939,17 @@
         <v>11104937</v>
       </c>
       <c r="C235" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D235" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D235" s="285"/>
       <c r="E235" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F235" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G235" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H235" s="212"/>
       <c r="I235" s="217"/>
@@ -34995,17 +34962,17 @@
         <v>11174515</v>
       </c>
       <c r="C236" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D236" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D236" s="285"/>
       <c r="E236" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F236" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G236" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H236" s="212"/>
       <c r="I236" s="217"/>
@@ -35018,17 +34985,17 @@
         <v>11633732</v>
       </c>
       <c r="C237" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D237" s="287"/>
+        <v>241</v>
+      </c>
+      <c r="D237" s="285"/>
       <c r="E237" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F237" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G237" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H237" s="212"/>
       <c r="I237" s="217"/>
@@ -35041,17 +35008,17 @@
         <v>11618928</v>
       </c>
       <c r="C238" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D238" s="287"/>
+        <v>242</v>
+      </c>
+      <c r="D238" s="285"/>
       <c r="E238" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F238" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G238" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H238" s="212"/>
       <c r="I238" s="217"/>
@@ -35064,17 +35031,17 @@
         <v>10876100</v>
       </c>
       <c r="C239" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D239" s="287"/>
+        <v>243</v>
+      </c>
+      <c r="D239" s="285"/>
       <c r="E239" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F239" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G239" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H239" s="212"/>
       <c r="I239" s="217"/>
@@ -35087,17 +35054,17 @@
         <v>10266887</v>
       </c>
       <c r="C240" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D240" s="287"/>
+        <v>244</v>
+      </c>
+      <c r="D240" s="285"/>
       <c r="E240" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F240" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G240" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H240" s="212"/>
       <c r="I240" s="217"/>
@@ -35110,17 +35077,17 @@
         <v>10266886</v>
       </c>
       <c r="C241" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D241" s="287"/>
+        <v>244</v>
+      </c>
+      <c r="D241" s="285"/>
       <c r="E241" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F241" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G241" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H241" s="212"/>
       <c r="I241" s="217"/>
@@ -35133,17 +35100,17 @@
         <v>10494621</v>
       </c>
       <c r="C242" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D242" s="287"/>
+        <v>245</v>
+      </c>
+      <c r="D242" s="285"/>
       <c r="E242" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F242" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G242" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H242" s="212"/>
       <c r="I242" s="217"/>
@@ -35156,17 +35123,17 @@
         <v>11384344</v>
       </c>
       <c r="C243" s="108" t="s">
-        <v>238</v>
-      </c>
-      <c r="D243" s="287"/>
+        <v>233</v>
+      </c>
+      <c r="D243" s="285"/>
       <c r="E243" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F243" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G243" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H243" s="212"/>
       <c r="I243" s="217"/>
@@ -35179,17 +35146,17 @@
         <v>11021740</v>
       </c>
       <c r="C244" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="D244" s="287"/>
+        <v>260</v>
+      </c>
+      <c r="D244" s="285"/>
       <c r="E244" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F244" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G244" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H244" s="212"/>
       <c r="I244" s="217"/>
@@ -35202,17 +35169,17 @@
         <v>10954514</v>
       </c>
       <c r="C245" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="D245" s="287"/>
+        <v>264</v>
+      </c>
+      <c r="D245" s="285"/>
       <c r="E245" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F245" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G245" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H245" s="212"/>
       <c r="I245" s="217"/>
@@ -35225,17 +35192,17 @@
         <v>11685917</v>
       </c>
       <c r="C246" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="D246" s="287"/>
+        <v>268</v>
+      </c>
+      <c r="D246" s="285"/>
       <c r="E246" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F246" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G246" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H246" s="212"/>
       <c r="I246" s="217"/>
@@ -35248,17 +35215,17 @@
         <v>11591601</v>
       </c>
       <c r="C247" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="D247" s="287"/>
+        <v>271</v>
+      </c>
+      <c r="D247" s="285"/>
       <c r="E247" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F247" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G247" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H247" s="212"/>
       <c r="I247" s="217"/>
@@ -35271,17 +35238,17 @@
         <v>11810649</v>
       </c>
       <c r="C248" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="D248" s="287"/>
+        <v>272</v>
+      </c>
+      <c r="D248" s="285"/>
       <c r="E248" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F248" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G248" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H248" s="212"/>
       <c r="I248" s="217"/>
@@ -35294,17 +35261,17 @@
         <v>11898142</v>
       </c>
       <c r="C249" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="D249" s="287"/>
+        <v>274</v>
+      </c>
+      <c r="D249" s="285"/>
       <c r="E249" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F249" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G249" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H249" s="212"/>
       <c r="I249" s="217"/>
@@ -35317,17 +35284,17 @@
         <v>11739308</v>
       </c>
       <c r="C250" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="D250" s="287"/>
+        <v>275</v>
+      </c>
+      <c r="D250" s="285"/>
       <c r="E250" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F250" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G250" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H250" s="212"/>
       <c r="I250" s="217"/>
@@ -35340,17 +35307,17 @@
         <v>11773412</v>
       </c>
       <c r="C251" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D251" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D251" s="285"/>
       <c r="E251" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F251" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G251" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H251" s="212"/>
       <c r="I251" s="217"/>
@@ -35363,17 +35330,17 @@
         <v>11060115</v>
       </c>
       <c r="C252" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D252" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D252" s="285"/>
       <c r="E252" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F252" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G252" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H252" s="212"/>
       <c r="I252" s="217"/>
@@ -35386,17 +35353,17 @@
         <v>11352647</v>
       </c>
       <c r="C253" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D253" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D253" s="285"/>
       <c r="E253" s="174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F253" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G253" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H253" s="212"/>
       <c r="I253" s="217"/>
@@ -35409,17 +35376,17 @@
         <v>11421250</v>
       </c>
       <c r="C254" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D254" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D254" s="285"/>
       <c r="E254" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F254" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G254" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H254" s="212"/>
       <c r="I254" s="217"/>
@@ -35432,17 +35399,17 @@
         <v>11180751</v>
       </c>
       <c r="C255" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D255" s="287"/>
+        <v>276</v>
+      </c>
+      <c r="D255" s="285"/>
       <c r="E255" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F255" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G255" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H255" s="212"/>
       <c r="I255" s="217"/>
@@ -35455,17 +35422,17 @@
         <v>11639523</v>
       </c>
       <c r="C256" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="D256" s="287"/>
+        <v>234</v>
+      </c>
+      <c r="D256" s="285"/>
       <c r="E256" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F256" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G256" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H256" s="212"/>
       <c r="I256" s="217"/>
@@ -35478,17 +35445,17 @@
         <v>11840711</v>
       </c>
       <c r="C257" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D257" s="287"/>
+        <v>277</v>
+      </c>
+      <c r="D257" s="285"/>
       <c r="E257" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F257" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G257" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H257" s="212"/>
       <c r="I257" s="217"/>
@@ -35501,17 +35468,17 @@
         <v>10696986</v>
       </c>
       <c r="C258" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D258" s="287"/>
+        <v>281</v>
+      </c>
+      <c r="D258" s="285"/>
       <c r="E258" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F258" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G258" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H258" s="212"/>
       <c r="I258" s="217"/>
@@ -35524,17 +35491,17 @@
         <v>11624078</v>
       </c>
       <c r="C259" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D259" s="287"/>
+        <v>281</v>
+      </c>
+      <c r="D259" s="285"/>
       <c r="E259" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F259" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G259" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H259" s="212"/>
       <c r="I259" s="217"/>
@@ -35547,17 +35514,17 @@
         <v>11851702</v>
       </c>
       <c r="C260" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="D260" s="287"/>
+        <v>235</v>
+      </c>
+      <c r="D260" s="285"/>
       <c r="E260" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F260" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G260" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H260" s="212"/>
       <c r="I260" s="217"/>
@@ -35570,17 +35537,17 @@
         <v>11618896</v>
       </c>
       <c r="C261" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D261" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D261" s="285"/>
       <c r="E261" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F261" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G261" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H261" s="212"/>
       <c r="I261" s="217"/>
@@ -35593,17 +35560,17 @@
         <v>11685916</v>
       </c>
       <c r="C262" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D262" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D262" s="285"/>
       <c r="E262" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F262" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G262" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H262" s="212"/>
       <c r="I262" s="217"/>
@@ -35616,17 +35583,17 @@
         <v>11866697</v>
       </c>
       <c r="C263" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D263" s="287"/>
+        <v>285</v>
+      </c>
+      <c r="D263" s="285"/>
       <c r="E263" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F263" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G263" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H263" s="212"/>
       <c r="I263" s="217"/>
@@ -35639,17 +35606,17 @@
         <v>10968257</v>
       </c>
       <c r="C264" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D264" s="287"/>
+        <v>236</v>
+      </c>
+      <c r="D264" s="285"/>
       <c r="E264" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F264" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G264" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H264" s="212"/>
       <c r="I264" s="217"/>
@@ -35662,17 +35629,17 @@
         <v>11572543</v>
       </c>
       <c r="C265" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D265" s="287"/>
+        <v>287</v>
+      </c>
+      <c r="D265" s="285"/>
       <c r="E265" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F265" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G265" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H265" s="212"/>
       <c r="I265" s="217"/>
@@ -35685,17 +35652,17 @@
         <v>11788083</v>
       </c>
       <c r="C266" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D266" s="287"/>
+        <v>288</v>
+      </c>
+      <c r="D266" s="285"/>
       <c r="E266" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F266" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G266" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H266" s="212"/>
       <c r="I266" s="217"/>
@@ -35708,31 +35675,23 @@
         <v>10689691</v>
       </c>
       <c r="C267" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="D267" s="288"/>
+        <v>289</v>
+      </c>
+      <c r="D267" s="286"/>
       <c r="E267" s="214" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F267" s="174" t="s">
         <v>59</v>
       </c>
       <c r="G267" s="174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H267" s="212"/>
       <c r="I267" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D233:D267"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D122"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="D135:D218"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
@@ -35745,6 +35704,14 @@
     <mergeCell ref="D71:D82"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D233:D267"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D122"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="D135:D218"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://ppubs.uspto.gov/pubwebapp/external.html?q=(11492403).pn.&amp;db=USPAT&amp;type=ids" xr:uid="{1857059F-94EB-B943-9482-55315B0CB5CC}"/>
@@ -35768,7 +35735,7 @@
   <dimension ref="A1:AD126"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -35783,10 +35750,10 @@
         <v>70</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>328</v>
+        <v>546</v>
       </c>
       <c r="C1" s="165" t="s">
-        <v>302</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="19" customHeight="1">
@@ -36257,7 +36224,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36275,31 +36242,31 @@
   <sheetData>
     <row r="1" spans="1:23" s="5" customFormat="1" ht="19">
       <c r="A1" s="146" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="146" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C1" s="146" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D1" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="146" t="s">
         <v>339</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="I1" s="146" t="s">
         <v>340</v>
-      </c>
-      <c r="F1" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="146" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="146" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="146" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -36307,13 +36274,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C2" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D2" s="175" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E2" s="175">
         <v>2011</v>
@@ -36322,13 +36289,13 @@
         <v>2019</v>
       </c>
       <c r="G2" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H2" s="175" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I2" s="175" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -36336,13 +36303,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="175" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C3" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="175" t="s">
         <v>348</v>
-      </c>
-      <c r="D3" s="175" t="s">
-        <v>354</v>
       </c>
       <c r="E3" s="175">
         <v>2010</v>
@@ -36351,13 +36318,13 @@
         <v>2020</v>
       </c>
       <c r="G3" s="175" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="175" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="175" t="s">
         <v>350</v>
-      </c>
-      <c r="H3" s="175" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -36365,13 +36332,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="175" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C4" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D4" s="175" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E4" s="175">
         <v>2016</v>
@@ -36380,13 +36347,13 @@
         <v>2021</v>
       </c>
       <c r="G4" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H4" s="175" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I4" s="175" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -36394,13 +36361,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="175" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C5" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D5" s="175" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E5" s="175">
         <v>2015</v>
@@ -36409,13 +36376,13 @@
         <v>2019</v>
       </c>
       <c r="G5" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H5" s="175" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I5" s="175" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -36423,13 +36390,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C6" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D6" s="175" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E6" s="175">
         <v>2017</v>
@@ -36438,13 +36405,13 @@
         <v>2020</v>
       </c>
       <c r="G6" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H6" s="175" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I6" s="175" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -36452,13 +36419,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="175" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C7" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D7" s="175" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E7" s="175">
         <v>2019</v>
@@ -36467,13 +36434,13 @@
         <v>2021</v>
       </c>
       <c r="G7" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H7" s="175" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="175" t="s">
         <v>359</v>
-      </c>
-      <c r="I7" s="175" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -36481,13 +36448,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="175" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D8" s="175" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E8" s="175" t="s">
         <v>59</v>
@@ -36496,13 +36463,13 @@
         <v>2020</v>
       </c>
       <c r="G8" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H8" s="175" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I8" s="175" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="24">
@@ -36510,13 +36477,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="175" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D9" s="175" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E9" s="175">
         <v>2020</v>
@@ -36525,13 +36492,13 @@
         <v>2021</v>
       </c>
       <c r="G9" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H9" s="175" t="s">
+        <v>353</v>
+      </c>
+      <c r="I9" s="175" t="s">
         <v>359</v>
-      </c>
-      <c r="I9" s="175" t="s">
-        <v>365</v>
       </c>
       <c r="P9" s="300"/>
       <c r="Q9" s="300"/>
@@ -36547,13 +36514,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C10" s="175" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" s="175" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E10" s="175">
         <v>2014</v>
@@ -36562,13 +36529,13 @@
         <v>2019</v>
       </c>
       <c r="G10" s="175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H10" s="175" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I10" s="175" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -36576,13 +36543,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="176" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D11" s="176" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E11" s="176">
         <v>2020</v>
@@ -36591,13 +36558,13 @@
         <v>2021</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H11" s="176" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -36605,13 +36572,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D12" s="176" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E12" s="176">
         <v>2015</v>
@@ -36623,10 +36590,10 @@
         <v>2020</v>
       </c>
       <c r="H12" s="176" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -36634,13 +36601,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="176" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D13" s="176" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E13" s="176">
         <v>2015</v>
@@ -36649,13 +36616,13 @@
         <v>2018</v>
       </c>
       <c r="G13" s="176" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H13" s="176" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -36663,13 +36630,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="176" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D14" s="176" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E14" s="176">
         <v>2011</v>
@@ -36678,13 +36645,13 @@
         <v>2019</v>
       </c>
       <c r="G14" s="176" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H14" s="176" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -36692,13 +36659,13 @@
         <v>67</v>
       </c>
       <c r="B15" s="176" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D15" s="176" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E15" s="176">
         <v>2019</v>
@@ -36707,13 +36674,13 @@
         <v>2020</v>
       </c>
       <c r="G15" s="176" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H15" s="176" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -36721,13 +36688,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="177" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D16" s="177" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E16" s="177">
         <v>2015</v>
@@ -36736,13 +36703,13 @@
         <v>2015</v>
       </c>
       <c r="G16" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H16" s="177" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36750,13 +36717,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="177" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D17" s="177" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E17" s="177">
         <v>2012</v>
@@ -36765,13 +36732,13 @@
         <v>2012</v>
       </c>
       <c r="G17" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H17" s="177" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I17" s="177" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -36779,13 +36746,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="177" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D18" s="177" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E18" s="177">
         <v>2020</v>
@@ -36794,13 +36761,13 @@
         <v>2020</v>
       </c>
       <c r="G18" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H18" s="177" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I18" s="177" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -36808,13 +36775,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="177" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D19" s="177" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E19" s="177">
         <v>2009</v>
@@ -36826,10 +36793,10 @@
         <v>2016</v>
       </c>
       <c r="H19" s="177" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I19" s="177" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -36837,13 +36804,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="177" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D20" s="177" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E20" s="177">
         <v>2016</v>
@@ -36855,10 +36822,10 @@
         <v>2020</v>
       </c>
       <c r="H20" s="177" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I20" s="177" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -36866,13 +36833,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="177" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D21" s="177" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E21" s="177">
         <v>2018</v>
@@ -36881,13 +36848,13 @@
         <v>2018</v>
       </c>
       <c r="G21" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H21" s="177" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I21" s="177" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -36895,13 +36862,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="177" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D22" s="177" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E22" s="177">
         <v>2021</v>
@@ -36910,13 +36877,13 @@
         <v>2021</v>
       </c>
       <c r="G22" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H22" s="177" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I22" s="177" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -36924,13 +36891,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="177" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D23" s="177" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E23" s="177">
         <v>2022</v>
@@ -36939,13 +36906,13 @@
         <v>2022</v>
       </c>
       <c r="G23" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H23" s="177" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I23" s="177" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -36953,13 +36920,13 @@
         <v>68</v>
       </c>
       <c r="B24" s="177" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D24" s="177" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E24" s="177">
         <v>2020</v>
@@ -36968,13 +36935,13 @@
         <v>2020</v>
       </c>
       <c r="G24" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H24" s="177" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I24" s="177" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -36982,13 +36949,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="177" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D25" s="177" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E25" s="177">
         <v>2021</v>
@@ -36997,13 +36964,13 @@
         <v>2021</v>
       </c>
       <c r="G25" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H25" s="177" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I25" s="177" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -37011,13 +36978,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="177" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C26" s="177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D26" s="177" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E26" s="177">
         <v>2012</v>
@@ -37026,13 +36993,13 @@
         <v>2018</v>
       </c>
       <c r="G26" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H26" s="177" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I26" s="177" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -37040,13 +37007,13 @@
         <v>68</v>
       </c>
       <c r="B27" s="177" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C27" s="177" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D27" s="177" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E27" s="177" t="s">
         <v>59</v>
@@ -37055,13 +37022,13 @@
         <v>2021</v>
       </c>
       <c r="G27" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H27" s="177" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I27" s="177" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -37069,13 +37036,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="177" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C28" s="177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D28" s="177" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E28" s="177">
         <v>2014</v>
@@ -37084,13 +37051,13 @@
         <v>2019</v>
       </c>
       <c r="G28" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H28" s="177" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I28" s="177" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -37098,13 +37065,13 @@
         <v>68</v>
       </c>
       <c r="B29" s="177" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C29" s="177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D29" s="177" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E29" s="177">
         <v>2021</v>
@@ -37113,13 +37080,13 @@
         <v>2022</v>
       </c>
       <c r="G29" s="177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H29" s="177" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I29" s="177" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -37127,13 +37094,13 @@
         <v>69</v>
       </c>
       <c r="B30" s="178" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C30" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D30" s="178" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E30" s="178">
         <v>2013</v>
@@ -37145,10 +37112,10 @@
         <v>2018</v>
       </c>
       <c r="H30" s="178" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I30" s="178" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -37156,13 +37123,13 @@
         <v>69</v>
       </c>
       <c r="B31" s="178" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C31" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D31" s="178" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E31" s="178">
         <v>2017</v>
@@ -37171,13 +37138,13 @@
         <v>2017</v>
       </c>
       <c r="G31" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H31" s="178" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I31" s="178" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -37185,13 +37152,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="178" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C32" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D32" s="178" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E32" s="178">
         <v>2016</v>
@@ -37200,13 +37167,13 @@
         <v>2016</v>
       </c>
       <c r="G32" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H32" s="178" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I32" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -37214,13 +37181,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="178" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C33" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E33" s="178">
         <v>2019</v>
@@ -37229,13 +37196,13 @@
         <v>2019</v>
       </c>
       <c r="G33" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H33" s="178" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I33" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -37243,13 +37210,13 @@
         <v>69</v>
       </c>
       <c r="B34" s="178" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C34" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D34" s="178" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E34" s="178">
         <v>2022</v>
@@ -37258,13 +37225,13 @@
         <v>2022</v>
       </c>
       <c r="G34" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H34" s="178" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I34" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -37272,13 +37239,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="178" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C35" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D35" s="178" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E35" s="178">
         <v>2023</v>
@@ -37287,13 +37254,13 @@
         <v>2023</v>
       </c>
       <c r="G35" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H35" s="178" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I35" s="178" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -37301,13 +37268,13 @@
         <v>69</v>
       </c>
       <c r="B36" s="178" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C36" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D36" s="178" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E36" s="178">
         <v>2020</v>
@@ -37316,13 +37283,13 @@
         <v>2020</v>
       </c>
       <c r="G36" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H36" s="178" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I36" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -37330,13 +37297,13 @@
         <v>69</v>
       </c>
       <c r="B37" s="178" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C37" s="178" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D37" s="178" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E37" s="178">
         <v>2018</v>
@@ -37348,10 +37315,10 @@
         <v>2022</v>
       </c>
       <c r="H37" s="178" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I37" s="178" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -37359,13 +37326,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="178" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C38" s="178" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D38" s="178" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E38" s="178">
         <v>2017</v>
@@ -37374,13 +37341,13 @@
         <v>2019</v>
       </c>
       <c r="G38" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H38" s="178" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I38" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -37388,13 +37355,13 @@
         <v>69</v>
       </c>
       <c r="B39" s="178" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C39" s="178" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D39" s="178" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E39" s="178">
         <v>2012</v>
@@ -37403,13 +37370,13 @@
         <v>2018</v>
       </c>
       <c r="G39" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H39" s="178" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I39" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -37417,13 +37384,13 @@
         <v>69</v>
       </c>
       <c r="B40" s="178" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C40" s="178" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D40" s="178" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E40" s="178">
         <v>2015</v>
@@ -37432,13 +37399,13 @@
         <v>2020</v>
       </c>
       <c r="G40" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H40" s="178" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I40" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -37446,13 +37413,13 @@
         <v>69</v>
       </c>
       <c r="B41" s="178" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C41" s="178" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D41" s="178" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E41" s="178">
         <v>2017</v>
@@ -37461,13 +37428,13 @@
         <v>2019</v>
       </c>
       <c r="G41" s="178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H41" s="178" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I41" s="178" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="24">
@@ -37496,8 +37463,8 @@
   </sheetPr>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37508,37 +37475,37 @@
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="145" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="145" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="145" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="145" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="I1" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="J1" s="145" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="145" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="145" t="s">
-        <v>409</v>
-      </c>
-      <c r="G1" s="145" t="s">
-        <v>410</v>
-      </c>
-      <c r="H1" s="145" t="s">
-        <v>411</v>
-      </c>
-      <c r="I1" s="145" t="s">
-        <v>412</v>
-      </c>
-      <c r="J1" s="145" t="s">
-        <v>413</v>
-      </c>
       <c r="K1" s="145" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -37555,25 +37522,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="143" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="143" t="s">
         <v>430</v>
       </c>
-      <c r="F2" s="143" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="143" t="s">
-        <v>427</v>
-      </c>
-      <c r="H2" s="143" t="s">
-        <v>415</v>
-      </c>
-      <c r="I2" s="143" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="143" t="s">
-        <v>436</v>
-      </c>
       <c r="K2" s="143" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -37590,25 +37557,25 @@
         <v>5</v>
       </c>
       <c r="E3" s="143" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F3" s="143" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G3" s="143" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H3" s="143" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I3" s="143" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J3" s="143" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="143" t="s">
         <v>420</v>
-      </c>
-      <c r="K3" s="143" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -37625,25 +37592,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="143" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F4" s="143" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G4" s="143" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H4" s="143" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I4" s="143" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="143" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K4" s="143" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -37660,25 +37627,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F5" s="143" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G5" s="143" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I5" s="143" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="143" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K5" s="143" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
@@ -37745,14 +37712,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="259" t="s">
+      <c r="H2" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -37802,14 +37769,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="244"/>
-      <c r="K4" s="260" t="s">
+      <c r="J4" s="251"/>
+      <c r="K4" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="261"/>
+      <c r="L4" s="246"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -37841,10 +37808,10 @@
       <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="250" t="s">
+      <c r="I5" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="251"/>
+      <c r="J5" s="258"/>
       <c r="K5" s="41" t="s">
         <v>55</v>
       </c>
@@ -37875,13 +37842,13 @@
       <c r="E6" s="28"/>
       <c r="F6" s="35"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="241">
+      <c r="H6" s="248">
         <v>45809</v>
       </c>
-      <c r="I6" s="246">
+      <c r="I6" s="253">
         <v>1</v>
       </c>
-      <c r="J6" s="248">
+      <c r="J6" s="255">
         <v>30000</v>
       </c>
       <c r="K6" s="51">
@@ -37924,9 +37891,9 @@
       <c r="E7" s="28"/>
       <c r="F7" s="35"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="256"/>
       <c r="K7" s="51">
         <v>2</v>
       </c>
@@ -37937,7 +37904,7 @@
         <f>M6-L7</f>
         <v>-2552</v>
       </c>
-      <c r="N7" s="255">
+      <c r="N7" s="240">
         <f>SUM(M7:M14)</f>
         <v>-13945.200000000003</v>
       </c>
@@ -37987,7 +37954,7 @@
         <f t="shared" ref="M8:M14" si="0">J8-L8</f>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N8" s="256"/>
+      <c r="N8" s="241"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -38034,7 +38001,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N9" s="256"/>
+      <c r="N9" s="241"/>
       <c r="O9" s="3"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
@@ -38081,7 +38048,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N10" s="256"/>
+      <c r="N10" s="241"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -38128,7 +38095,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N11" s="256"/>
+      <c r="N11" s="241"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -38175,7 +38142,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N12" s="256"/>
+      <c r="N12" s="241"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -38222,7 +38189,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N13" s="256"/>
+      <c r="N13" s="241"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -38269,7 +38236,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N14" s="257"/>
+      <c r="N14" s="242"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -38410,13 +38377,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="258"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="243"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -38437,14 +38404,14 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="243" t="s">
+      <c r="I19" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="245"/>
-      <c r="K19" s="261" t="s">
+      <c r="J19" s="252"/>
+      <c r="K19" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="261"/>
+      <c r="L19" s="246"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -38472,10 +38439,10 @@
       <c r="H20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="250" t="s">
+      <c r="I20" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="252"/>
+      <c r="J20" s="259"/>
       <c r="K20" s="34" t="s">
         <v>55</v>
       </c>
@@ -38500,15 +38467,15 @@
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="E21" s="7"/>
-      <c r="F21" s="240"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="241">
+      <c r="H21" s="248">
         <v>45809</v>
       </c>
-      <c r="I21" s="246">
+      <c r="I21" s="253">
         <v>1</v>
       </c>
-      <c r="J21" s="253">
+      <c r="J21" s="260">
         <v>31000</v>
       </c>
       <c r="K21" s="37">
@@ -38539,11 +38506,11 @@
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="E22" s="7"/>
-      <c r="F22" s="240"/>
+      <c r="F22" s="247"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="254"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="261"/>
       <c r="K22" s="37">
         <v>2</v>
       </c>
@@ -38554,7 +38521,7 @@
         <f>M21-L22</f>
         <v>-1552</v>
       </c>
-      <c r="N22" s="255">
+      <c r="N22" s="240">
         <f>SUM(M22:M29)</f>
         <v>-6984</v>
       </c>
@@ -38593,7 +38560,7 @@
         <f t="shared" ref="M23:M29" si="1">J23-L23</f>
         <v>-776</v>
       </c>
-      <c r="N23" s="256"/>
+      <c r="N23" s="241"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -38629,7 +38596,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N24" s="256"/>
+      <c r="N24" s="241"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -38665,7 +38632,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N25" s="256"/>
+      <c r="N25" s="241"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -38701,7 +38668,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N26" s="256"/>
+      <c r="N26" s="241"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -38737,7 +38704,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N27" s="256"/>
+      <c r="N27" s="241"/>
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="3"/>
@@ -38773,7 +38740,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N28" s="256"/>
+      <c r="N28" s="241"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -38809,7 +38776,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N29" s="257"/>
+      <c r="N29" s="242"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -65234,12 +65201,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="N7:N14"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H6:H7"/>
@@ -65251,6 +65212,12 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="N7:N14"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -65371,28 +65338,28 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -65501,7 +65468,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>768</v>
@@ -65538,7 +65505,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -65563,19 +65530,19 @@
         <v>65</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="99" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -65589,16 +65556,16 @@
         <v>42551</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="95">
         <v>34691725</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
@@ -65612,10 +65579,10 @@
         <v>41121</v>
       </c>
       <c r="D3" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="94" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>115</v>
       </c>
       <c r="F3" s="95">
         <v>37062593</v>
@@ -65635,10 +65602,10 @@
         <v>40543</v>
       </c>
       <c r="D4" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="94" t="s">
         <v>111</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>114</v>
       </c>
       <c r="F4" s="97">
         <v>47498460</v>
@@ -65649,7 +65616,7 @@
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -65658,10 +65625,10 @@
         <v>42004</v>
       </c>
       <c r="D5" s="237" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="237" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" s="237" t="s">
-        <v>114</v>
       </c>
       <c r="F5" s="95">
         <v>64508381</v>
@@ -65725,7 +65692,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -65750,7 +65717,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="92"/>
     </row>
@@ -65765,7 +65732,7 @@
         <v>42551</v>
       </c>
       <c r="D2" s="179" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -65779,7 +65746,7 @@
         <v>41121</v>
       </c>
       <c r="D3" s="179" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -65793,12 +65760,12 @@
         <v>40543</v>
       </c>
       <c r="D4" s="179" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32">
       <c r="A5" s="72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -65807,7 +65774,7 @@
         <v>42004</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E5" s="71"/>
     </row>
@@ -65821,10 +65788,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -65833,568 +65800,500 @@
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="74" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" s="233" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="D1" s="233" t="s">
-        <v>557</v>
-      </c>
-      <c r="E1" s="233" t="s">
-        <v>335</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C2" s="234">
         <v>2015</v>
       </c>
       <c r="D2" s="234" t="s">
-        <v>484</v>
-      </c>
-      <c r="E2" s="234" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="91" customFormat="1" ht="30" customHeight="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="234" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C3" s="234">
         <v>2016</v>
       </c>
       <c r="D3" s="234" t="s">
-        <v>487</v>
-      </c>
-      <c r="E3" s="234" t="s">
-        <v>488</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>480</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="234" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C4" s="234">
         <v>2017</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="234" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="234" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C5" s="234">
         <v>2021</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>492</v>
-      </c>
-      <c r="E5" s="234"/>
-      <c r="F5" s="91"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>483</v>
+      </c>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="234" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C6" s="234">
         <v>2023</v>
       </c>
       <c r="D6" s="234" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="234"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="234" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C7" s="234">
         <v>2017</v>
       </c>
       <c r="D7" s="234" t="s">
-        <v>495</v>
-      </c>
-      <c r="E7" s="234" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="234" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="234" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C8" s="234">
         <v>2017</v>
       </c>
       <c r="D8" s="234" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="234" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="235" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C9" s="235">
         <v>2017</v>
       </c>
       <c r="D9" s="235" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="235"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="235" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C10" s="235">
         <v>2017</v>
       </c>
       <c r="D10" s="235" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="235"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="235" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C11" s="235">
         <v>2019</v>
       </c>
       <c r="D11" s="235" t="s">
-        <v>501</v>
-      </c>
-      <c r="E11" s="235"/>
-    </row>
-    <row r="12" spans="1:7">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="235" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C12" s="235">
         <v>2022</v>
       </c>
       <c r="D12" s="235" t="s">
-        <v>503</v>
-      </c>
-      <c r="E12" s="235" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="235" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C13" s="235">
         <v>2023</v>
       </c>
       <c r="D13" s="235" t="s">
-        <v>506</v>
-      </c>
-      <c r="E13" s="235" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="235" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C14" s="235">
         <v>2024</v>
       </c>
       <c r="D14" s="235" t="s">
-        <v>509</v>
-      </c>
-      <c r="E14" s="235" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="235" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C15" s="235">
         <v>2024</v>
       </c>
       <c r="D15" s="235" t="s">
-        <v>512</v>
-      </c>
-      <c r="E15" s="235" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="236" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="236" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C16" s="236">
         <v>2011</v>
       </c>
       <c r="D16" s="236" t="s">
-        <v>512</v>
-      </c>
-      <c r="E16" s="236"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="236" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="236" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C17" s="236">
         <v>2011</v>
       </c>
       <c r="D17" s="236" t="s">
-        <v>516</v>
-      </c>
-      <c r="E17" s="236"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="236" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="236" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C18" s="236">
         <v>2013</v>
       </c>
       <c r="D18" s="236" t="s">
-        <v>518</v>
-      </c>
-      <c r="E18" s="236"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="236" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="236" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C19" s="236">
         <v>2019</v>
       </c>
       <c r="D19" s="236" t="s">
-        <v>520</v>
-      </c>
-      <c r="E19" s="236" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="236" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="236" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C20" s="236">
         <v>2024</v>
       </c>
       <c r="D20" s="236" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="236"/>
-    </row>
-    <row r="21" spans="1:5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C21" s="70">
         <v>2015</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>524</v>
-      </c>
-      <c r="E21" s="70"/>
-    </row>
-    <row r="22" spans="1:5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C22" s="70">
         <v>2015</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="70"/>
-    </row>
-    <row r="23" spans="1:5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C23" s="70">
         <v>2015</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>528</v>
-      </c>
-      <c r="E23" s="70"/>
-    </row>
-    <row r="24" spans="1:5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C24" s="70">
         <v>2016</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C25" s="70">
         <v>2016</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>533</v>
-      </c>
-      <c r="E25" s="70"/>
-    </row>
-    <row r="26" spans="1:5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C26" s="70">
         <v>2016</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>535</v>
-      </c>
-      <c r="E26" s="70"/>
-    </row>
-    <row r="27" spans="1:5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C27" s="70">
         <v>2016</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>537</v>
-      </c>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" spans="1:5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C28" s="70">
         <v>2017</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>539</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C29" s="70">
         <v>2017</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="E29" s="70"/>
-    </row>
-    <row r="30" spans="1:5">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C30" s="70">
         <v>2018</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>544</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C31" s="70">
         <v>2018</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>546</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="70" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="C32" s="70">
         <v>2018</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="E32" s="70"/>
-    </row>
-    <row r="33" spans="1:5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="70" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C33" s="70">
         <v>2018</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>550</v>
-      </c>
-      <c r="E33" s="70"/>
-    </row>
-    <row r="34" spans="1:5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C34" s="70">
         <v>2021</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>552</v>
-      </c>
-      <c r="E34" s="70"/>
-    </row>
-    <row r="35" spans="1:5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C35" s="70">
         <v>2025</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>554</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -66409,8 +66308,8 @@
   </sheetPr>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -66444,28 +66343,28 @@
         <v>85</v>
       </c>
       <c r="E1" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>543</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="J1" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>558</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="169" t="s">
-        <v>90</v>
-      </c>
       <c r="K1" s="180" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L1" s="181" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16">
@@ -66587,7 +66486,7 @@
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1">
       <c r="A5" s="72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="73">
         <v>40909</v>
@@ -67056,7 +66955,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -67072,25 +66971,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="116" customFormat="1" ht="19">
       <c r="A1" s="115" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C1" s="196" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D1" s="126" t="s">
-        <v>120</v>
+        <v>545</v>
       </c>
       <c r="E1" s="196" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F1" s="126" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G1" s="196" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="119" customFormat="1" ht="16">
@@ -67098,10 +66997,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C2" s="197" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D2" s="186">
         <v>50</v>
@@ -67123,10 +67022,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C3" s="197" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D3" s="186">
         <v>50.3</v>
@@ -67142,10 +67041,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C4" s="197" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D4" s="186">
         <v>50</v>
@@ -67161,10 +67060,10 @@
         <v>66</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C5" s="197" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D5" s="186">
         <v>64.8</v>
@@ -67180,10 +67079,10 @@
         <v>66</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C6" s="198" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D6" s="187">
         <v>50</v>
@@ -67199,10 +67098,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C7" s="199" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D7" s="188">
         <v>50</v>
@@ -67224,10 +67123,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D8" s="189">
         <v>50.3</v>
@@ -67243,10 +67142,10 @@
         <v>67</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D9" s="189">
         <v>50</v>
@@ -67262,10 +67161,10 @@
         <v>67</v>
       </c>
       <c r="B10" s="121" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D10" s="189">
         <v>64.8</v>
@@ -67281,10 +67180,10 @@
         <v>67</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C11" s="201" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D11" s="190">
         <v>50</v>
@@ -67300,10 +67199,10 @@
         <v>68</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C12" s="202" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D12" s="191">
         <v>50.3</v>
@@ -67325,10 +67224,10 @@
         <v>68</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C13" s="203" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D13" s="192">
         <v>64.8</v>
@@ -67344,10 +67243,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C14" s="203" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D14" s="192">
         <v>50.3</v>
@@ -67363,10 +67262,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C15" s="203" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D15" s="192">
         <v>64.8</v>
@@ -67382,10 +67281,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="134" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C16" s="204" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D16" s="193">
         <v>50.3</v>
@@ -67401,10 +67300,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C17" s="205" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D17" s="194">
         <v>63.7</v>
@@ -67426,10 +67325,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D18" s="195">
         <v>63.7</v>
@@ -67445,10 +67344,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C19" s="206" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D19" s="195">
         <v>50.3</v>
@@ -67464,10 +67363,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C20" s="206" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D20" s="195">
         <v>50.3</v>
@@ -67483,10 +67382,10 @@
         <v>69</v>
       </c>
       <c r="B21" s="138" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C21" s="207" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D21" s="208">
         <v>50.3</v>

--- a/assets/damon_runyon_data_CLEAN.xlsx
+++ b/assets/damon_runyon_data_CLEAN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/dashboard_app/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyraklemke/Desktop/dashboard_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F9581-D483-2E48-B223-C9073D3E7053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE8C11-6896-6D4C-B546-8317310D423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
+    <workbookView xWindow="-60" yWindow="1140" windowWidth="28800" windowHeight="16420" firstSheet="1" activeTab="11" xr2:uid="{59C5AD2E-B3BC-44FE-AACA-789B535D1AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="553">
   <si>
     <t>Real time data access</t>
   </si>
@@ -1062,9 +1062,6 @@
   </si>
   <si>
     <t>Focus Area</t>
-  </si>
-  <si>
-    <t>Year Founded</t>
   </si>
   <si>
     <t>Start Year</t>
@@ -3323,27 +3320,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3387,6 +3363,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3455,6 +3452,12 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3462,27 +3465,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,6 +3476,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3501,6 +3492,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29194,7 +29191,7 @@
       <c r="C2" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="291" t="s">
+      <c r="D2" s="286" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="164" t="s">
@@ -29221,7 +29218,7 @@
       <c r="C3" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="287"/>
       <c r="E3" s="164" t="s">
         <v>325</v>
       </c>
@@ -29236,10 +29233,10 @@
       </c>
       <c r="I3" s="195"/>
       <c r="J3"/>
-      <c r="K3" s="289" t="s">
+      <c r="K3" s="281" t="s">
         <v>318</v>
       </c>
-      <c r="L3" s="289"/>
+      <c r="L3" s="281"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -29274,7 +29271,7 @@
       <c r="C4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="296" t="s">
+      <c r="D4" s="294" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="164" t="s">
@@ -29308,7 +29305,7 @@
       <c r="C5" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="292"/>
       <c r="E5" s="164" t="s">
         <v>325</v>
       </c>
@@ -29320,10 +29317,10 @@
       </c>
       <c r="H5" s="190"/>
       <c r="I5" s="195"/>
-      <c r="J5" s="290">
+      <c r="J5" s="282">
         <v>1</v>
       </c>
-      <c r="K5" s="290" t="s">
+      <c r="K5" s="282" t="s">
         <v>119</v>
       </c>
       <c r="L5" s="102">
@@ -29340,7 +29337,7 @@
       <c r="C6" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="294"/>
+      <c r="D6" s="292"/>
       <c r="E6" s="164" t="s">
         <v>325</v>
       </c>
@@ -29352,8 +29349,8 @@
       </c>
       <c r="H6" s="190"/>
       <c r="I6" s="195"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
       <c r="L6" s="102">
         <v>10251922</v>
       </c>
@@ -29368,7 +29365,7 @@
       <c r="C7" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="294"/>
+      <c r="D7" s="292"/>
       <c r="E7" s="164" t="s">
         <v>325</v>
       </c>
@@ -29394,7 +29391,7 @@
       <c r="C8" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="294" t="s">
+      <c r="D8" s="292" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="164" t="s">
@@ -29422,7 +29419,7 @@
       <c r="C9" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="294"/>
+      <c r="D9" s="292"/>
       <c r="E9" s="164" t="s">
         <v>325</v>
       </c>
@@ -29448,7 +29445,7 @@
       <c r="C10" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="292"/>
       <c r="E10" s="164" t="s">
         <v>325</v>
       </c>
@@ -29474,7 +29471,7 @@
       <c r="C11" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="295"/>
+      <c r="D11" s="293"/>
       <c r="E11" s="164" t="s">
         <v>325</v>
       </c>
@@ -29526,7 +29523,7 @@
       <c r="C12" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="293" t="s">
+      <c r="D12" s="288" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="164" t="s">
@@ -29551,7 +29548,7 @@
       <c r="C13" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="286"/>
+      <c r="D13" s="289"/>
       <c r="E13" s="164" t="s">
         <v>325</v>
       </c>
@@ -29574,7 +29571,7 @@
       <c r="C14" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="286"/>
+      <c r="D14" s="289"/>
       <c r="E14" s="164" t="s">
         <v>325</v>
       </c>
@@ -29597,7 +29594,7 @@
       <c r="C15" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="286"/>
+      <c r="D15" s="289"/>
       <c r="E15" s="164" t="s">
         <v>325</v>
       </c>
@@ -29620,7 +29617,7 @@
       <c r="C16" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="286"/>
+      <c r="D16" s="289"/>
       <c r="E16" s="164" t="s">
         <v>325</v>
       </c>
@@ -29643,7 +29640,7 @@
       <c r="C17" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="286"/>
+      <c r="D17" s="289"/>
       <c r="E17" s="164" t="s">
         <v>325</v>
       </c>
@@ -29666,7 +29663,7 @@
       <c r="C18" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="286"/>
+      <c r="D18" s="289"/>
       <c r="E18" s="164" t="s">
         <v>325</v>
       </c>
@@ -29689,7 +29686,7 @@
       <c r="C19" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="286"/>
+      <c r="D19" s="289"/>
       <c r="E19" s="164" t="s">
         <v>325</v>
       </c>
@@ -29712,7 +29709,7 @@
       <c r="C20" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="286"/>
+      <c r="D20" s="289"/>
       <c r="E20" s="164" t="s">
         <v>325</v>
       </c>
@@ -29735,7 +29732,7 @@
       <c r="C21" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="286"/>
+      <c r="D21" s="289"/>
       <c r="E21" s="164" t="s">
         <v>325</v>
       </c>
@@ -29761,7 +29758,7 @@
       <c r="C22" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="286"/>
+      <c r="D22" s="289"/>
       <c r="E22" s="164" t="s">
         <v>325</v>
       </c>
@@ -29784,7 +29781,7 @@
       <c r="C23" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="285"/>
+      <c r="D23" s="290"/>
       <c r="E23" s="164" t="s">
         <v>325</v>
       </c>
@@ -29836,7 +29833,7 @@
       <c r="C24" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="284" t="s">
+      <c r="D24" s="291" t="s">
         <v>141</v>
       </c>
       <c r="E24" s="164" t="s">
@@ -29861,7 +29858,7 @@
       <c r="C25" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="286"/>
+      <c r="D25" s="289"/>
       <c r="E25" s="164" t="s">
         <v>325</v>
       </c>
@@ -29884,7 +29881,7 @@
       <c r="C26" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="286"/>
+      <c r="D26" s="289"/>
       <c r="E26" s="164" t="s">
         <v>325</v>
       </c>
@@ -29910,7 +29907,7 @@
       <c r="C27" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="286"/>
+      <c r="D27" s="289"/>
       <c r="E27" s="164" t="s">
         <v>325</v>
       </c>
@@ -29933,7 +29930,7 @@
       <c r="C28" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="286"/>
+      <c r="D28" s="289"/>
       <c r="E28" s="164" t="s">
         <v>325</v>
       </c>
@@ -29956,7 +29953,7 @@
       <c r="C29" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="286"/>
+      <c r="D29" s="289"/>
       <c r="E29" s="164" t="s">
         <v>325</v>
       </c>
@@ -29979,7 +29976,7 @@
       <c r="C30" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="286"/>
+      <c r="D30" s="289"/>
       <c r="E30" s="164" t="s">
         <v>325</v>
       </c>
@@ -30002,7 +29999,7 @@
       <c r="C31" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="286"/>
+      <c r="D31" s="289"/>
       <c r="E31" s="164" t="s">
         <v>325</v>
       </c>
@@ -30025,7 +30022,7 @@
       <c r="C32" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="286"/>
+      <c r="D32" s="289"/>
       <c r="E32" s="164" t="s">
         <v>325</v>
       </c>
@@ -30048,7 +30045,7 @@
       <c r="C33" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="286"/>
+      <c r="D33" s="289"/>
       <c r="E33" s="164" t="s">
         <v>325</v>
       </c>
@@ -30071,7 +30068,7 @@
       <c r="C34" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="286"/>
+      <c r="D34" s="289"/>
       <c r="E34" s="164" t="s">
         <v>325</v>
       </c>
@@ -30094,7 +30091,7 @@
       <c r="C35" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="286"/>
+      <c r="D35" s="289"/>
       <c r="E35" s="164" t="s">
         <v>325</v>
       </c>
@@ -30117,7 +30114,7 @@
       <c r="C36" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="286"/>
+      <c r="D36" s="289"/>
       <c r="E36" s="164" t="s">
         <v>325</v>
       </c>
@@ -30140,7 +30137,7 @@
       <c r="C37" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="286"/>
+      <c r="D37" s="289"/>
       <c r="E37" s="164" t="s">
         <v>325</v>
       </c>
@@ -30163,7 +30160,7 @@
       <c r="C38" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="286"/>
+      <c r="D38" s="289"/>
       <c r="E38" s="164" t="s">
         <v>325</v>
       </c>
@@ -30186,7 +30183,7 @@
       <c r="C39" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="286"/>
+      <c r="D39" s="289"/>
       <c r="E39" s="164" t="s">
         <v>325</v>
       </c>
@@ -30209,7 +30206,7 @@
       <c r="C40" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="286"/>
+      <c r="D40" s="289"/>
       <c r="E40" s="164" t="s">
         <v>325</v>
       </c>
@@ -30232,7 +30229,7 @@
       <c r="C41" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="286"/>
+      <c r="D41" s="289"/>
       <c r="E41" s="164" t="s">
         <v>325</v>
       </c>
@@ -30255,7 +30252,7 @@
       <c r="C42" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="286"/>
+      <c r="D42" s="289"/>
       <c r="E42" s="164" t="s">
         <v>325</v>
       </c>
@@ -30278,7 +30275,7 @@
       <c r="C43" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="286"/>
+      <c r="D43" s="289"/>
       <c r="E43" s="164" t="s">
         <v>325</v>
       </c>
@@ -30301,7 +30298,7 @@
       <c r="C44" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="286"/>
+      <c r="D44" s="289"/>
       <c r="E44" s="164" t="s">
         <v>325</v>
       </c>
@@ -30324,7 +30321,7 @@
       <c r="C45" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="286"/>
+      <c r="D45" s="289"/>
       <c r="E45" s="164" t="s">
         <v>325</v>
       </c>
@@ -30347,7 +30344,7 @@
       <c r="C46" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="286"/>
+      <c r="D46" s="289"/>
       <c r="E46" s="164" t="s">
         <v>325</v>
       </c>
@@ -30370,7 +30367,7 @@
       <c r="C47" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="286"/>
+      <c r="D47" s="289"/>
       <c r="E47" s="164" t="s">
         <v>325</v>
       </c>
@@ -30393,7 +30390,7 @@
       <c r="C48" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="286"/>
+      <c r="D48" s="289"/>
       <c r="E48" s="164" t="s">
         <v>325</v>
       </c>
@@ -30416,7 +30413,7 @@
       <c r="C49" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="286"/>
+      <c r="D49" s="289"/>
       <c r="E49" s="164" t="s">
         <v>325</v>
       </c>
@@ -30439,7 +30436,7 @@
       <c r="C50" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="285"/>
+      <c r="D50" s="290"/>
       <c r="E50" s="164" t="s">
         <v>325</v>
       </c>
@@ -30491,7 +30488,7 @@
       <c r="C51" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="286" t="s">
+      <c r="D51" s="289" t="s">
         <v>163</v>
       </c>
       <c r="E51" s="164" t="s">
@@ -30516,7 +30513,7 @@
       <c r="C52" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="286"/>
+      <c r="D52" s="289"/>
       <c r="E52" s="164" t="s">
         <v>325</v>
       </c>
@@ -30539,7 +30536,7 @@
       <c r="C53" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="286"/>
+      <c r="D53" s="289"/>
       <c r="E53" s="164" t="s">
         <v>325</v>
       </c>
@@ -30562,7 +30559,7 @@
       <c r="C54" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="286"/>
+      <c r="D54" s="289"/>
       <c r="E54" s="164" t="s">
         <v>325</v>
       </c>
@@ -30585,7 +30582,7 @@
       <c r="C55" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="286"/>
+      <c r="D55" s="289"/>
       <c r="E55" s="164" t="s">
         <v>325</v>
       </c>
@@ -30608,7 +30605,7 @@
       <c r="C56" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="286"/>
+      <c r="D56" s="289"/>
       <c r="E56" s="164" t="s">
         <v>325</v>
       </c>
@@ -30631,7 +30628,7 @@
       <c r="C57" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="286"/>
+      <c r="D57" s="289"/>
       <c r="E57" s="164" t="s">
         <v>325</v>
       </c>
@@ -30654,7 +30651,7 @@
       <c r="C58" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="286"/>
+      <c r="D58" s="289"/>
       <c r="E58" s="164" t="s">
         <v>325</v>
       </c>
@@ -30677,7 +30674,7 @@
       <c r="C59" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="286"/>
+      <c r="D59" s="289"/>
       <c r="E59" s="164" t="s">
         <v>325</v>
       </c>
@@ -30700,7 +30697,7 @@
       <c r="C60" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="286"/>
+      <c r="D60" s="289"/>
       <c r="E60" s="164" t="s">
         <v>325</v>
       </c>
@@ -30723,7 +30720,7 @@
       <c r="C61" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="286"/>
+      <c r="D61" s="289"/>
       <c r="E61" s="164" t="s">
         <v>325</v>
       </c>
@@ -30746,7 +30743,7 @@
       <c r="C62" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="286"/>
+      <c r="D62" s="289"/>
       <c r="E62" s="164" t="s">
         <v>325</v>
       </c>
@@ -30769,7 +30766,7 @@
       <c r="C63" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="286"/>
+      <c r="D63" s="289"/>
       <c r="E63" s="164" t="s">
         <v>325</v>
       </c>
@@ -30792,7 +30789,7 @@
       <c r="C64" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="286"/>
+      <c r="D64" s="289"/>
       <c r="E64" s="164" t="s">
         <v>325</v>
       </c>
@@ -30815,7 +30812,7 @@
       <c r="C65" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="286"/>
+      <c r="D65" s="289"/>
       <c r="E65" s="164" t="s">
         <v>325</v>
       </c>
@@ -30838,7 +30835,7 @@
       <c r="C66" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="286"/>
+      <c r="D66" s="289"/>
       <c r="E66" s="164" t="s">
         <v>325</v>
       </c>
@@ -30861,7 +30858,7 @@
       <c r="C67" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="286"/>
+      <c r="D67" s="289"/>
       <c r="E67" s="164" t="s">
         <v>325</v>
       </c>
@@ -30884,7 +30881,7 @@
       <c r="C68" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="286"/>
+      <c r="D68" s="289"/>
       <c r="E68" s="164" t="s">
         <v>325</v>
       </c>
@@ -30907,7 +30904,7 @@
       <c r="C69" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="286"/>
+      <c r="D69" s="289"/>
       <c r="E69" s="164" t="s">
         <v>325</v>
       </c>
@@ -30930,7 +30927,7 @@
       <c r="C70" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="285"/>
+      <c r="D70" s="290"/>
       <c r="E70" s="164" t="s">
         <v>325</v>
       </c>
@@ -30982,7 +30979,7 @@
       <c r="C71" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="286" t="s">
+      <c r="D71" s="289" t="s">
         <v>177</v>
       </c>
       <c r="E71" s="164" t="s">
@@ -31007,7 +31004,7 @@
       <c r="C72" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="286"/>
+      <c r="D72" s="289"/>
       <c r="E72" s="164" t="s">
         <v>325</v>
       </c>
@@ -31030,7 +31027,7 @@
       <c r="C73" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="286"/>
+      <c r="D73" s="289"/>
       <c r="E73" s="164" t="s">
         <v>325</v>
       </c>
@@ -31053,7 +31050,7 @@
       <c r="C74" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="286"/>
+      <c r="D74" s="289"/>
       <c r="E74" s="164" t="s">
         <v>325</v>
       </c>
@@ -31076,7 +31073,7 @@
       <c r="C75" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="286"/>
+      <c r="D75" s="289"/>
       <c r="E75" s="164" t="s">
         <v>325</v>
       </c>
@@ -31099,7 +31096,7 @@
       <c r="C76" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="286"/>
+      <c r="D76" s="289"/>
       <c r="E76" s="164" t="s">
         <v>325</v>
       </c>
@@ -31122,7 +31119,7 @@
       <c r="C77" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D77" s="286"/>
+      <c r="D77" s="289"/>
       <c r="E77" s="164" t="s">
         <v>325</v>
       </c>
@@ -31145,7 +31142,7 @@
       <c r="C78" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D78" s="286"/>
+      <c r="D78" s="289"/>
       <c r="E78" s="164" t="s">
         <v>325</v>
       </c>
@@ -31168,7 +31165,7 @@
       <c r="C79" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="286"/>
+      <c r="D79" s="289"/>
       <c r="E79" s="164" t="s">
         <v>325</v>
       </c>
@@ -31191,7 +31188,7 @@
       <c r="C80" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="D80" s="286"/>
+      <c r="D80" s="289"/>
       <c r="E80" s="164" t="s">
         <v>325</v>
       </c>
@@ -31214,7 +31211,7 @@
       <c r="C81" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="D81" s="286"/>
+      <c r="D81" s="289"/>
       <c r="E81" s="164" t="s">
         <v>325</v>
       </c>
@@ -31237,7 +31234,7 @@
       <c r="C82" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="285"/>
+      <c r="D82" s="290"/>
       <c r="E82" s="164" t="s">
         <v>325</v>
       </c>
@@ -31289,7 +31286,7 @@
       <c r="C83" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="D83" s="284" t="s">
+      <c r="D83" s="291" t="s">
         <v>187</v>
       </c>
       <c r="E83" s="164" t="s">
@@ -31314,7 +31311,7 @@
       <c r="C84" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="285"/>
+      <c r="D84" s="290"/>
       <c r="E84" s="164" t="s">
         <v>325</v>
       </c>
@@ -31366,7 +31363,7 @@
       <c r="C85" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="D85" s="284" t="s">
+      <c r="D85" s="291" t="s">
         <v>190</v>
       </c>
       <c r="E85" s="164" t="s">
@@ -31391,7 +31388,7 @@
       <c r="C86" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="285"/>
+      <c r="D86" s="290"/>
       <c r="E86" s="164" t="s">
         <v>325</v>
       </c>
@@ -31551,7 +31548,7 @@
       <c r="C89" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="284" t="s">
+      <c r="D89" s="291" t="s">
         <v>196</v>
       </c>
       <c r="E89" s="164" t="s">
@@ -31576,7 +31573,7 @@
       <c r="C90" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="286"/>
+      <c r="D90" s="289"/>
       <c r="E90" s="164" t="s">
         <v>325</v>
       </c>
@@ -31599,7 +31596,7 @@
       <c r="C91" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="D91" s="285"/>
+      <c r="D91" s="290"/>
       <c r="E91" s="164" t="s">
         <v>325</v>
       </c>
@@ -31651,7 +31648,7 @@
       <c r="C92" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="284" t="s">
+      <c r="D92" s="291" t="s">
         <v>200</v>
       </c>
       <c r="E92" s="164" t="s">
@@ -31676,7 +31673,7 @@
       <c r="C93" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D93" s="286"/>
+      <c r="D93" s="289"/>
       <c r="E93" s="164" t="s">
         <v>325</v>
       </c>
@@ -31699,7 +31696,7 @@
       <c r="C94" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D94" s="286"/>
+      <c r="D94" s="289"/>
       <c r="E94" s="164" t="s">
         <v>325</v>
       </c>
@@ -31722,7 +31719,7 @@
       <c r="C95" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="D95" s="286"/>
+      <c r="D95" s="289"/>
       <c r="E95" s="164" t="s">
         <v>325</v>
       </c>
@@ -31745,7 +31742,7 @@
       <c r="C96" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="286"/>
+      <c r="D96" s="289"/>
       <c r="E96" s="164" t="s">
         <v>325</v>
       </c>
@@ -31768,7 +31765,7 @@
       <c r="C97" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="286"/>
+      <c r="D97" s="289"/>
       <c r="E97" s="164" t="s">
         <v>325</v>
       </c>
@@ -31791,7 +31788,7 @@
       <c r="C98" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="286"/>
+      <c r="D98" s="289"/>
       <c r="E98" s="164" t="s">
         <v>325</v>
       </c>
@@ -31814,7 +31811,7 @@
       <c r="C99" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="286"/>
+      <c r="D99" s="289"/>
       <c r="E99" s="164" t="s">
         <v>325</v>
       </c>
@@ -31837,7 +31834,7 @@
       <c r="C100" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="D100" s="286"/>
+      <c r="D100" s="289"/>
       <c r="E100" s="164" t="s">
         <v>325</v>
       </c>
@@ -31860,7 +31857,7 @@
       <c r="C101" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D101" s="286"/>
+      <c r="D101" s="289"/>
       <c r="E101" s="164" t="s">
         <v>325</v>
       </c>
@@ -31883,7 +31880,7 @@
       <c r="C102" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="D102" s="286"/>
+      <c r="D102" s="289"/>
       <c r="E102" s="164" t="s">
         <v>325</v>
       </c>
@@ -31906,7 +31903,7 @@
       <c r="C103" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="286"/>
+      <c r="D103" s="289"/>
       <c r="E103" s="164" t="s">
         <v>325</v>
       </c>
@@ -31929,7 +31926,7 @@
       <c r="C104" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="286"/>
+      <c r="D104" s="289"/>
       <c r="E104" s="164" t="s">
         <v>325</v>
       </c>
@@ -31952,7 +31949,7 @@
       <c r="C105" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="286"/>
+      <c r="D105" s="289"/>
       <c r="E105" s="164" t="s">
         <v>325</v>
       </c>
@@ -31975,7 +31972,7 @@
       <c r="C106" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="286"/>
+      <c r="D106" s="289"/>
       <c r="E106" s="164" t="s">
         <v>325</v>
       </c>
@@ -31998,7 +31995,7 @@
       <c r="C107" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="286"/>
+      <c r="D107" s="289"/>
       <c r="E107" s="164" t="s">
         <v>325</v>
       </c>
@@ -32021,7 +32018,7 @@
       <c r="C108" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="D108" s="286"/>
+      <c r="D108" s="289"/>
       <c r="E108" s="164" t="s">
         <v>325</v>
       </c>
@@ -32044,7 +32041,7 @@
       <c r="C109" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="286"/>
+      <c r="D109" s="289"/>
       <c r="E109" s="164" t="s">
         <v>325</v>
       </c>
@@ -32067,7 +32064,7 @@
       <c r="C110" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="286"/>
+      <c r="D110" s="289"/>
       <c r="E110" s="164" t="s">
         <v>325</v>
       </c>
@@ -32090,7 +32087,7 @@
       <c r="C111" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="D111" s="286"/>
+      <c r="D111" s="289"/>
       <c r="E111" s="164" t="s">
         <v>325</v>
       </c>
@@ -32113,7 +32110,7 @@
       <c r="C112" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="286"/>
+      <c r="D112" s="289"/>
       <c r="E112" s="164" t="s">
         <v>325</v>
       </c>
@@ -32136,7 +32133,7 @@
       <c r="C113" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="D113" s="286"/>
+      <c r="D113" s="289"/>
       <c r="E113" s="164" t="s">
         <v>325</v>
       </c>
@@ -32159,7 +32156,7 @@
       <c r="C114" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="D114" s="286"/>
+      <c r="D114" s="289"/>
       <c r="E114" s="164" t="s">
         <v>325</v>
       </c>
@@ -32182,7 +32179,7 @@
       <c r="C115" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="D115" s="286"/>
+      <c r="D115" s="289"/>
       <c r="E115" s="164" t="s">
         <v>325</v>
       </c>
@@ -32205,7 +32202,7 @@
       <c r="C116" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="D116" s="286"/>
+      <c r="D116" s="289"/>
       <c r="E116" s="164" t="s">
         <v>325</v>
       </c>
@@ -32228,7 +32225,7 @@
       <c r="C117" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="D117" s="286"/>
+      <c r="D117" s="289"/>
       <c r="E117" s="164" t="s">
         <v>325</v>
       </c>
@@ -32251,7 +32248,7 @@
       <c r="C118" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="D118" s="286"/>
+      <c r="D118" s="289"/>
       <c r="E118" s="164" t="s">
         <v>325</v>
       </c>
@@ -32274,7 +32271,7 @@
       <c r="C119" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="D119" s="286"/>
+      <c r="D119" s="289"/>
       <c r="E119" s="164" t="s">
         <v>325</v>
       </c>
@@ -32297,7 +32294,7 @@
       <c r="C120" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="286"/>
+      <c r="D120" s="289"/>
       <c r="E120" s="164" t="s">
         <v>325</v>
       </c>
@@ -32320,7 +32317,7 @@
       <c r="C121" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="D121" s="286"/>
+      <c r="D121" s="289"/>
       <c r="E121" s="164" t="s">
         <v>325</v>
       </c>
@@ -32343,7 +32340,7 @@
       <c r="C122" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="D122" s="285"/>
+      <c r="D122" s="290"/>
       <c r="E122" s="164" t="s">
         <v>325</v>
       </c>
@@ -32395,7 +32392,7 @@
       <c r="C123" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="D123" s="284" t="s">
+      <c r="D123" s="291" t="s">
         <v>227</v>
       </c>
       <c r="E123" s="164" t="s">
@@ -32420,7 +32417,7 @@
       <c r="C124" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="D124" s="286"/>
+      <c r="D124" s="289"/>
       <c r="E124" s="164" t="s">
         <v>325</v>
       </c>
@@ -32443,7 +32440,7 @@
       <c r="C125" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D125" s="286"/>
+      <c r="D125" s="289"/>
       <c r="E125" s="164" t="s">
         <v>325</v>
       </c>
@@ -32466,7 +32463,7 @@
       <c r="C126" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="D126" s="286"/>
+      <c r="D126" s="289"/>
       <c r="E126" s="164" t="s">
         <v>325</v>
       </c>
@@ -32489,7 +32486,7 @@
       <c r="C127" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="D127" s="286"/>
+      <c r="D127" s="289"/>
       <c r="E127" s="164" t="s">
         <v>325</v>
       </c>
@@ -32512,7 +32509,7 @@
       <c r="C128" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D128" s="286"/>
+      <c r="D128" s="289"/>
       <c r="E128" s="164" t="s">
         <v>325</v>
       </c>
@@ -32535,7 +32532,7 @@
       <c r="C129" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="D129" s="285"/>
+      <c r="D129" s="290"/>
       <c r="E129" s="164" t="s">
         <v>325</v>
       </c>
@@ -32587,7 +32584,7 @@
       <c r="C130" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="D130" s="287" t="s">
+      <c r="D130" s="295" t="s">
         <v>231</v>
       </c>
       <c r="E130" s="164" t="s">
@@ -32612,7 +32609,7 @@
       <c r="C131" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="D131" s="287"/>
+      <c r="D131" s="295"/>
       <c r="E131" s="164" t="s">
         <v>325</v>
       </c>
@@ -32635,7 +32632,7 @@
       <c r="C132" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D132" s="287"/>
+      <c r="D132" s="295"/>
       <c r="E132" s="164" t="s">
         <v>325</v>
       </c>
@@ -32658,7 +32655,7 @@
       <c r="C133" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="D133" s="287"/>
+      <c r="D133" s="295"/>
       <c r="E133" s="164" t="s">
         <v>325</v>
       </c>
@@ -32681,7 +32678,7 @@
       <c r="C134" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="D134" s="288"/>
+      <c r="D134" s="296"/>
       <c r="E134" s="164" t="s">
         <v>325</v>
       </c>
@@ -32704,7 +32701,7 @@
       <c r="C135" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D135" s="282" t="s">
+      <c r="D135" s="284" t="s">
         <v>237</v>
       </c>
       <c r="E135" s="164" t="s">
@@ -32729,7 +32726,7 @@
       <c r="C136" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="D136" s="282"/>
+      <c r="D136" s="284"/>
       <c r="E136" s="164" t="s">
         <v>325</v>
       </c>
@@ -32752,7 +32749,7 @@
       <c r="C137" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="D137" s="282"/>
+      <c r="D137" s="284"/>
       <c r="E137" s="164" t="s">
         <v>325</v>
       </c>
@@ -32775,7 +32772,7 @@
       <c r="C138" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="D138" s="282"/>
+      <c r="D138" s="284"/>
       <c r="E138" s="164" t="s">
         <v>325</v>
       </c>
@@ -32798,7 +32795,7 @@
       <c r="C139" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D139" s="282"/>
+      <c r="D139" s="284"/>
       <c r="E139" s="164" t="s">
         <v>325</v>
       </c>
@@ -32821,7 +32818,7 @@
       <c r="C140" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D140" s="282"/>
+      <c r="D140" s="284"/>
       <c r="E140" s="164" t="s">
         <v>325</v>
       </c>
@@ -32844,7 +32841,7 @@
       <c r="C141" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D141" s="282"/>
+      <c r="D141" s="284"/>
       <c r="E141" s="164" t="s">
         <v>325</v>
       </c>
@@ -32867,7 +32864,7 @@
       <c r="C142" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="D142" s="282"/>
+      <c r="D142" s="284"/>
       <c r="E142" s="164" t="s">
         <v>325</v>
       </c>
@@ -32890,7 +32887,7 @@
       <c r="C143" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D143" s="282"/>
+      <c r="D143" s="284"/>
       <c r="E143" s="164" t="s">
         <v>325</v>
       </c>
@@ -32913,7 +32910,7 @@
       <c r="C144" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D144" s="282"/>
+      <c r="D144" s="284"/>
       <c r="E144" s="164" t="s">
         <v>325</v>
       </c>
@@ -32936,7 +32933,7 @@
       <c r="C145" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D145" s="282"/>
+      <c r="D145" s="284"/>
       <c r="E145" s="164" t="s">
         <v>325</v>
       </c>
@@ -32959,7 +32956,7 @@
       <c r="C146" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D146" s="282"/>
+      <c r="D146" s="284"/>
       <c r="E146" s="164" t="s">
         <v>325</v>
       </c>
@@ -32982,7 +32979,7 @@
       <c r="C147" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="D147" s="282"/>
+      <c r="D147" s="284"/>
       <c r="E147" s="164" t="s">
         <v>325</v>
       </c>
@@ -33005,7 +33002,7 @@
       <c r="C148" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D148" s="282"/>
+      <c r="D148" s="284"/>
       <c r="E148" s="164" t="s">
         <v>325</v>
       </c>
@@ -33028,7 +33025,7 @@
       <c r="C149" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="D149" s="282"/>
+      <c r="D149" s="284"/>
       <c r="E149" s="164" t="s">
         <v>325</v>
       </c>
@@ -33051,7 +33048,7 @@
       <c r="C150" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="D150" s="282"/>
+      <c r="D150" s="284"/>
       <c r="E150" s="164" t="s">
         <v>325</v>
       </c>
@@ -33074,7 +33071,7 @@
       <c r="C151" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="282"/>
+      <c r="D151" s="284"/>
       <c r="E151" s="164" t="s">
         <v>325</v>
       </c>
@@ -33097,7 +33094,7 @@
       <c r="C152" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="282"/>
+      <c r="D152" s="284"/>
       <c r="E152" s="164" t="s">
         <v>325</v>
       </c>
@@ -33120,7 +33117,7 @@
       <c r="C153" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="282"/>
+      <c r="D153" s="284"/>
       <c r="E153" s="164" t="s">
         <v>325</v>
       </c>
@@ -33143,7 +33140,7 @@
       <c r="C154" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="D154" s="282"/>
+      <c r="D154" s="284"/>
       <c r="E154" s="164" t="s">
         <v>325</v>
       </c>
@@ -33166,7 +33163,7 @@
       <c r="C155" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="282"/>
+      <c r="D155" s="284"/>
       <c r="E155" s="164" t="s">
         <v>325</v>
       </c>
@@ -33189,7 +33186,7 @@
       <c r="C156" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="D156" s="282"/>
+      <c r="D156" s="284"/>
       <c r="E156" s="164" t="s">
         <v>325</v>
       </c>
@@ -33212,7 +33209,7 @@
       <c r="C157" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="D157" s="282"/>
+      <c r="D157" s="284"/>
       <c r="E157" s="164" t="s">
         <v>325</v>
       </c>
@@ -33235,7 +33232,7 @@
       <c r="C158" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="D158" s="282"/>
+      <c r="D158" s="284"/>
       <c r="E158" s="164" t="s">
         <v>325</v>
       </c>
@@ -33258,7 +33255,7 @@
       <c r="C159" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="D159" s="282"/>
+      <c r="D159" s="284"/>
       <c r="E159" s="164" t="s">
         <v>325</v>
       </c>
@@ -33281,7 +33278,7 @@
       <c r="C160" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="D160" s="282"/>
+      <c r="D160" s="284"/>
       <c r="E160" s="164" t="s">
         <v>325</v>
       </c>
@@ -33304,7 +33301,7 @@
       <c r="C161" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="D161" s="282"/>
+      <c r="D161" s="284"/>
       <c r="E161" s="164" t="s">
         <v>325</v>
       </c>
@@ -33327,7 +33324,7 @@
       <c r="C162" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="D162" s="282"/>
+      <c r="D162" s="284"/>
       <c r="E162" s="164" t="s">
         <v>325</v>
       </c>
@@ -33350,7 +33347,7 @@
       <c r="C163" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="D163" s="282"/>
+      <c r="D163" s="284"/>
       <c r="E163" s="164" t="s">
         <v>325</v>
       </c>
@@ -33373,7 +33370,7 @@
       <c r="C164" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="D164" s="282"/>
+      <c r="D164" s="284"/>
       <c r="E164" s="164" t="s">
         <v>325</v>
       </c>
@@ -33396,7 +33393,7 @@
       <c r="C165" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="D165" s="282"/>
+      <c r="D165" s="284"/>
       <c r="E165" s="164" t="s">
         <v>325</v>
       </c>
@@ -33419,7 +33416,7 @@
       <c r="C166" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="D166" s="282"/>
+      <c r="D166" s="284"/>
       <c r="E166" s="164" t="s">
         <v>325</v>
       </c>
@@ -33442,7 +33439,7 @@
       <c r="C167" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="D167" s="282"/>
+      <c r="D167" s="284"/>
       <c r="E167" s="164" t="s">
         <v>325</v>
       </c>
@@ -33465,7 +33462,7 @@
       <c r="C168" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="D168" s="282"/>
+      <c r="D168" s="284"/>
       <c r="E168" s="164" t="s">
         <v>325</v>
       </c>
@@ -33488,7 +33485,7 @@
       <c r="C169" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="D169" s="282"/>
+      <c r="D169" s="284"/>
       <c r="E169" s="164" t="s">
         <v>325</v>
       </c>
@@ -33511,7 +33508,7 @@
       <c r="C170" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="D170" s="282"/>
+      <c r="D170" s="284"/>
       <c r="E170" s="164" t="s">
         <v>325</v>
       </c>
@@ -33534,7 +33531,7 @@
       <c r="C171" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="D171" s="282"/>
+      <c r="D171" s="284"/>
       <c r="E171" s="164" t="s">
         <v>325</v>
       </c>
@@ -33557,7 +33554,7 @@
       <c r="C172" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="D172" s="282"/>
+      <c r="D172" s="284"/>
       <c r="E172" s="164" t="s">
         <v>325</v>
       </c>
@@ -33580,7 +33577,7 @@
       <c r="C173" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="D173" s="282"/>
+      <c r="D173" s="284"/>
       <c r="E173" s="164" t="s">
         <v>325</v>
       </c>
@@ -33603,7 +33600,7 @@
       <c r="C174" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="D174" s="282"/>
+      <c r="D174" s="284"/>
       <c r="E174" s="164" t="s">
         <v>325</v>
       </c>
@@ -33626,7 +33623,7 @@
       <c r="C175" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="D175" s="282"/>
+      <c r="D175" s="284"/>
       <c r="E175" s="164" t="s">
         <v>325</v>
       </c>
@@ -33649,7 +33646,7 @@
       <c r="C176" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="D176" s="282"/>
+      <c r="D176" s="284"/>
       <c r="E176" s="164" t="s">
         <v>325</v>
       </c>
@@ -33672,7 +33669,7 @@
       <c r="C177" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="D177" s="282"/>
+      <c r="D177" s="284"/>
       <c r="E177" s="164" t="s">
         <v>325</v>
       </c>
@@ -33695,7 +33692,7 @@
       <c r="C178" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="D178" s="282"/>
+      <c r="D178" s="284"/>
       <c r="E178" s="164" t="s">
         <v>325</v>
       </c>
@@ -33718,7 +33715,7 @@
       <c r="C179" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="D179" s="282"/>
+      <c r="D179" s="284"/>
       <c r="E179" s="164" t="s">
         <v>325</v>
       </c>
@@ -33741,7 +33738,7 @@
       <c r="C180" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="D180" s="282"/>
+      <c r="D180" s="284"/>
       <c r="E180" s="164" t="s">
         <v>325</v>
       </c>
@@ -33764,7 +33761,7 @@
       <c r="C181" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="D181" s="282"/>
+      <c r="D181" s="284"/>
       <c r="E181" s="164" t="s">
         <v>325</v>
       </c>
@@ -33787,7 +33784,7 @@
       <c r="C182" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="D182" s="282"/>
+      <c r="D182" s="284"/>
       <c r="E182" s="164" t="s">
         <v>325</v>
       </c>
@@ -33810,7 +33807,7 @@
       <c r="C183" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="D183" s="282"/>
+      <c r="D183" s="284"/>
       <c r="E183" s="164" t="s">
         <v>325</v>
       </c>
@@ -33833,7 +33830,7 @@
       <c r="C184" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D184" s="282"/>
+      <c r="D184" s="284"/>
       <c r="E184" s="164" t="s">
         <v>325</v>
       </c>
@@ -33856,7 +33853,7 @@
       <c r="C185" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D185" s="282"/>
+      <c r="D185" s="284"/>
       <c r="E185" s="164" t="s">
         <v>325</v>
       </c>
@@ -33879,7 +33876,7 @@
       <c r="C186" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D186" s="282"/>
+      <c r="D186" s="284"/>
       <c r="E186" s="164" t="s">
         <v>325</v>
       </c>
@@ -33902,7 +33899,7 @@
       <c r="C187" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D187" s="282"/>
+      <c r="D187" s="284"/>
       <c r="E187" s="164" t="s">
         <v>325</v>
       </c>
@@ -33925,7 +33922,7 @@
       <c r="C188" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D188" s="282"/>
+      <c r="D188" s="284"/>
       <c r="E188" s="164" t="s">
         <v>325</v>
       </c>
@@ -33948,7 +33945,7 @@
       <c r="C189" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D189" s="282"/>
+      <c r="D189" s="284"/>
       <c r="E189" s="164" t="s">
         <v>325</v>
       </c>
@@ -33971,7 +33968,7 @@
       <c r="C190" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D190" s="282"/>
+      <c r="D190" s="284"/>
       <c r="E190" s="164" t="s">
         <v>325</v>
       </c>
@@ -33994,7 +33991,7 @@
       <c r="C191" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D191" s="282"/>
+      <c r="D191" s="284"/>
       <c r="E191" s="164" t="s">
         <v>325</v>
       </c>
@@ -34017,7 +34014,7 @@
       <c r="C192" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D192" s="282"/>
+      <c r="D192" s="284"/>
       <c r="E192" s="164" t="s">
         <v>325</v>
       </c>
@@ -34040,7 +34037,7 @@
       <c r="C193" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D193" s="282"/>
+      <c r="D193" s="284"/>
       <c r="E193" s="164" t="s">
         <v>325</v>
       </c>
@@ -34063,7 +34060,7 @@
       <c r="C194" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D194" s="282"/>
+      <c r="D194" s="284"/>
       <c r="E194" s="164" t="s">
         <v>325</v>
       </c>
@@ -34086,7 +34083,7 @@
       <c r="C195" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D195" s="282"/>
+      <c r="D195" s="284"/>
       <c r="E195" s="164" t="s">
         <v>325</v>
       </c>
@@ -34109,7 +34106,7 @@
       <c r="C196" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="D196" s="282"/>
+      <c r="D196" s="284"/>
       <c r="E196" s="164" t="s">
         <v>325</v>
       </c>
@@ -34132,7 +34129,7 @@
       <c r="C197" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="D197" s="282"/>
+      <c r="D197" s="284"/>
       <c r="E197" s="164" t="s">
         <v>325</v>
       </c>
@@ -34155,7 +34152,7 @@
       <c r="C198" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D198" s="282"/>
+      <c r="D198" s="284"/>
       <c r="E198" s="164" t="s">
         <v>325</v>
       </c>
@@ -34178,7 +34175,7 @@
       <c r="C199" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D199" s="282"/>
+      <c r="D199" s="284"/>
       <c r="E199" s="164" t="s">
         <v>325</v>
       </c>
@@ -34201,7 +34198,7 @@
       <c r="C200" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D200" s="282"/>
+      <c r="D200" s="284"/>
       <c r="E200" s="164" t="s">
         <v>325</v>
       </c>
@@ -34224,7 +34221,7 @@
       <c r="C201" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D201" s="282"/>
+      <c r="D201" s="284"/>
       <c r="E201" s="164" t="s">
         <v>325</v>
       </c>
@@ -34247,7 +34244,7 @@
       <c r="C202" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="D202" s="282"/>
+      <c r="D202" s="284"/>
       <c r="E202" s="164" t="s">
         <v>325</v>
       </c>
@@ -34270,7 +34267,7 @@
       <c r="C203" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="D203" s="282"/>
+      <c r="D203" s="284"/>
       <c r="E203" s="164" t="s">
         <v>325</v>
       </c>
@@ -34293,7 +34290,7 @@
       <c r="C204" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="D204" s="282"/>
+      <c r="D204" s="284"/>
       <c r="E204" s="164" t="s">
         <v>325</v>
       </c>
@@ -34316,7 +34313,7 @@
       <c r="C205" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="282"/>
+      <c r="D205" s="284"/>
       <c r="E205" s="164" t="s">
         <v>325</v>
       </c>
@@ -34339,7 +34336,7 @@
       <c r="C206" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D206" s="282"/>
+      <c r="D206" s="284"/>
       <c r="E206" s="164" t="s">
         <v>325</v>
       </c>
@@ -34362,7 +34359,7 @@
       <c r="C207" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="D207" s="282"/>
+      <c r="D207" s="284"/>
       <c r="E207" s="164" t="s">
         <v>325</v>
       </c>
@@ -34385,7 +34382,7 @@
       <c r="C208" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="D208" s="282"/>
+      <c r="D208" s="284"/>
       <c r="E208" s="164" t="s">
         <v>325</v>
       </c>
@@ -34408,7 +34405,7 @@
       <c r="C209" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="D209" s="282"/>
+      <c r="D209" s="284"/>
       <c r="E209" s="164" t="s">
         <v>325</v>
       </c>
@@ -34431,7 +34428,7 @@
       <c r="C210" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="D210" s="282"/>
+      <c r="D210" s="284"/>
       <c r="E210" s="164" t="s">
         <v>325</v>
       </c>
@@ -34454,7 +34451,7 @@
       <c r="C211" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D211" s="282"/>
+      <c r="D211" s="284"/>
       <c r="E211" s="164" t="s">
         <v>325</v>
       </c>
@@ -34477,7 +34474,7 @@
       <c r="C212" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D212" s="282"/>
+      <c r="D212" s="284"/>
       <c r="E212" s="164" t="s">
         <v>325</v>
       </c>
@@ -34500,7 +34497,7 @@
       <c r="C213" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D213" s="282"/>
+      <c r="D213" s="284"/>
       <c r="E213" s="164" t="s">
         <v>325</v>
       </c>
@@ -34523,7 +34520,7 @@
       <c r="C214" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="D214" s="282"/>
+      <c r="D214" s="284"/>
       <c r="E214" s="164" t="s">
         <v>325</v>
       </c>
@@ -34546,7 +34543,7 @@
       <c r="C215" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D215" s="282"/>
+      <c r="D215" s="284"/>
       <c r="E215" s="164" t="s">
         <v>325</v>
       </c>
@@ -34569,7 +34566,7 @@
       <c r="C216" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="D216" s="282"/>
+      <c r="D216" s="284"/>
       <c r="E216" s="164" t="s">
         <v>325</v>
       </c>
@@ -34592,7 +34589,7 @@
       <c r="C217" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="D217" s="282"/>
+      <c r="D217" s="284"/>
       <c r="E217" s="164" t="s">
         <v>325</v>
       </c>
@@ -34615,7 +34612,7 @@
       <c r="C218" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="D218" s="283"/>
+      <c r="D218" s="285"/>
       <c r="E218" s="164" t="s">
         <v>325</v>
       </c>
@@ -34638,7 +34635,7 @@
       <c r="C219" s="112" t="s">
         <v>268</v>
       </c>
-      <c r="D219" s="281" t="s">
+      <c r="D219" s="283" t="s">
         <v>291</v>
       </c>
       <c r="E219" s="164" t="s">
@@ -34663,7 +34660,7 @@
       <c r="C220" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="D220" s="282"/>
+      <c r="D220" s="284"/>
       <c r="E220" s="164" t="s">
         <v>325</v>
       </c>
@@ -34686,7 +34683,7 @@
       <c r="C221" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="D221" s="282"/>
+      <c r="D221" s="284"/>
       <c r="E221" s="164" t="s">
         <v>325</v>
       </c>
@@ -34709,7 +34706,7 @@
       <c r="C222" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D222" s="282"/>
+      <c r="D222" s="284"/>
       <c r="E222" s="164" t="s">
         <v>325</v>
       </c>
@@ -34732,7 +34729,7 @@
       <c r="C223" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D223" s="282"/>
+      <c r="D223" s="284"/>
       <c r="E223" s="164" t="s">
         <v>325</v>
       </c>
@@ -34755,7 +34752,7 @@
       <c r="C224" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D224" s="282"/>
+      <c r="D224" s="284"/>
       <c r="E224" s="164" t="s">
         <v>325</v>
       </c>
@@ -34778,7 +34775,7 @@
       <c r="C225" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D225" s="282"/>
+      <c r="D225" s="284"/>
       <c r="E225" s="164" t="s">
         <v>325</v>
       </c>
@@ -34801,7 +34798,7 @@
       <c r="C226" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D226" s="282"/>
+      <c r="D226" s="284"/>
       <c r="E226" s="164" t="s">
         <v>325</v>
       </c>
@@ -34824,7 +34821,7 @@
       <c r="C227" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D227" s="282"/>
+      <c r="D227" s="284"/>
       <c r="E227" s="164" t="s">
         <v>325</v>
       </c>
@@ -34847,7 +34844,7 @@
       <c r="C228" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D228" s="282"/>
+      <c r="D228" s="284"/>
       <c r="E228" s="164" t="s">
         <v>325</v>
       </c>
@@ -34870,7 +34867,7 @@
       <c r="C229" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="D229" s="283"/>
+      <c r="D229" s="285"/>
       <c r="E229" s="164" t="s">
         <v>325</v>
       </c>
@@ -34918,7 +34915,7 @@
       <c r="C231" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="D231" s="281" t="s">
+      <c r="D231" s="283" t="s">
         <v>295</v>
       </c>
       <c r="E231" s="164" t="s">
@@ -34943,7 +34940,7 @@
       <c r="C232" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="D232" s="283"/>
+      <c r="D232" s="285"/>
       <c r="E232" s="164" t="s">
         <v>325</v>
       </c>
@@ -34966,7 +34963,7 @@
       <c r="C233" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="D233" s="281" t="s">
+      <c r="D233" s="283" t="s">
         <v>296</v>
       </c>
       <c r="E233" s="164" t="s">
@@ -34991,7 +34988,7 @@
       <c r="C234" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="D234" s="282"/>
+      <c r="D234" s="284"/>
       <c r="E234" s="164" t="s">
         <v>325</v>
       </c>
@@ -35014,7 +35011,7 @@
       <c r="C235" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D235" s="282"/>
+      <c r="D235" s="284"/>
       <c r="E235" s="164" t="s">
         <v>325</v>
       </c>
@@ -35037,7 +35034,7 @@
       <c r="C236" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D236" s="282"/>
+      <c r="D236" s="284"/>
       <c r="E236" s="164" t="s">
         <v>325</v>
       </c>
@@ -35060,7 +35057,7 @@
       <c r="C237" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="D237" s="282"/>
+      <c r="D237" s="284"/>
       <c r="E237" s="164" t="s">
         <v>325</v>
       </c>
@@ -35083,7 +35080,7 @@
       <c r="C238" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="D238" s="282"/>
+      <c r="D238" s="284"/>
       <c r="E238" s="164" t="s">
         <v>325</v>
       </c>
@@ -35106,7 +35103,7 @@
       <c r="C239" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D239" s="282"/>
+      <c r="D239" s="284"/>
       <c r="E239" s="164" t="s">
         <v>325</v>
       </c>
@@ -35129,7 +35126,7 @@
       <c r="C240" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D240" s="282"/>
+      <c r="D240" s="284"/>
       <c r="E240" s="164" t="s">
         <v>325</v>
       </c>
@@ -35152,7 +35149,7 @@
       <c r="C241" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D241" s="282"/>
+      <c r="D241" s="284"/>
       <c r="E241" s="164" t="s">
         <v>325</v>
       </c>
@@ -35175,7 +35172,7 @@
       <c r="C242" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D242" s="282"/>
+      <c r="D242" s="284"/>
       <c r="E242" s="164" t="s">
         <v>325</v>
       </c>
@@ -35198,7 +35195,7 @@
       <c r="C243" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="D243" s="282"/>
+      <c r="D243" s="284"/>
       <c r="E243" s="164" t="s">
         <v>325</v>
       </c>
@@ -35221,7 +35218,7 @@
       <c r="C244" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="D244" s="282"/>
+      <c r="D244" s="284"/>
       <c r="E244" s="164" t="s">
         <v>325</v>
       </c>
@@ -35244,7 +35241,7 @@
       <c r="C245" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="D245" s="282"/>
+      <c r="D245" s="284"/>
       <c r="E245" s="164" t="s">
         <v>325</v>
       </c>
@@ -35267,7 +35264,7 @@
       <c r="C246" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="D246" s="282"/>
+      <c r="D246" s="284"/>
       <c r="E246" s="164" t="s">
         <v>325</v>
       </c>
@@ -35290,7 +35287,7 @@
       <c r="C247" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="D247" s="282"/>
+      <c r="D247" s="284"/>
       <c r="E247" s="164" t="s">
         <v>325</v>
       </c>
@@ -35313,7 +35310,7 @@
       <c r="C248" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="D248" s="282"/>
+      <c r="D248" s="284"/>
       <c r="E248" s="164" t="s">
         <v>325</v>
       </c>
@@ -35336,7 +35333,7 @@
       <c r="C249" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="D249" s="282"/>
+      <c r="D249" s="284"/>
       <c r="E249" s="164" t="s">
         <v>325</v>
       </c>
@@ -35359,7 +35356,7 @@
       <c r="C250" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="D250" s="282"/>
+      <c r="D250" s="284"/>
       <c r="E250" s="164" t="s">
         <v>325</v>
       </c>
@@ -35382,7 +35379,7 @@
       <c r="C251" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D251" s="282"/>
+      <c r="D251" s="284"/>
       <c r="E251" s="164" t="s">
         <v>325</v>
       </c>
@@ -35405,7 +35402,7 @@
       <c r="C252" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D252" s="282"/>
+      <c r="D252" s="284"/>
       <c r="E252" s="164" t="s">
         <v>325</v>
       </c>
@@ -35428,7 +35425,7 @@
       <c r="C253" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D253" s="282"/>
+      <c r="D253" s="284"/>
       <c r="E253" s="164" t="s">
         <v>325</v>
       </c>
@@ -35451,7 +35448,7 @@
       <c r="C254" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D254" s="282"/>
+      <c r="D254" s="284"/>
       <c r="E254" s="192" t="s">
         <v>325</v>
       </c>
@@ -35474,7 +35471,7 @@
       <c r="C255" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D255" s="282"/>
+      <c r="D255" s="284"/>
       <c r="E255" s="192" t="s">
         <v>325</v>
       </c>
@@ -35497,7 +35494,7 @@
       <c r="C256" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D256" s="282"/>
+      <c r="D256" s="284"/>
       <c r="E256" s="192" t="s">
         <v>325</v>
       </c>
@@ -35520,7 +35517,7 @@
       <c r="C257" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="D257" s="282"/>
+      <c r="D257" s="284"/>
       <c r="E257" s="192" t="s">
         <v>325</v>
       </c>
@@ -35543,7 +35540,7 @@
       <c r="C258" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D258" s="282"/>
+      <c r="D258" s="284"/>
       <c r="E258" s="192" t="s">
         <v>325</v>
       </c>
@@ -35566,7 +35563,7 @@
       <c r="C259" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="D259" s="282"/>
+      <c r="D259" s="284"/>
       <c r="E259" s="192" t="s">
         <v>325</v>
       </c>
@@ -35589,7 +35586,7 @@
       <c r="C260" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="D260" s="282"/>
+      <c r="D260" s="284"/>
       <c r="E260" s="192" t="s">
         <v>325</v>
       </c>
@@ -35612,7 +35609,7 @@
       <c r="C261" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D261" s="282"/>
+      <c r="D261" s="284"/>
       <c r="E261" s="192" t="s">
         <v>325</v>
       </c>
@@ -35635,7 +35632,7 @@
       <c r="C262" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D262" s="282"/>
+      <c r="D262" s="284"/>
       <c r="E262" s="192" t="s">
         <v>325</v>
       </c>
@@ -35658,7 +35655,7 @@
       <c r="C263" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="D263" s="282"/>
+      <c r="D263" s="284"/>
       <c r="E263" s="192" t="s">
         <v>325</v>
       </c>
@@ -35681,7 +35678,7 @@
       <c r="C264" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="D264" s="282"/>
+      <c r="D264" s="284"/>
       <c r="E264" s="192" t="s">
         <v>325</v>
       </c>
@@ -35704,7 +35701,7 @@
       <c r="C265" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D265" s="282"/>
+      <c r="D265" s="284"/>
       <c r="E265" s="192" t="s">
         <v>325</v>
       </c>
@@ -35727,7 +35724,7 @@
       <c r="C266" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="D266" s="282"/>
+      <c r="D266" s="284"/>
       <c r="E266" s="192" t="s">
         <v>325</v>
       </c>
@@ -35750,7 +35747,7 @@
       <c r="C267" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="D267" s="283"/>
+      <c r="D267" s="285"/>
       <c r="E267" s="192" t="s">
         <v>325</v>
       </c>
@@ -35765,6 +35762,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D233:D267"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D122"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="D135:D218"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
@@ -35777,14 +35782,6 @@
     <mergeCell ref="D71:D82"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D233:D267"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D122"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="D135:D218"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://ppubs.uspto.gov/pubwebapp/external.html?q=(11492403).pn.&amp;db=USPAT&amp;type=ids" xr:uid="{1857059F-94EB-B943-9482-55315B0CB5CC}"/>
@@ -35808,7 +35805,7 @@
   <dimension ref="A1:AD126"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -35823,10 +35820,10 @@
         <v>70</v>
       </c>
       <c r="B1" s="155" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="155" t="s">
         <v>541</v>
-      </c>
-      <c r="C1" s="155" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="19" customHeight="1">
@@ -36296,8 +36293,8 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36318,28 +36315,28 @@
         <v>297</v>
       </c>
       <c r="B1" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="136" t="s">
         <v>331</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>332</v>
       </c>
       <c r="D1" s="136" t="s">
         <v>328</v>
       </c>
       <c r="E1" s="136" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="136" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="136" t="s">
-        <v>330</v>
-      </c>
       <c r="G1" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="136" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="I1" s="136" t="s">
         <v>334</v>
-      </c>
-      <c r="I1" s="136" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -36347,13 +36344,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="165" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="165" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="D2" s="165" t="s">
         <v>337</v>
-      </c>
-      <c r="D2" s="165" t="s">
-        <v>338</v>
       </c>
       <c r="E2" s="165">
         <v>2011</v>
@@ -36362,13 +36359,13 @@
         <v>2019</v>
       </c>
       <c r="G2" s="165" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="165" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="I2" s="165" t="s">
         <v>340</v>
-      </c>
-      <c r="I2" s="165" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -36376,13 +36373,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="165" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="165" t="s">
         <v>342</v>
-      </c>
-      <c r="C3" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="165" t="s">
-        <v>343</v>
       </c>
       <c r="E3" s="165">
         <v>2010</v>
@@ -36391,13 +36388,13 @@
         <v>2020</v>
       </c>
       <c r="G3" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3" s="165" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="165" t="s">
         <v>344</v>
-      </c>
-      <c r="I3" s="165" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -36405,13 +36402,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="165" t="s">
         <v>346</v>
-      </c>
-      <c r="C4" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="165" t="s">
-        <v>347</v>
       </c>
       <c r="E4" s="165">
         <v>2016</v>
@@ -36420,13 +36417,13 @@
         <v>2021</v>
       </c>
       <c r="G4" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H4" s="165" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" s="165" t="s">
         <v>348</v>
-      </c>
-      <c r="I4" s="165" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -36434,13 +36431,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="165" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="165" t="s">
-        <v>351</v>
       </c>
       <c r="E5" s="165">
         <v>2015</v>
@@ -36449,13 +36446,13 @@
         <v>2019</v>
       </c>
       <c r="G5" s="165" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="165" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="165" t="s">
-        <v>340</v>
-      </c>
       <c r="I5" s="165" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -36463,13 +36460,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="165" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="165" t="s">
         <v>352</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="165" t="s">
-        <v>353</v>
       </c>
       <c r="E6" s="165">
         <v>2017</v>
@@ -36478,13 +36475,13 @@
         <v>2020</v>
       </c>
       <c r="G6" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H6" s="165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I6" s="165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -36492,13 +36489,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="165" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="165" t="s">
         <v>438</v>
-      </c>
-      <c r="C7" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="165" t="s">
-        <v>439</v>
       </c>
       <c r="E7" s="165">
         <v>2019</v>
@@ -36507,13 +36504,13 @@
         <v>2021</v>
       </c>
       <c r="G7" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H7" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I7" s="165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -36521,13 +36518,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="165" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="165" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="165" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E8" s="165" t="s">
         <v>59</v>
@@ -36536,13 +36533,13 @@
         <v>2020</v>
       </c>
       <c r="G8" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H8" s="165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I8" s="165" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="24">
@@ -36550,13 +36547,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="165" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="165" t="s">
         <v>441</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="165" t="s">
-        <v>442</v>
       </c>
       <c r="E9" s="165">
         <v>2020</v>
@@ -36565,13 +36562,13 @@
         <v>2021</v>
       </c>
       <c r="G9" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H9" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I9" s="165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P9" s="297"/>
       <c r="Q9" s="297"/>
@@ -36587,13 +36584,13 @@
         <v>66</v>
       </c>
       <c r="B10" s="165" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="165" t="s">
         <v>443</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>444</v>
       </c>
       <c r="E10" s="165">
         <v>2014</v>
@@ -36602,13 +36599,13 @@
         <v>2019</v>
       </c>
       <c r="G10" s="165" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="165" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="165" t="s">
-        <v>340</v>
-      </c>
       <c r="I10" s="165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -36616,13 +36613,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="166" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="166" t="s">
         <v>355</v>
-      </c>
-      <c r="C11" s="166" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="166" t="s">
-        <v>356</v>
       </c>
       <c r="E11" s="166">
         <v>2020</v>
@@ -36631,13 +36628,13 @@
         <v>2021</v>
       </c>
       <c r="G11" s="166" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H11" s="166" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" s="166" t="s">
         <v>348</v>
-      </c>
-      <c r="I11" s="166" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -36645,13 +36642,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="166" t="s">
         <v>357</v>
-      </c>
-      <c r="C12" s="166" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>358</v>
       </c>
       <c r="E12" s="166">
         <v>2015</v>
@@ -36663,10 +36660,10 @@
         <v>2020</v>
       </c>
       <c r="H12" s="166" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="166" t="s">
         <v>359</v>
-      </c>
-      <c r="I12" s="166" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -36674,13 +36671,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="166" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="166" t="s">
         <v>361</v>
-      </c>
-      <c r="C13" s="166" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="166" t="s">
-        <v>362</v>
       </c>
       <c r="E13" s="166">
         <v>2015</v>
@@ -36689,13 +36686,13 @@
         <v>2018</v>
       </c>
       <c r="G13" s="166" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13" s="166" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I13" s="166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -36703,13 +36700,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="166" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="166" t="s">
         <v>364</v>
-      </c>
-      <c r="C14" s="166" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="166" t="s">
-        <v>365</v>
       </c>
       <c r="E14" s="166">
         <v>2011</v>
@@ -36718,13 +36715,13 @@
         <v>2019</v>
       </c>
       <c r="G14" s="166" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" s="166" t="s">
         <v>339</v>
       </c>
-      <c r="H14" s="166" t="s">
-        <v>340</v>
-      </c>
       <c r="I14" s="166" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -36732,13 +36729,13 @@
         <v>67</v>
       </c>
       <c r="B15" s="166" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="166" t="s">
         <v>445</v>
-      </c>
-      <c r="C15" s="166" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="166" t="s">
-        <v>446</v>
       </c>
       <c r="E15" s="166">
         <v>2019</v>
@@ -36747,13 +36744,13 @@
         <v>2020</v>
       </c>
       <c r="G15" s="166" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15" s="166" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I15" s="166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -36761,13 +36758,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="167" t="s">
         <v>350</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="167" t="s">
-        <v>351</v>
       </c>
       <c r="E16" s="167">
         <v>2015</v>
@@ -36776,13 +36773,13 @@
         <v>2015</v>
       </c>
       <c r="G16" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H16" s="167" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I16" s="167" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36790,13 +36787,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="167" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="167" t="s">
         <v>368</v>
-      </c>
-      <c r="C17" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="167" t="s">
-        <v>369</v>
       </c>
       <c r="E17" s="167">
         <v>2012</v>
@@ -36805,13 +36802,13 @@
         <v>2012</v>
       </c>
       <c r="G17" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" s="167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I17" s="167" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -36819,13 +36816,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="167" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D18" s="167" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="167">
         <v>2020</v>
@@ -36834,13 +36831,13 @@
         <v>2020</v>
       </c>
       <c r="G18" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H18" s="167" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I18" s="167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -36848,13 +36845,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="167" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="167" t="s">
         <v>447</v>
-      </c>
-      <c r="C19" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" s="167" t="s">
-        <v>448</v>
       </c>
       <c r="E19" s="167">
         <v>2009</v>
@@ -36866,10 +36863,10 @@
         <v>2016</v>
       </c>
       <c r="H19" s="167" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I19" s="167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -36877,13 +36874,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="167" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="167" t="s">
         <v>450</v>
-      </c>
-      <c r="C20" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" s="167" t="s">
-        <v>451</v>
       </c>
       <c r="E20" s="167">
         <v>2016</v>
@@ -36895,10 +36892,10 @@
         <v>2020</v>
       </c>
       <c r="H20" s="167" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20" s="167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -36906,13 +36903,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="167" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="167" t="s">
         <v>453</v>
-      </c>
-      <c r="C21" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" s="167" t="s">
-        <v>454</v>
       </c>
       <c r="E21" s="167">
         <v>2018</v>
@@ -36921,13 +36918,13 @@
         <v>2018</v>
       </c>
       <c r="G21" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H21" s="167" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I21" s="167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -36935,13 +36932,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="167" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C22" s="167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="167">
         <v>2021</v>
@@ -36950,13 +36947,13 @@
         <v>2021</v>
       </c>
       <c r="G22" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H22" s="167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I22" s="167" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -36964,13 +36961,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="167" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="167" t="s">
         <v>458</v>
-      </c>
-      <c r="C23" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D23" s="167" t="s">
-        <v>459</v>
       </c>
       <c r="E23" s="167">
         <v>2022</v>
@@ -36979,13 +36976,13 @@
         <v>2022</v>
       </c>
       <c r="G23" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H23" s="167" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I23" s="167" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -36993,13 +36990,13 @@
         <v>68</v>
       </c>
       <c r="B24" s="167" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="167" t="s">
         <v>460</v>
-      </c>
-      <c r="C24" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" s="167" t="s">
-        <v>461</v>
       </c>
       <c r="E24" s="167">
         <v>2020</v>
@@ -37008,13 +37005,13 @@
         <v>2020</v>
       </c>
       <c r="G24" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H24" s="167" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I24" s="167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -37022,13 +37019,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="167" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="167" t="s">
         <v>462</v>
-      </c>
-      <c r="C25" s="167" t="s">
-        <v>366</v>
-      </c>
-      <c r="D25" s="167" t="s">
-        <v>463</v>
       </c>
       <c r="E25" s="167">
         <v>2021</v>
@@ -37037,13 +37034,13 @@
         <v>2021</v>
       </c>
       <c r="G25" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H25" s="167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I25" s="167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -37051,13 +37048,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="167" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="167" t="s">
         <v>372</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="167" t="s">
-        <v>373</v>
       </c>
       <c r="E26" s="167">
         <v>2012</v>
@@ -37066,13 +37063,13 @@
         <v>2018</v>
       </c>
       <c r="G26" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H26" s="167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I26" s="167" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -37080,13 +37077,13 @@
         <v>68</v>
       </c>
       <c r="B27" s="167" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="167" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="D27" s="167" t="s">
         <v>375</v>
-      </c>
-      <c r="D27" s="167" t="s">
-        <v>376</v>
       </c>
       <c r="E27" s="167" t="s">
         <v>59</v>
@@ -37095,13 +37092,13 @@
         <v>2021</v>
       </c>
       <c r="G27" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H27" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="I27" s="167" t="s">
         <v>377</v>
-      </c>
-      <c r="I27" s="167" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -37109,13 +37106,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="167" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="167" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="167" t="s">
         <v>379</v>
-      </c>
-      <c r="C28" s="167" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="167" t="s">
-        <v>380</v>
       </c>
       <c r="E28" s="167">
         <v>2014</v>
@@ -37124,13 +37121,13 @@
         <v>2019</v>
       </c>
       <c r="G28" s="167" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="167" t="s">
-        <v>340</v>
-      </c>
       <c r="I28" s="167" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -37138,13 +37135,13 @@
         <v>68</v>
       </c>
       <c r="B29" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="167" t="s">
         <v>381</v>
-      </c>
-      <c r="C29" s="167" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29" s="167" t="s">
-        <v>382</v>
       </c>
       <c r="E29" s="167">
         <v>2021</v>
@@ -37153,13 +37150,13 @@
         <v>2022</v>
       </c>
       <c r="G29" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H29" s="167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I29" s="167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -37167,13 +37164,13 @@
         <v>69</v>
       </c>
       <c r="B30" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="168" t="s">
         <v>384</v>
-      </c>
-      <c r="C30" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D30" s="168" t="s">
-        <v>385</v>
       </c>
       <c r="E30" s="168">
         <v>2013</v>
@@ -37185,10 +37182,10 @@
         <v>2018</v>
       </c>
       <c r="H30" s="168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I30" s="168" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -37196,13 +37193,13 @@
         <v>69</v>
       </c>
       <c r="B31" s="168" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="168" t="s">
         <v>387</v>
-      </c>
-      <c r="C31" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" s="168" t="s">
-        <v>388</v>
       </c>
       <c r="E31" s="168">
         <v>2017</v>
@@ -37211,13 +37208,13 @@
         <v>2017</v>
       </c>
       <c r="G31" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H31" s="168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I31" s="168" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -37225,13 +37222,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="168" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="168" t="s">
         <v>390</v>
-      </c>
-      <c r="C32" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D32" s="168" t="s">
-        <v>391</v>
       </c>
       <c r="E32" s="168">
         <v>2016</v>
@@ -37240,13 +37237,13 @@
         <v>2016</v>
       </c>
       <c r="G32" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H32" s="168" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I32" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -37254,13 +37251,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C33" s="168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D33" s="168" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33" s="168">
         <v>2019</v>
@@ -37269,13 +37266,13 @@
         <v>2019</v>
       </c>
       <c r="G33" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H33" s="168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I33" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -37283,13 +37280,13 @@
         <v>69</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" s="168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D34" s="168" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E34" s="168">
         <v>2022</v>
@@ -37298,13 +37295,13 @@
         <v>2022</v>
       </c>
       <c r="G34" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H34" s="168" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I34" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -37312,13 +37309,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="C35" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" s="168" t="s">
         <v>465</v>
-      </c>
-      <c r="C35" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" s="168" t="s">
-        <v>466</v>
       </c>
       <c r="E35" s="168">
         <v>2023</v>
@@ -37327,13 +37324,13 @@
         <v>2023</v>
       </c>
       <c r="G35" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H35" s="168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I35" s="168" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -37341,13 +37338,13 @@
         <v>69</v>
       </c>
       <c r="B36" s="168" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="168" t="s">
         <v>467</v>
-      </c>
-      <c r="C36" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="168" t="s">
-        <v>468</v>
       </c>
       <c r="E36" s="168">
         <v>2020</v>
@@ -37356,13 +37353,13 @@
         <v>2020</v>
       </c>
       <c r="G36" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H36" s="168" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I36" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -37370,13 +37367,13 @@
         <v>69</v>
       </c>
       <c r="B37" s="168" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="168" t="s">
         <v>469</v>
-      </c>
-      <c r="C37" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="168" t="s">
-        <v>470</v>
       </c>
       <c r="E37" s="168">
         <v>2018</v>
@@ -37388,10 +37385,10 @@
         <v>2022</v>
       </c>
       <c r="H37" s="168" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I37" s="168" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -37399,13 +37396,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C38" s="168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" s="168" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E38" s="168">
         <v>2017</v>
@@ -37414,13 +37411,13 @@
         <v>2019</v>
       </c>
       <c r="G38" s="168" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="H38" s="168" t="s">
-        <v>340</v>
-      </c>
       <c r="I38" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -37428,13 +37425,13 @@
         <v>69</v>
       </c>
       <c r="B39" s="168" t="s">
+        <v>431</v>
+      </c>
+      <c r="C39" s="168" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="168" t="s">
         <v>432</v>
-      </c>
-      <c r="C39" s="168" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" s="168" t="s">
-        <v>433</v>
       </c>
       <c r="E39" s="168">
         <v>2012</v>
@@ -37443,13 +37440,13 @@
         <v>2018</v>
       </c>
       <c r="G39" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H39" s="168" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I39" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -37457,13 +37454,13 @@
         <v>69</v>
       </c>
       <c r="B40" s="168" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="168" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="168" t="s">
         <v>434</v>
-      </c>
-      <c r="C40" s="168" t="s">
-        <v>337</v>
-      </c>
-      <c r="D40" s="168" t="s">
-        <v>435</v>
       </c>
       <c r="E40" s="168">
         <v>2015</v>
@@ -37472,13 +37469,13 @@
         <v>2020</v>
       </c>
       <c r="G40" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H40" s="168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -37486,13 +37483,13 @@
         <v>69</v>
       </c>
       <c r="B41" s="168" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="168" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" s="168" t="s">
         <v>436</v>
-      </c>
-      <c r="C41" s="168" t="s">
-        <v>337</v>
-      </c>
-      <c r="D41" s="168" t="s">
-        <v>437</v>
       </c>
       <c r="E41" s="168">
         <v>2017</v>
@@ -37501,13 +37498,13 @@
         <v>2019</v>
       </c>
       <c r="G41" s="168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H41" s="168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I41" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="24">
@@ -37551,34 +37548,34 @@
         <v>297</v>
       </c>
       <c r="B1" s="135" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="135" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="D1" s="135" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="E1" s="135" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="F1" s="135" t="s">
         <v>397</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="G1" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="H1" s="135" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="I1" s="135" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="J1" s="135" t="s">
         <v>401</v>
       </c>
-      <c r="J1" s="135" t="s">
-        <v>402</v>
-      </c>
       <c r="K1" s="135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -37595,25 +37592,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="133" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" s="133" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="133" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="133" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="133" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" s="133" t="s">
-        <v>420</v>
-      </c>
       <c r="J2" s="133" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K2" s="133" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -37630,25 +37627,25 @@
         <v>5</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F3" s="133" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="133" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="H3" s="133" t="s">
         <v>407</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="I3" s="133" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="133" t="s">
         <v>408</v>
       </c>
-      <c r="I3" s="133" t="s">
-        <v>405</v>
-      </c>
-      <c r="J3" s="133" t="s">
-        <v>409</v>
-      </c>
       <c r="K3" s="133" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -37665,25 +37662,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="133" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="133" t="s">
         <v>410</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>417</v>
-      </c>
-      <c r="H4" s="133" t="s">
-        <v>411</v>
       </c>
       <c r="I4" s="133" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="133" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K4" s="133" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -37700,25 +37697,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="133" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="133" t="s">
         <v>423</v>
       </c>
-      <c r="F5" s="133" t="s">
-        <v>424</v>
-      </c>
       <c r="G5" s="133" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5" s="133" t="s">
         <v>412</v>
-      </c>
-      <c r="H5" s="133" t="s">
-        <v>413</v>
       </c>
       <c r="I5" s="133" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="133" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K5" s="133" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
@@ -37785,14 +37782,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="241" t="s">
+      <c r="H2" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -37842,14 +37839,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="247" t="s">
+      <c r="I4" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="248"/>
-      <c r="K4" s="242" t="s">
+      <c r="J4" s="241"/>
+      <c r="K4" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="243"/>
+      <c r="L4" s="258"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -37881,10 +37878,10 @@
       <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="254" t="s">
+      <c r="I5" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="255"/>
+      <c r="J5" s="248"/>
       <c r="K5" s="41" t="s">
         <v>55</v>
       </c>
@@ -37915,13 +37912,13 @@
       <c r="E6" s="28"/>
       <c r="F6" s="35"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="245">
+      <c r="H6" s="238">
         <v>45809</v>
       </c>
-      <c r="I6" s="250">
+      <c r="I6" s="243">
         <v>1</v>
       </c>
-      <c r="J6" s="252">
+      <c r="J6" s="245">
         <v>30000</v>
       </c>
       <c r="K6" s="51">
@@ -37964,9 +37961,9 @@
       <c r="E7" s="28"/>
       <c r="F7" s="35"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="253"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="246"/>
       <c r="K7" s="51">
         <v>2</v>
       </c>
@@ -37977,7 +37974,7 @@
         <f>M6-L7</f>
         <v>-2552</v>
       </c>
-      <c r="N7" s="237">
+      <c r="N7" s="252">
         <f>SUM(M7:M14)</f>
         <v>-13945.200000000003</v>
       </c>
@@ -38027,7 +38024,7 @@
         <f t="shared" ref="M8:M14" si="0">J8-L8</f>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N8" s="238"/>
+      <c r="N8" s="253"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -38074,7 +38071,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N9" s="238"/>
+      <c r="N9" s="253"/>
       <c r="O9" s="3"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
@@ -38121,7 +38118,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N10" s="238"/>
+      <c r="N10" s="253"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -38168,7 +38165,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N11" s="238"/>
+      <c r="N11" s="253"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -38215,7 +38212,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N12" s="238"/>
+      <c r="N12" s="253"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -38262,7 +38259,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N13" s="238"/>
+      <c r="N13" s="253"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -38309,7 +38306,7 @@
         <f t="shared" si="0"/>
         <v>-1627.6000000000004</v>
       </c>
-      <c r="N14" s="239"/>
+      <c r="N14" s="254"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -38450,13 +38447,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="240"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="240"/>
-      <c r="N18" s="240"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="255"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="255"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -38477,14 +38474,14 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="247" t="s">
+      <c r="I19" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="249"/>
-      <c r="K19" s="243" t="s">
+      <c r="J19" s="242"/>
+      <c r="K19" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="243"/>
+      <c r="L19" s="258"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -38512,10 +38509,10 @@
       <c r="H20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="254" t="s">
+      <c r="I20" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="256"/>
+      <c r="J20" s="249"/>
       <c r="K20" s="34" t="s">
         <v>55</v>
       </c>
@@ -38540,15 +38537,15 @@
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="E21" s="7"/>
-      <c r="F21" s="244"/>
+      <c r="F21" s="237"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="245">
+      <c r="H21" s="238">
         <v>45809</v>
       </c>
-      <c r="I21" s="250">
+      <c r="I21" s="243">
         <v>1</v>
       </c>
-      <c r="J21" s="257">
+      <c r="J21" s="250">
         <v>31000</v>
       </c>
       <c r="K21" s="37">
@@ -38579,11 +38576,11 @@
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="E22" s="7"/>
-      <c r="F22" s="244"/>
+      <c r="F22" s="237"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="258"/>
+      <c r="H22" s="239"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="251"/>
       <c r="K22" s="37">
         <v>2</v>
       </c>
@@ -38594,7 +38591,7 @@
         <f>M21-L22</f>
         <v>-1552</v>
       </c>
-      <c r="N22" s="237">
+      <c r="N22" s="252">
         <f>SUM(M22:M29)</f>
         <v>-6984</v>
       </c>
@@ -38633,7 +38630,7 @@
         <f t="shared" ref="M23:M29" si="1">J23-L23</f>
         <v>-776</v>
       </c>
-      <c r="N23" s="238"/>
+      <c r="N23" s="253"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -38669,7 +38666,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N24" s="238"/>
+      <c r="N24" s="253"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -38705,7 +38702,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N25" s="238"/>
+      <c r="N25" s="253"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -38741,7 +38738,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N26" s="238"/>
+      <c r="N26" s="253"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -38777,7 +38774,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N27" s="238"/>
+      <c r="N27" s="253"/>
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="3"/>
@@ -38813,7 +38810,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N28" s="238"/>
+      <c r="N28" s="253"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -38849,7 +38846,7 @@
         <f t="shared" si="1"/>
         <v>-776</v>
       </c>
-      <c r="N29" s="239"/>
+      <c r="N29" s="254"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -65274,6 +65271,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="N7:N14"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H6:H7"/>
@@ -65285,12 +65288,6 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="N7:N14"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -65883,10 +65880,10 @@
         <v>97</v>
       </c>
       <c r="C1" s="211" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="211" t="s">
         <v>534</v>
-      </c>
-      <c r="D1" s="211" t="s">
-        <v>535</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -65896,13 +65893,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="212" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C2" s="212">
         <v>2015</v>
       </c>
       <c r="D2" s="212" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1">
@@ -65910,13 +65907,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="212">
         <v>2016</v>
       </c>
       <c r="D3" s="212" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E3"/>
     </row>
@@ -65925,13 +65922,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" s="212">
         <v>2017</v>
       </c>
       <c r="D4" s="212" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -65939,13 +65936,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="212" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="212">
         <v>2021</v>
       </c>
       <c r="D5" s="212" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" s="91"/>
     </row>
@@ -65954,13 +65951,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="212" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C6" s="212">
         <v>2023</v>
       </c>
       <c r="D6" s="212" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -65968,13 +65965,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="212">
         <v>2017</v>
       </c>
       <c r="D7" s="212" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -65982,13 +65979,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C8" s="212">
         <v>2017</v>
       </c>
       <c r="D8" s="212" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -65996,13 +65993,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="213" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="213">
         <v>2017</v>
       </c>
       <c r="D9" s="213" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -66010,13 +66007,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="213">
         <v>2017</v>
       </c>
       <c r="D10" s="213" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -66024,13 +66021,13 @@
         <v>67</v>
       </c>
       <c r="B11" s="213" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="213">
         <v>2019</v>
       </c>
       <c r="D11" s="213" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -66038,13 +66035,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="213" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C12" s="213">
         <v>2022</v>
       </c>
       <c r="D12" s="213" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -66052,13 +66049,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="213" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13" s="213">
         <v>2023</v>
       </c>
       <c r="D13" s="213" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -66066,13 +66063,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" s="213">
         <v>2024</v>
       </c>
       <c r="D14" s="213" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -66080,13 +66077,13 @@
         <v>67</v>
       </c>
       <c r="B15" s="213" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="213">
         <v>2024</v>
       </c>
       <c r="D15" s="213" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -66094,13 +66091,13 @@
         <v>68</v>
       </c>
       <c r="B16" s="214" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C16" s="214">
         <v>2011</v>
       </c>
       <c r="D16" s="214" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -66108,13 +66105,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="214" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C17" s="214">
         <v>2011</v>
       </c>
       <c r="D17" s="214" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -66122,13 +66119,13 @@
         <v>68</v>
       </c>
       <c r="B18" s="214" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C18" s="214">
         <v>2013</v>
       </c>
       <c r="D18" s="214" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -66136,13 +66133,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C19" s="214">
         <v>2019</v>
       </c>
       <c r="D19" s="214" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -66150,13 +66147,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="214">
         <v>2024</v>
       </c>
       <c r="D20" s="214" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -66164,13 +66161,13 @@
         <v>69</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="70">
         <v>2015</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -66178,13 +66175,13 @@
         <v>69</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C22" s="70">
         <v>2015</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -66192,13 +66189,13 @@
         <v>69</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C23" s="70">
         <v>2015</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -66206,13 +66203,13 @@
         <v>69</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C24" s="70">
         <v>2016</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -66220,13 +66217,13 @@
         <v>69</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C25" s="70">
         <v>2016</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -66234,13 +66231,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C26" s="70">
         <v>2016</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -66248,13 +66245,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C27" s="70">
         <v>2016</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -66262,13 +66259,13 @@
         <v>69</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C28" s="70">
         <v>2017</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -66276,13 +66273,13 @@
         <v>69</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" s="70">
         <v>2017</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -66290,13 +66287,13 @@
         <v>69</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C30" s="70">
         <v>2018</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -66304,13 +66301,13 @@
         <v>69</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C31" s="70">
         <v>2018</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -66318,13 +66315,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" s="70">
         <v>2018</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -66332,13 +66329,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C33" s="70">
         <v>2018</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -66346,13 +66343,13 @@
         <v>69</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C34" s="70">
         <v>2021</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -66360,13 +66357,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C35" s="70">
         <v>2025</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -66416,16 +66413,16 @@
         <v>85</v>
       </c>
       <c r="E1" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="79" t="s">
         <v>538</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>536</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>539</v>
       </c>
       <c r="I1" s="79" t="s">
         <v>86</v>
@@ -67027,7 +67024,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -67053,7 +67050,7 @@
         <v>299</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E1" s="180" t="s">
         <v>300</v>
@@ -67070,7 +67067,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="212" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C2" s="231" t="s">
         <v>301</v>
@@ -67095,7 +67092,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C3" s="231" t="s">
         <v>302</v>
@@ -67114,7 +67111,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C4" s="231" t="s">
         <v>301</v>
@@ -67133,7 +67130,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="212" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C5" s="231" t="s">
         <v>303</v>
@@ -67152,7 +67149,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="223" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C6" s="232" t="s">
         <v>301</v>
@@ -67171,7 +67168,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="224" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" s="233" t="s">
         <v>303</v>
@@ -67196,10 +67193,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="222" t="s">
+        <v>548</v>
+      </c>
+      <c r="C8" s="234" t="s">
         <v>549</v>
-      </c>
-      <c r="C8" s="234" t="s">
-        <v>550</v>
       </c>
       <c r="D8" s="229">
         <v>17.7</v>
@@ -67215,7 +67212,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="222" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C9" s="234" t="s">
         <v>305</v>
@@ -67234,7 +67231,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="222" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="234" t="s">
         <v>303</v>
@@ -67253,7 +67250,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="225" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C11" s="235" t="s">
         <v>303</v>
